--- a/LGC_Motiv_analysis/nutrition/taux.xlsx
+++ b/LGC_Motiv_analysis/nutrition/taux.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nhatanhdao/Documents/Projet de Bachelor travail/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nhatanhdao/Documents/Projet de Bachelor rendu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DB4B10-7F53-8D4E-B04A-66242D49813F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A410C45D-17BD-F243-9B94-ECCB5B89847F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16740" xr2:uid="{1707A41E-2127-944B-9530-FAB8E43081B2}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" xr2:uid="{1707A41E-2127-944B-9530-FAB8E43081B2}"/>
   </bookViews>
   <sheets>
     <sheet name="AFTER CONV" sheetId="2" r:id="rId1"/>
@@ -705,7 +705,7 @@
   <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2119,23 +2119,23 @@
       </c>
       <c r="B57">
         <f>'BEFORE CONV'!B57*'BEFORE CONV'!G57</f>
-        <v>0</v>
+        <v>391</v>
       </c>
       <c r="C57">
         <f>'BEFORE CONV'!C57*'BEFORE CONV'!G57</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D57">
         <f>'BEFORE CONV'!D57*'BEFORE CONV'!G57</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E57">
         <f>'BEFORE CONV'!E57*'BEFORE CONV'!G57</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="F57">
         <f>'BEFORE CONV'!F57*'BEFORE CONV'!G57</f>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -2619,7 +2619,7 @@
       </c>
       <c r="B77">
         <f>'BEFORE CONV'!B77*'BEFORE CONV'!G77</f>
-        <v>0</v>
+        <v>0.23500000000000001</v>
       </c>
       <c r="C77">
         <f>'BEFORE CONV'!C77*'BEFORE CONV'!G77</f>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="B78">
         <f>'BEFORE CONV'!B78*'BEFORE CONV'!G78</f>
-        <v>0</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="C78">
         <f>'BEFORE CONV'!C78*'BEFORE CONV'!G78</f>
@@ -2897,8 +2897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{166717F2-E182-F349-B994-9EFBA99CFF32}">
   <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="94" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48:F48"/>
+    <sheetView topLeftCell="A53" zoomScale="94" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4255,6 +4255,9 @@
       <c r="F57">
         <v>18</v>
       </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
@@ -4726,6 +4729,10 @@
       <c r="F77">
         <v>0</v>
       </c>
+      <c r="G77">
+        <f>5*0.001</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
@@ -4745,6 +4752,10 @@
       </c>
       <c r="F78">
         <v>0</v>
+      </c>
+      <c r="G78">
+        <f>5*0.001</f>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">

--- a/LGC_Motiv_analysis/nutrition/taux.xlsx
+++ b/LGC_Motiv_analysis/nutrition/taux.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nhatanhdao/Documents/Projet de Bachelor rendu/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Loco\Documents\GitHub\LGC_motiv\LGC_Motiv_analysis\nutrition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A410C45D-17BD-F243-9B94-ECCB5B89847F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44B3C3C-72F5-4FB3-A311-7B54E5917A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" xr2:uid="{1707A41E-2127-944B-9530-FAB8E43081B2}"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{1707A41E-2127-944B-9530-FAB8E43081B2}"/>
   </bookViews>
   <sheets>
     <sheet name="AFTER CONV" sheetId="2" r:id="rId1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="104">
   <si>
     <t>Question</t>
   </si>
@@ -314,9 +312,6 @@
     <t>Energie [kcal]</t>
   </si>
   <si>
-    <t>Conversion</t>
-  </si>
-  <si>
     <t>Liquor, Schnapps (brandy) 2 cl = 20 g</t>
   </si>
   <si>
@@ -333,13 +328,81 @@
   </si>
   <si>
     <t>Energie [kcal/100g]</t>
+  </si>
+  <si>
+    <t>Taux d'oméga 3 [mg/100mg]</t>
+  </si>
+  <si>
+    <t>Conversion [from 100mg portion to actual portion]</t>
+  </si>
+  <si>
+    <t>Lemonade 1 petite bouteille = 500 g</t>
+  </si>
+  <si>
+    <t>Cola 1 petite bouteille = 500 g</t>
+  </si>
+  <si>
+    <r>
+      <t>Taux d'équivalents de niacine [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>μg</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/100g]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Taux de niacine [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>μg</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/100g]</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -358,6 +421,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -384,10 +456,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,7 +487,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -704,21 +785,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF765684-8B7E-2D4B-ABA8-2D28FB30B5F3}">
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J74" sqref="J74"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" customWidth="1"/>
-    <col min="5" max="5" width="26.83203125" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.875" customWidth="1"/>
+    <col min="3" max="3" width="28.625" customWidth="1"/>
+    <col min="4" max="4" width="24.875" customWidth="1"/>
+    <col min="5" max="5" width="26.875" customWidth="1"/>
+    <col min="6" max="6" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -738,2153 +819,2153 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <f>'BEFORE CONV'!B2*'BEFORE CONV'!G2</f>
-        <v>0.17907500000000001</v>
+        <f>'BEFORE CONV'!B2*'BEFORE CONV'!J2</f>
+        <v>179.07499999999999</v>
       </c>
       <c r="C2">
-        <f>'BEFORE CONV'!C2*'BEFORE CONV'!G2</f>
-        <v>6.8875000000000006E-2</v>
+        <f>'BEFORE CONV'!C2*'BEFORE CONV'!J2</f>
+        <v>68.875</v>
       </c>
       <c r="D2">
-        <f>'BEFORE CONV'!D2*'BEFORE CONV'!G2</f>
-        <v>0.101935</v>
+        <f>'BEFORE CONV'!D2*'BEFORE CONV'!J2</f>
+        <v>101.935</v>
       </c>
       <c r="E2">
-        <f>'BEFORE CONV'!E2*'BEFORE CONV'!G2</f>
-        <v>1.942275</v>
+        <f>'BEFORE CONV'!E2*'BEFORE CONV'!J2</f>
+        <v>1942.2749999999999</v>
       </c>
       <c r="F2">
-        <f>'BEFORE CONV'!F2*'BEFORE CONV'!G2</f>
-        <v>0.17632</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F2*'BEFORE CONV'!J2</f>
+        <v>176.32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <f>'BEFORE CONV'!B3*'BEFORE CONV'!G3</f>
-        <v>8.9425000000000018E-2</v>
+        <f>'BEFORE CONV'!B3*'BEFORE CONV'!J3</f>
+        <v>89.425000000000011</v>
       </c>
       <c r="C3">
-        <f>'BEFORE CONV'!C3*'BEFORE CONV'!G3</f>
-        <v>6.6430000000000017E-2</v>
+        <f>'BEFORE CONV'!C3*'BEFORE CONV'!J3</f>
+        <v>66.430000000000007</v>
       </c>
       <c r="D3">
-        <f>'BEFORE CONV'!D3*'BEFORE CONV'!G3</f>
-        <v>9.7038900000000011E-2</v>
+        <f>'BEFORE CONV'!D3*'BEFORE CONV'!J3</f>
+        <v>97.038899999999998</v>
       </c>
       <c r="E3">
-        <f>'BEFORE CONV'!E3*'BEFORE CONV'!G3</f>
-        <v>1.8574850000000003</v>
+        <f>'BEFORE CONV'!E3*'BEFORE CONV'!J3</f>
+        <v>1857.4850000000001</v>
       </c>
       <c r="F3">
-        <f>'BEFORE CONV'!F3*'BEFORE CONV'!G3</f>
-        <v>0.16863000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F3*'BEFORE CONV'!J3</f>
+        <v>168.63000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <f>'BEFORE CONV'!B4*'BEFORE CONV'!G4</f>
-        <v>0.14749999999999999</v>
+        <f>'BEFORE CONV'!B4*'BEFORE CONV'!J4</f>
+        <v>147.5</v>
       </c>
       <c r="C4">
-        <f>'BEFORE CONV'!C4*'BEFORE CONV'!G4</f>
-        <v>3.5000000000000003E-2</v>
+        <f>'BEFORE CONV'!C4*'BEFORE CONV'!J4</f>
+        <v>35</v>
       </c>
       <c r="D4">
-        <f>'BEFORE CONV'!D4*'BEFORE CONV'!G4</f>
-        <v>5.6250000000000001E-2</v>
+        <f>'BEFORE CONV'!D4*'BEFORE CONV'!J4</f>
+        <v>56.25</v>
       </c>
       <c r="E4">
-        <f>'BEFORE CONV'!E4*'BEFORE CONV'!G4</f>
-        <v>0.69000000000000006</v>
+        <f>'BEFORE CONV'!E4*'BEFORE CONV'!J4</f>
+        <v>690</v>
       </c>
       <c r="F4">
-        <f>'BEFORE CONV'!F4*'BEFORE CONV'!G4</f>
-        <v>8.1250000000000003E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F4*'BEFORE CONV'!J4</f>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <f>'BEFORE CONV'!B5*'BEFORE CONV'!G5</f>
-        <v>7.2999999999999995E-2</v>
+        <f>'BEFORE CONV'!B5*'BEFORE CONV'!J5</f>
+        <v>73</v>
       </c>
       <c r="C5">
-        <f>'BEFORE CONV'!C5*'BEFORE CONV'!G5</f>
-        <v>0.112</v>
+        <f>'BEFORE CONV'!C5*'BEFORE CONV'!J5</f>
+        <v>112</v>
       </c>
       <c r="D5">
-        <f>'BEFORE CONV'!D5*'BEFORE CONV'!G5</f>
-        <v>0.159</v>
+        <f>'BEFORE CONV'!D5*'BEFORE CONV'!J5</f>
+        <v>159</v>
       </c>
       <c r="E5">
-        <f>'BEFORE CONV'!E5*'BEFORE CONV'!G5</f>
-        <v>2.657</v>
+        <f>'BEFORE CONV'!E5*'BEFORE CONV'!J5</f>
+        <v>2657</v>
       </c>
       <c r="F5">
-        <f>'BEFORE CONV'!F5*'BEFORE CONV'!G5</f>
-        <v>0.20300000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F5*'BEFORE CONV'!J5</f>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <f>'BEFORE CONV'!B6*'BEFORE CONV'!G6</f>
-        <v>0.39300000000000002</v>
+        <f>'BEFORE CONV'!B6*'BEFORE CONV'!J6</f>
+        <v>393</v>
       </c>
       <c r="C6">
-        <f>'BEFORE CONV'!C6*'BEFORE CONV'!G6</f>
-        <v>0.21</v>
+        <f>'BEFORE CONV'!C6*'BEFORE CONV'!J6</f>
+        <v>210</v>
       </c>
       <c r="D6">
-        <f>'BEFORE CONV'!D6*'BEFORE CONV'!G6</f>
-        <v>0.28999999999999998</v>
+        <f>'BEFORE CONV'!D6*'BEFORE CONV'!J6</f>
+        <v>290</v>
       </c>
       <c r="E6">
-        <f>'BEFORE CONV'!E6*'BEFORE CONV'!G6</f>
-        <v>6.62</v>
+        <f>'BEFORE CONV'!E6*'BEFORE CONV'!J6</f>
+        <v>6620</v>
       </c>
       <c r="F6">
-        <f>'BEFORE CONV'!F6*'BEFORE CONV'!G6</f>
-        <v>0.47000000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F6*'BEFORE CONV'!J6</f>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <f>'BEFORE CONV'!B7*'BEFORE CONV'!G7</f>
-        <v>6.0600000000000001E-2</v>
+        <f>'BEFORE CONV'!B7*'BEFORE CONV'!J7</f>
+        <v>60.6</v>
       </c>
       <c r="C7">
-        <f>'BEFORE CONV'!C7*'BEFORE CONV'!G7</f>
-        <v>4.0000000000000001E-3</v>
+        <f>'BEFORE CONV'!C7*'BEFORE CONV'!J7</f>
+        <v>4</v>
       </c>
       <c r="D7">
-        <f>'BEFORE CONV'!D7*'BEFORE CONV'!G7</f>
-        <v>6.2000000000000006E-3</v>
+        <f>'BEFORE CONV'!D7*'BEFORE CONV'!J7</f>
+        <v>6.2</v>
       </c>
       <c r="E7">
-        <f>'BEFORE CONV'!E7*'BEFORE CONV'!G7</f>
-        <v>9.5000000000000001E-2</v>
+        <f>'BEFORE CONV'!E7*'BEFORE CONV'!J7</f>
+        <v>95</v>
       </c>
       <c r="F7">
-        <f>'BEFORE CONV'!F7*'BEFORE CONV'!G7</f>
-        <v>9.6000000000000009E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F7*'BEFORE CONV'!J7</f>
+        <v>9.6000000000000014</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <f>'BEFORE CONV'!B8*'BEFORE CONV'!G8</f>
+        <f>'BEFORE CONV'!B8*'BEFORE CONV'!J8</f>
         <v>70</v>
       </c>
       <c r="C8">
-        <f>'BEFORE CONV'!C8*'BEFORE CONV'!G8</f>
+        <f>'BEFORE CONV'!C8*'BEFORE CONV'!J8</f>
         <v>14</v>
       </c>
       <c r="D8">
-        <f>'BEFORE CONV'!D8*'BEFORE CONV'!G8</f>
+        <f>'BEFORE CONV'!D8*'BEFORE CONV'!J8</f>
         <v>5</v>
       </c>
       <c r="E8">
-        <f>'BEFORE CONV'!E8*'BEFORE CONV'!G8</f>
+        <f>'BEFORE CONV'!E8*'BEFORE CONV'!J8</f>
         <v>185</v>
       </c>
       <c r="F8">
-        <f>'BEFORE CONV'!F8*'BEFORE CONV'!G8</f>
+        <f>'BEFORE CONV'!F8*'BEFORE CONV'!J8</f>
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <f>'BEFORE CONV'!B9*'BEFORE CONV'!G9</f>
-        <v>0.14639999999999997</v>
+        <f>'BEFORE CONV'!B9*'BEFORE CONV'!J9</f>
+        <v>146.4</v>
       </c>
       <c r="C9">
-        <f>'BEFORE CONV'!C9*'BEFORE CONV'!G9</f>
-        <v>2.3999999999999998E-3</v>
+        <f>'BEFORE CONV'!C9*'BEFORE CONV'!J9</f>
+        <v>2.4</v>
       </c>
       <c r="D9">
-        <f>'BEFORE CONV'!D9*'BEFORE CONV'!G9</f>
-        <v>7.1999999999999998E-3</v>
+        <f>'BEFORE CONV'!D9*'BEFORE CONV'!J9</f>
+        <v>7.1999999999999993</v>
       </c>
       <c r="E9">
-        <f>'BEFORE CONV'!E9*'BEFORE CONV'!G9</f>
-        <v>7.6799999999999993E-2</v>
+        <f>'BEFORE CONV'!E9*'BEFORE CONV'!J9</f>
+        <v>76.8</v>
       </c>
       <c r="F9">
-        <f>'BEFORE CONV'!F9*'BEFORE CONV'!G9</f>
-        <v>2.6399999999999996E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F9*'BEFORE CONV'!J9</f>
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <f>'BEFORE CONV'!B10*'BEFORE CONV'!G10</f>
-        <v>6.1499999999999999E-2</v>
+        <f>'BEFORE CONV'!B10*'BEFORE CONV'!J10</f>
+        <v>61.5</v>
       </c>
       <c r="C10">
-        <f>'BEFORE CONV'!C10*'BEFORE CONV'!G10</f>
-        <v>1.8000000000000002E-2</v>
+        <f>'BEFORE CONV'!C10*'BEFORE CONV'!J10</f>
+        <v>18</v>
       </c>
       <c r="D10">
-        <f>'BEFORE CONV'!D10*'BEFORE CONV'!G10</f>
-        <v>9.0000000000000011E-3</v>
+        <f>'BEFORE CONV'!D10*'BEFORE CONV'!J10</f>
+        <v>9</v>
       </c>
       <c r="E10">
-        <f>'BEFORE CONV'!E10*'BEFORE CONV'!G10</f>
-        <v>0.26550000000000001</v>
+        <f>'BEFORE CONV'!E10*'BEFORE CONV'!J10</f>
+        <v>265.5</v>
       </c>
       <c r="F10">
-        <f>'BEFORE CONV'!F10*'BEFORE CONV'!G10</f>
-        <v>2.8500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F10*'BEFORE CONV'!J10</f>
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <f>'BEFORE CONV'!B11*'BEFORE CONV'!G11</f>
-        <v>6.0199999999999997E-2</v>
+        <f>'BEFORE CONV'!B11*'BEFORE CONV'!J11</f>
+        <v>60.199999999999996</v>
       </c>
       <c r="C11">
-        <f>'BEFORE CONV'!C11*'BEFORE CONV'!G11</f>
-        <v>5.5999999999999999E-3</v>
+        <f>'BEFORE CONV'!C11*'BEFORE CONV'!J11</f>
+        <v>5.6</v>
       </c>
       <c r="D11">
-        <f>'BEFORE CONV'!D11*'BEFORE CONV'!G11</f>
-        <v>1.26E-2</v>
+        <f>'BEFORE CONV'!D11*'BEFORE CONV'!J11</f>
+        <v>12.6</v>
       </c>
       <c r="E11">
-        <f>'BEFORE CONV'!E11*'BEFORE CONV'!G11</f>
-        <v>0.1232</v>
+        <f>'BEFORE CONV'!E11*'BEFORE CONV'!J11</f>
+        <v>123.19999999999999</v>
       </c>
       <c r="F11">
-        <f>'BEFORE CONV'!F11*'BEFORE CONV'!G11</f>
-        <v>4.3400000000000001E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F11*'BEFORE CONV'!J11</f>
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <f>'BEFORE CONV'!B12*'BEFORE CONV'!G12</f>
-        <v>2.1599999999999998E-2</v>
+        <f>'BEFORE CONV'!B12*'BEFORE CONV'!J12</f>
+        <v>21.599999999999998</v>
       </c>
       <c r="C12">
-        <f>'BEFORE CONV'!C12*'BEFORE CONV'!G12</f>
-        <v>6.5999999999999991E-3</v>
+        <f>'BEFORE CONV'!C12*'BEFORE CONV'!J12</f>
+        <v>6.6</v>
       </c>
       <c r="D12">
-        <f>'BEFORE CONV'!D12*'BEFORE CONV'!G12</f>
-        <v>2.9999999999999996E-3</v>
+        <f>'BEFORE CONV'!D12*'BEFORE CONV'!J12</f>
+        <v>3</v>
       </c>
       <c r="E12">
-        <f>'BEFORE CONV'!E12*'BEFORE CONV'!G12</f>
-        <v>0.06</v>
+        <f>'BEFORE CONV'!E12*'BEFORE CONV'!J12</f>
+        <v>60</v>
       </c>
       <c r="F12">
-        <f>'BEFORE CONV'!F12*'BEFORE CONV'!G12</f>
-        <v>5.0399999999999993E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F12*'BEFORE CONV'!J12</f>
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <f>'BEFORE CONV'!B13*'BEFORE CONV'!G13</f>
-        <v>7.5999999999999998E-2</v>
+        <f>'BEFORE CONV'!B13*'BEFORE CONV'!J13</f>
+        <v>76</v>
       </c>
       <c r="C13">
-        <f>'BEFORE CONV'!C13*'BEFORE CONV'!G13</f>
-        <v>6.0000000000000001E-3</v>
+        <f>'BEFORE CONV'!C13*'BEFORE CONV'!J13</f>
+        <v>6</v>
       </c>
       <c r="D13">
-        <f>'BEFORE CONV'!D13*'BEFORE CONV'!G13</f>
-        <v>0.02</v>
+        <f>'BEFORE CONV'!D13*'BEFORE CONV'!J13</f>
+        <v>20</v>
       </c>
       <c r="E13">
-        <f>'BEFORE CONV'!E13*'BEFORE CONV'!G13</f>
-        <v>0.18</v>
+        <f>'BEFORE CONV'!E13*'BEFORE CONV'!J13</f>
+        <v>180</v>
       </c>
       <c r="F13">
-        <f>'BEFORE CONV'!F13*'BEFORE CONV'!G13</f>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F13*'BEFORE CONV'!J13</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <f>'BEFORE CONV'!B14*'BEFORE CONV'!G14</f>
-        <v>0.11</v>
+        <f>'BEFORE CONV'!B14*'BEFORE CONV'!J14</f>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C14">
-        <f>'BEFORE CONV'!C14*'BEFORE CONV'!G14</f>
-        <v>1.2E-2</v>
+        <f>'BEFORE CONV'!C14*'BEFORE CONV'!J14</f>
+        <v>0.12</v>
       </c>
       <c r="D14">
-        <f>'BEFORE CONV'!D14*'BEFORE CONV'!G14</f>
-        <v>0.01</v>
+        <f>'BEFORE CONV'!D14*'BEFORE CONV'!J14</f>
+        <v>0.1</v>
       </c>
       <c r="E14">
-        <f>'BEFORE CONV'!E14*'BEFORE CONV'!G14</f>
-        <v>0.27200000000000002</v>
+        <f>'BEFORE CONV'!E14*'BEFORE CONV'!J14</f>
+        <v>2.72</v>
       </c>
       <c r="F14">
-        <f>'BEFORE CONV'!F14*'BEFORE CONV'!G14</f>
-        <v>9.6000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F14*'BEFORE CONV'!J14</f>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <f>'BEFORE CONV'!B15*'BEFORE CONV'!G15</f>
+        <f>'BEFORE CONV'!B15*'BEFORE CONV'!J15</f>
         <v>32</v>
       </c>
       <c r="C15">
-        <f>'BEFORE CONV'!C15*'BEFORE CONV'!G15</f>
+        <f>'BEFORE CONV'!C15*'BEFORE CONV'!J15</f>
         <v>8</v>
       </c>
       <c r="D15">
-        <f>'BEFORE CONV'!D15*'BEFORE CONV'!G15</f>
+        <f>'BEFORE CONV'!D15*'BEFORE CONV'!J15</f>
         <v>17</v>
       </c>
       <c r="E15">
-        <f>'BEFORE CONV'!E15*'BEFORE CONV'!G15</f>
+        <f>'BEFORE CONV'!E15*'BEFORE CONV'!J15</f>
         <v>141</v>
       </c>
       <c r="F15">
-        <f>'BEFORE CONV'!F15*'BEFORE CONV'!G15</f>
+        <f>'BEFORE CONV'!F15*'BEFORE CONV'!J15</f>
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <f>'BEFORE CONV'!B16*'BEFORE CONV'!G16</f>
+        <f>'BEFORE CONV'!B16*'BEFORE CONV'!J16</f>
         <v>36</v>
       </c>
       <c r="C16">
-        <f>'BEFORE CONV'!C16*'BEFORE CONV'!G16</f>
+        <f>'BEFORE CONV'!C16*'BEFORE CONV'!J16</f>
         <v>15</v>
       </c>
       <c r="D16">
-        <f>'BEFORE CONV'!D16*'BEFORE CONV'!G16</f>
+        <f>'BEFORE CONV'!D16*'BEFORE CONV'!J16</f>
         <v>15</v>
       </c>
       <c r="E16">
-        <f>'BEFORE CONV'!E16*'BEFORE CONV'!G16</f>
+        <f>'BEFORE CONV'!E16*'BEFORE CONV'!J16</f>
         <v>245</v>
       </c>
       <c r="F16">
-        <f>'BEFORE CONV'!F16*'BEFORE CONV'!G16</f>
+        <f>'BEFORE CONV'!F16*'BEFORE CONV'!J16</f>
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <f>'BEFORE CONV'!B17*'BEFORE CONV'!G17</f>
+        <f>'BEFORE CONV'!B17*'BEFORE CONV'!J17</f>
         <v>45</v>
       </c>
       <c r="C17">
-        <f>'BEFORE CONV'!C17*'BEFORE CONV'!G17</f>
+        <f>'BEFORE CONV'!C17*'BEFORE CONV'!J17</f>
         <v>4</v>
       </c>
       <c r="D17">
-        <f>'BEFORE CONV'!D17*'BEFORE CONV'!G17</f>
+        <f>'BEFORE CONV'!D17*'BEFORE CONV'!J17</f>
         <v>0</v>
       </c>
       <c r="E17">
-        <f>'BEFORE CONV'!E17*'BEFORE CONV'!G17</f>
+        <f>'BEFORE CONV'!E17*'BEFORE CONV'!J17</f>
         <v>42</v>
       </c>
       <c r="F17">
-        <f>'BEFORE CONV'!F17*'BEFORE CONV'!G17</f>
+        <f>'BEFORE CONV'!F17*'BEFORE CONV'!J17</f>
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <f>'BEFORE CONV'!B18*'BEFORE CONV'!G18</f>
+        <f>'BEFORE CONV'!B18*'BEFORE CONV'!J18</f>
         <v>56</v>
       </c>
       <c r="C18">
-        <f>'BEFORE CONV'!C18*'BEFORE CONV'!G18</f>
+        <f>'BEFORE CONV'!C18*'BEFORE CONV'!J18</f>
         <v>2</v>
       </c>
       <c r="D18">
-        <f>'BEFORE CONV'!D18*'BEFORE CONV'!G18</f>
+        <f>'BEFORE CONV'!D18*'BEFORE CONV'!J18</f>
         <v>7</v>
       </c>
       <c r="E18">
-        <f>'BEFORE CONV'!E18*'BEFORE CONV'!G18</f>
+        <f>'BEFORE CONV'!E18*'BEFORE CONV'!J18</f>
         <v>63</v>
       </c>
       <c r="F18">
-        <f>'BEFORE CONV'!F18*'BEFORE CONV'!G18</f>
+        <f>'BEFORE CONV'!F18*'BEFORE CONV'!J18</f>
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <f>'BEFORE CONV'!B19*'BEFORE CONV'!G19</f>
-        <v>9.7350000000000006E-2</v>
+        <f>'BEFORE CONV'!B19*'BEFORE CONV'!J19</f>
+        <v>97.35</v>
       </c>
       <c r="C19">
-        <f>'BEFORE CONV'!C19*'BEFORE CONV'!G19</f>
+        <f>'BEFORE CONV'!C19*'BEFORE CONV'!J19</f>
         <v>0</v>
       </c>
       <c r="D19">
-        <f>'BEFORE CONV'!D19*'BEFORE CONV'!G19</f>
-        <v>1.9799999999999998E-2</v>
+        <f>'BEFORE CONV'!D19*'BEFORE CONV'!J19</f>
+        <v>19.799999999999997</v>
       </c>
       <c r="E19">
-        <f>'BEFORE CONV'!E19*'BEFORE CONV'!G19</f>
-        <v>0.1419</v>
+        <f>'BEFORE CONV'!E19*'BEFORE CONV'!J19</f>
+        <v>141.9</v>
       </c>
       <c r="F19">
-        <f>'BEFORE CONV'!F19*'BEFORE CONV'!G19</f>
-        <v>4.9500000000000002E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F19*'BEFORE CONV'!J19</f>
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <f>'BEFORE CONV'!B20*'BEFORE CONV'!G20</f>
-        <v>0.03</v>
+        <f>'BEFORE CONV'!B20*'BEFORE CONV'!J20</f>
+        <v>30</v>
       </c>
       <c r="C20">
-        <f>'BEFORE CONV'!C20*'BEFORE CONV'!G20</f>
-        <v>1.5E-3</v>
+        <f>'BEFORE CONV'!C20*'BEFORE CONV'!J20</f>
+        <v>1.5</v>
       </c>
       <c r="D20">
-        <f>'BEFORE CONV'!D20*'BEFORE CONV'!G20</f>
-        <v>4.5000000000000005E-3</v>
+        <f>'BEFORE CONV'!D20*'BEFORE CONV'!J20</f>
+        <v>4.5</v>
       </c>
       <c r="E20">
-        <f>'BEFORE CONV'!E20*'BEFORE CONV'!G20</f>
-        <v>1.8000000000000002E-2</v>
+        <f>'BEFORE CONV'!E20*'BEFORE CONV'!J20</f>
+        <v>18</v>
       </c>
       <c r="F20">
-        <f>'BEFORE CONV'!F20*'BEFORE CONV'!G20</f>
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F20*'BEFORE CONV'!J20</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <f>'BEFORE CONV'!B21*'BEFORE CONV'!G21</f>
-        <v>0.10799999999999998</v>
+        <f>'BEFORE CONV'!B21*'BEFORE CONV'!J21</f>
+        <v>108</v>
       </c>
       <c r="C21">
-        <f>'BEFORE CONV'!C21*'BEFORE CONV'!G21</f>
-        <v>3.5999999999999999E-3</v>
+        <f>'BEFORE CONV'!C21*'BEFORE CONV'!J21</f>
+        <v>3.5999999999999996</v>
       </c>
       <c r="D21">
-        <f>'BEFORE CONV'!D21*'BEFORE CONV'!G21</f>
-        <v>2.7599999999999996E-2</v>
+        <f>'BEFORE CONV'!D21*'BEFORE CONV'!J21</f>
+        <v>27.599999999999998</v>
       </c>
       <c r="E21">
-        <f>'BEFORE CONV'!E21*'BEFORE CONV'!G21</f>
-        <v>0.16319999999999998</v>
+        <f>'BEFORE CONV'!E21*'BEFORE CONV'!J21</f>
+        <v>163.19999999999999</v>
       </c>
       <c r="F21">
-        <f>'BEFORE CONV'!F21*'BEFORE CONV'!G21</f>
-        <v>6.4799999999999996E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F21*'BEFORE CONV'!J21</f>
+        <v>64.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22">
-        <f>'BEFORE CONV'!B22*'BEFORE CONV'!G22</f>
+        <f>'BEFORE CONV'!B22*'BEFORE CONV'!J22</f>
         <v>17</v>
       </c>
       <c r="C22">
-        <f>'BEFORE CONV'!C22*'BEFORE CONV'!G22</f>
+        <f>'BEFORE CONV'!C22*'BEFORE CONV'!J22</f>
         <v>1</v>
       </c>
       <c r="D22">
-        <f>'BEFORE CONV'!D22*'BEFORE CONV'!G22</f>
+        <f>'BEFORE CONV'!D22*'BEFORE CONV'!J22</f>
         <v>8</v>
       </c>
       <c r="E22">
-        <f>'BEFORE CONV'!E22*'BEFORE CONV'!G22</f>
+        <f>'BEFORE CONV'!E22*'BEFORE CONV'!J22</f>
         <v>424</v>
       </c>
       <c r="F22">
-        <f>'BEFORE CONV'!F22*'BEFORE CONV'!G22</f>
+        <f>'BEFORE CONV'!F22*'BEFORE CONV'!J22</f>
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23">
-        <f>'BEFORE CONV'!B23*'BEFORE CONV'!G23</f>
-        <v>0.12</v>
+        <f>'BEFORE CONV'!B23*'BEFORE CONV'!J23</f>
+        <v>120</v>
       </c>
       <c r="C23">
-        <f>'BEFORE CONV'!C23*'BEFORE CONV'!G23</f>
-        <v>4.5999999999999999E-2</v>
+        <f>'BEFORE CONV'!C23*'BEFORE CONV'!J23</f>
+        <v>46</v>
       </c>
       <c r="D23">
-        <f>'BEFORE CONV'!D23*'BEFORE CONV'!G23</f>
-        <v>3.4000000000000002E-2</v>
+        <f>'BEFORE CONV'!D23*'BEFORE CONV'!J23</f>
+        <v>34</v>
       </c>
       <c r="E23">
-        <f>'BEFORE CONV'!E23*'BEFORE CONV'!G23</f>
-        <v>1.1779999999999999</v>
+        <f>'BEFORE CONV'!E23*'BEFORE CONV'!J23</f>
+        <v>1178</v>
       </c>
       <c r="F23">
-        <f>'BEFORE CONV'!F23*'BEFORE CONV'!G23</f>
-        <v>0.112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F23*'BEFORE CONV'!J23</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24">
-        <f>'BEFORE CONV'!B24*'BEFORE CONV'!G24</f>
-        <v>1.4999999999999999E-2</v>
+        <f>'BEFORE CONV'!B24*'BEFORE CONV'!J24</f>
+        <v>15</v>
       </c>
       <c r="C24">
-        <f>'BEFORE CONV'!C24*'BEFORE CONV'!G24</f>
-        <v>5.0000000000000001E-3</v>
+        <f>'BEFORE CONV'!C24*'BEFORE CONV'!J24</f>
+        <v>5</v>
       </c>
       <c r="D24">
-        <f>'BEFORE CONV'!D24*'BEFORE CONV'!G24</f>
-        <v>5.0000000000000001E-3</v>
+        <f>'BEFORE CONV'!D24*'BEFORE CONV'!J24</f>
+        <v>5</v>
       </c>
       <c r="E24">
-        <f>'BEFORE CONV'!E24*'BEFORE CONV'!G24</f>
-        <v>0.29499999999999998</v>
+        <f>'BEFORE CONV'!E24*'BEFORE CONV'!J24</f>
+        <v>295</v>
       </c>
       <c r="F24">
-        <f>'BEFORE CONV'!F24*'BEFORE CONV'!G24</f>
-        <v>3.6249999999999998E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F24*'BEFORE CONV'!J24</f>
+        <v>36.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25">
-        <f>'BEFORE CONV'!B25*'BEFORE CONV'!G25</f>
-        <v>0.12125</v>
+        <f>'BEFORE CONV'!B25*'BEFORE CONV'!J25</f>
+        <v>121.25</v>
       </c>
       <c r="C25">
-        <f>'BEFORE CONV'!C25*'BEFORE CONV'!G25</f>
-        <v>7.6249999999999998E-2</v>
+        <f>'BEFORE CONV'!C25*'BEFORE CONV'!J25</f>
+        <v>76.25</v>
       </c>
       <c r="D25">
-        <f>'BEFORE CONV'!D25*'BEFORE CONV'!G25</f>
-        <v>9.1249999999999998E-2</v>
+        <f>'BEFORE CONV'!D25*'BEFORE CONV'!J25</f>
+        <v>91.25</v>
       </c>
       <c r="E25">
-        <f>'BEFORE CONV'!E25*'BEFORE CONV'!G25</f>
-        <v>1.53125</v>
+        <f>'BEFORE CONV'!E25*'BEFORE CONV'!J25</f>
+        <v>1531.25</v>
       </c>
       <c r="F25">
-        <f>'BEFORE CONV'!F25*'BEFORE CONV'!G25</f>
-        <v>0.27250000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F25*'BEFORE CONV'!J25</f>
+        <v>272.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26">
-        <f>'BEFORE CONV'!B26*'BEFORE CONV'!G26</f>
-        <v>5.3749999999999999E-2</v>
+        <f>'BEFORE CONV'!B26*'BEFORE CONV'!J26</f>
+        <v>53.75</v>
       </c>
       <c r="C26">
-        <f>'BEFORE CONV'!C26*'BEFORE CONV'!G26</f>
-        <v>0.03</v>
+        <f>'BEFORE CONV'!C26*'BEFORE CONV'!J26</f>
+        <v>30</v>
       </c>
       <c r="D26">
-        <f>'BEFORE CONV'!D26*'BEFORE CONV'!G26</f>
-        <v>1.6250000000000001E-2</v>
+        <f>'BEFORE CONV'!D26*'BEFORE CONV'!J26</f>
+        <v>16.25</v>
       </c>
       <c r="E26">
-        <f>'BEFORE CONV'!E26*'BEFORE CONV'!G26</f>
-        <v>0.33124999999999999</v>
+        <f>'BEFORE CONV'!E26*'BEFORE CONV'!J26</f>
+        <v>331.25</v>
       </c>
       <c r="F26">
-        <f>'BEFORE CONV'!F26*'BEFORE CONV'!G26</f>
-        <v>4.2500000000000003E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F26*'BEFORE CONV'!J26</f>
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27">
-        <f>'BEFORE CONV'!B27*'BEFORE CONV'!G27</f>
-        <v>3.5000000000000003E-2</v>
+        <f>'BEFORE CONV'!B27*'BEFORE CONV'!J27</f>
+        <v>35</v>
       </c>
       <c r="C27">
-        <f>'BEFORE CONV'!C27*'BEFORE CONV'!G27</f>
-        <v>0.08</v>
+        <f>'BEFORE CONV'!C27*'BEFORE CONV'!J27</f>
+        <v>80</v>
       </c>
       <c r="D27">
-        <f>'BEFORE CONV'!D27*'BEFORE CONV'!G27</f>
-        <v>5.6250000000000001E-2</v>
+        <f>'BEFORE CONV'!D27*'BEFORE CONV'!J27</f>
+        <v>56.25</v>
       </c>
       <c r="E27">
-        <f>'BEFORE CONV'!E27*'BEFORE CONV'!G27</f>
-        <v>1.00875</v>
+        <f>'BEFORE CONV'!E27*'BEFORE CONV'!J27</f>
+        <v>1008.75</v>
       </c>
       <c r="F27">
-        <f>'BEFORE CONV'!F27*'BEFORE CONV'!G27</f>
-        <v>0.24625</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F27*'BEFORE CONV'!J27</f>
+        <v>246.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28">
-        <f>'BEFORE CONV'!B28*'BEFORE CONV'!G28</f>
-        <v>2.75E-2</v>
+        <f>'BEFORE CONV'!B28*'BEFORE CONV'!J28</f>
+        <v>27.5</v>
       </c>
       <c r="C28">
-        <f>'BEFORE CONV'!C28*'BEFORE CONV'!G28</f>
-        <v>4.2500000000000003E-2</v>
+        <f>'BEFORE CONV'!C28*'BEFORE CONV'!J28</f>
+        <v>42.5</v>
       </c>
       <c r="D28">
-        <f>'BEFORE CONV'!D28*'BEFORE CONV'!G28</f>
-        <v>4.6249999999999999E-2</v>
+        <f>'BEFORE CONV'!D28*'BEFORE CONV'!J28</f>
+        <v>46.25</v>
       </c>
       <c r="E28">
-        <f>'BEFORE CONV'!E28*'BEFORE CONV'!G28</f>
-        <v>0.50124999999999997</v>
+        <f>'BEFORE CONV'!E28*'BEFORE CONV'!J28</f>
+        <v>501.25</v>
       </c>
       <c r="F28">
-        <f>'BEFORE CONV'!F28*'BEFORE CONV'!G28</f>
-        <v>0.13500000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F28*'BEFORE CONV'!J28</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29">
-        <f>'BEFORE CONV'!B29*'BEFORE CONV'!G29</f>
-        <v>3.4799999999999998E-2</v>
+        <f>'BEFORE CONV'!B29*'BEFORE CONV'!J29</f>
+        <v>34.799999999999997</v>
       </c>
       <c r="C29">
-        <f>'BEFORE CONV'!C29*'BEFORE CONV'!G29</f>
-        <v>7.7999999999999996E-3</v>
+        <f>'BEFORE CONV'!C29*'BEFORE CONV'!J29</f>
+        <v>7.8</v>
       </c>
       <c r="D29">
-        <f>'BEFORE CONV'!D29*'BEFORE CONV'!G29</f>
-        <v>6.5999999999999991E-3</v>
+        <f>'BEFORE CONV'!D29*'BEFORE CONV'!J29</f>
+        <v>6.6</v>
       </c>
       <c r="E29">
-        <f>'BEFORE CONV'!E29*'BEFORE CONV'!G29</f>
-        <v>0.12839999999999999</v>
+        <f>'BEFORE CONV'!E29*'BEFORE CONV'!J29</f>
+        <v>128.4</v>
       </c>
       <c r="F29">
-        <f>'BEFORE CONV'!F29*'BEFORE CONV'!G29</f>
-        <v>1.9199999999999998E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F29*'BEFORE CONV'!J29</f>
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30">
-        <f>'BEFORE CONV'!B30*'BEFORE CONV'!G30</f>
-        <v>5.2499999999999998E-2</v>
+        <f>'BEFORE CONV'!B30*'BEFORE CONV'!J30</f>
+        <v>52.5</v>
       </c>
       <c r="C30">
-        <f>'BEFORE CONV'!C30*'BEFORE CONV'!G30</f>
-        <v>3.2500000000000001E-2</v>
+        <f>'BEFORE CONV'!C30*'BEFORE CONV'!J30</f>
+        <v>32.5</v>
       </c>
       <c r="D30">
-        <f>'BEFORE CONV'!D30*'BEFORE CONV'!G30</f>
-        <v>1.8749999999999999E-2</v>
+        <f>'BEFORE CONV'!D30*'BEFORE CONV'!J30</f>
+        <v>18.75</v>
       </c>
       <c r="E30">
-        <f>'BEFORE CONV'!E30*'BEFORE CONV'!G30</f>
-        <v>0.77625</v>
+        <f>'BEFORE CONV'!E30*'BEFORE CONV'!J30</f>
+        <v>776.25</v>
       </c>
       <c r="F30">
-        <f>'BEFORE CONV'!F30*'BEFORE CONV'!G30</f>
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F30*'BEFORE CONV'!J30</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31">
-        <f>'BEFORE CONV'!B31*'BEFORE CONV'!G31</f>
+        <f>'BEFORE CONV'!B31*'BEFORE CONV'!J31</f>
         <v>85</v>
       </c>
       <c r="C31">
-        <f>'BEFORE CONV'!C31*'BEFORE CONV'!G31</f>
+        <f>'BEFORE CONV'!C31*'BEFORE CONV'!J31</f>
         <v>119</v>
       </c>
       <c r="D31">
-        <f>'BEFORE CONV'!D31*'BEFORE CONV'!G31</f>
+        <f>'BEFORE CONV'!D31*'BEFORE CONV'!J31</f>
         <v>92</v>
       </c>
       <c r="E31">
-        <f>'BEFORE CONV'!E31*'BEFORE CONV'!G31</f>
+        <f>'BEFORE CONV'!E31*'BEFORE CONV'!J31</f>
         <v>911</v>
       </c>
       <c r="F31">
-        <f>'BEFORE CONV'!F31*'BEFORE CONV'!G31</f>
+        <f>'BEFORE CONV'!F31*'BEFORE CONV'!J31</f>
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32">
-        <f>'BEFORE CONV'!B32*'BEFORE CONV'!G32</f>
+        <f>'BEFORE CONV'!B32*'BEFORE CONV'!J32</f>
         <v>61</v>
       </c>
       <c r="C32">
-        <f>'BEFORE CONV'!C32*'BEFORE CONV'!G32</f>
+        <f>'BEFORE CONV'!C32*'BEFORE CONV'!J32</f>
         <v>49</v>
       </c>
       <c r="D32">
-        <f>'BEFORE CONV'!D32*'BEFORE CONV'!G32</f>
+        <f>'BEFORE CONV'!D32*'BEFORE CONV'!J32</f>
         <v>54</v>
       </c>
       <c r="E32">
-        <f>'BEFORE CONV'!E32*'BEFORE CONV'!G32</f>
+        <f>'BEFORE CONV'!E32*'BEFORE CONV'!J32</f>
         <v>883</v>
       </c>
       <c r="F32">
-        <f>'BEFORE CONV'!F32*'BEFORE CONV'!G32</f>
+        <f>'BEFORE CONV'!F32*'BEFORE CONV'!J32</f>
         <v>230</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33">
-        <f>'BEFORE CONV'!B33*'BEFORE CONV'!G33</f>
+        <f>'BEFORE CONV'!B33*'BEFORE CONV'!J33</f>
         <v>105</v>
       </c>
       <c r="C33">
-        <f>'BEFORE CONV'!C33*'BEFORE CONV'!G33</f>
+        <f>'BEFORE CONV'!C33*'BEFORE CONV'!J33</f>
         <v>65</v>
       </c>
       <c r="D33">
-        <f>'BEFORE CONV'!D33*'BEFORE CONV'!G33</f>
+        <f>'BEFORE CONV'!D33*'BEFORE CONV'!J33</f>
         <v>59</v>
       </c>
       <c r="E33">
-        <f>'BEFORE CONV'!E33*'BEFORE CONV'!G33</f>
+        <f>'BEFORE CONV'!E33*'BEFORE CONV'!J33</f>
         <v>1162</v>
       </c>
       <c r="F33">
-        <f>'BEFORE CONV'!F33*'BEFORE CONV'!G33</f>
+        <f>'BEFORE CONV'!F33*'BEFORE CONV'!J33</f>
         <v>272</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="B34">
-        <f>'BEFORE CONV'!B34*'BEFORE CONV'!G34</f>
+        <f>'BEFORE CONV'!B34*'BEFORE CONV'!J34</f>
         <v>19</v>
       </c>
       <c r="C34">
-        <f>'BEFORE CONV'!C34*'BEFORE CONV'!G34</f>
+        <f>'BEFORE CONV'!C34*'BEFORE CONV'!J34</f>
         <v>38</v>
       </c>
       <c r="D34">
-        <f>'BEFORE CONV'!D34*'BEFORE CONV'!G34</f>
+        <f>'BEFORE CONV'!D34*'BEFORE CONV'!J34</f>
         <v>41</v>
       </c>
       <c r="E34">
-        <f>'BEFORE CONV'!E34*'BEFORE CONV'!G34</f>
+        <f>'BEFORE CONV'!E34*'BEFORE CONV'!J34</f>
         <v>369</v>
       </c>
       <c r="F34">
-        <f>'BEFORE CONV'!F34*'BEFORE CONV'!G34</f>
+        <f>'BEFORE CONV'!F34*'BEFORE CONV'!J34</f>
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
       <c r="B35">
-        <f>'BEFORE CONV'!B35*'BEFORE CONV'!G35</f>
+        <f>'BEFORE CONV'!B35*'BEFORE CONV'!J35</f>
         <v>22</v>
       </c>
       <c r="C35">
-        <f>'BEFORE CONV'!C35*'BEFORE CONV'!G35</f>
+        <f>'BEFORE CONV'!C35*'BEFORE CONV'!J35</f>
         <v>52</v>
       </c>
       <c r="D35">
-        <f>'BEFORE CONV'!D35*'BEFORE CONV'!G35</f>
+        <f>'BEFORE CONV'!D35*'BEFORE CONV'!J35</f>
         <v>55</v>
       </c>
       <c r="E35">
-        <f>'BEFORE CONV'!E35*'BEFORE CONV'!G35</f>
+        <f>'BEFORE CONV'!E35*'BEFORE CONV'!J35</f>
         <v>500</v>
       </c>
       <c r="F35">
-        <f>'BEFORE CONV'!F35*'BEFORE CONV'!G35</f>
+        <f>'BEFORE CONV'!F35*'BEFORE CONV'!J35</f>
         <v>203</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36">
-        <f>'BEFORE CONV'!B36*'BEFORE CONV'!G36</f>
-        <v>2.7200000000000002E-2</v>
+        <f>'BEFORE CONV'!B36*'BEFORE CONV'!J36</f>
+        <v>27.200000000000003</v>
       </c>
       <c r="C36">
-        <f>'BEFORE CONV'!C36*'BEFORE CONV'!G36</f>
-        <v>8.0000000000000002E-3</v>
+        <f>'BEFORE CONV'!C36*'BEFORE CONV'!J36</f>
+        <v>8</v>
       </c>
       <c r="D36">
-        <f>'BEFORE CONV'!D36*'BEFORE CONV'!G36</f>
-        <v>2.4E-2</v>
+        <f>'BEFORE CONV'!D36*'BEFORE CONV'!J36</f>
+        <v>24</v>
       </c>
       <c r="E36">
-        <f>'BEFORE CONV'!E36*'BEFORE CONV'!G36</f>
-        <v>0.56320000000000003</v>
+        <f>'BEFORE CONV'!E36*'BEFORE CONV'!J36</f>
+        <v>563.20000000000005</v>
       </c>
       <c r="F36">
-        <f>'BEFORE CONV'!F36*'BEFORE CONV'!G36</f>
-        <v>9.4399999999999998E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F36*'BEFORE CONV'!J36</f>
+        <v>94.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="B37">
-        <f>'BEFORE CONV'!B37*'BEFORE CONV'!G37</f>
-        <v>1.4200000000000001E-2</v>
+        <f>'BEFORE CONV'!B37*'BEFORE CONV'!J37</f>
+        <v>14.200000000000001</v>
       </c>
       <c r="C37">
-        <f>'BEFORE CONV'!C37*'BEFORE CONV'!G37</f>
-        <v>8.7000000000000011E-3</v>
+        <f>'BEFORE CONV'!C37*'BEFORE CONV'!J37</f>
+        <v>8.7000000000000011</v>
       </c>
       <c r="D37">
-        <f>'BEFORE CONV'!D37*'BEFORE CONV'!G37</f>
-        <v>1.0400000000000001E-2</v>
+        <f>'BEFORE CONV'!D37*'BEFORE CONV'!J37</f>
+        <v>10.4</v>
       </c>
       <c r="E37">
-        <f>'BEFORE CONV'!E37*'BEFORE CONV'!G37</f>
-        <v>0.10890000000000001</v>
+        <f>'BEFORE CONV'!E37*'BEFORE CONV'!J37</f>
+        <v>108.9</v>
       </c>
       <c r="F37">
-        <f>'BEFORE CONV'!F37*'BEFORE CONV'!G37</f>
-        <v>2.69E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F37*'BEFORE CONV'!J37</f>
+        <v>26.900000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="B38">
-        <f>'BEFORE CONV'!B38*'BEFORE CONV'!G38</f>
+        <f>'BEFORE CONV'!B38*'BEFORE CONV'!J38</f>
         <v>22</v>
       </c>
       <c r="C38">
-        <f>'BEFORE CONV'!C38*'BEFORE CONV'!G38</f>
+        <f>'BEFORE CONV'!C38*'BEFORE CONV'!J38</f>
         <v>22</v>
       </c>
       <c r="D38">
-        <f>'BEFORE CONV'!D38*'BEFORE CONV'!G38</f>
+        <f>'BEFORE CONV'!D38*'BEFORE CONV'!J38</f>
         <v>37</v>
       </c>
       <c r="E38">
-        <f>'BEFORE CONV'!E38*'BEFORE CONV'!G38</f>
+        <f>'BEFORE CONV'!E38*'BEFORE CONV'!J38</f>
         <v>683</v>
       </c>
       <c r="F38">
-        <f>'BEFORE CONV'!F38*'BEFORE CONV'!G38</f>
+        <f>'BEFORE CONV'!F38*'BEFORE CONV'!J38</f>
         <v>265</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
       <c r="B39">
-        <f>'BEFORE CONV'!B39*'BEFORE CONV'!G39</f>
+        <f>'BEFORE CONV'!B39*'BEFORE CONV'!J39</f>
         <v>322</v>
       </c>
       <c r="C39">
-        <f>'BEFORE CONV'!C39*'BEFORE CONV'!G39</f>
+        <f>'BEFORE CONV'!C39*'BEFORE CONV'!J39</f>
         <v>460</v>
       </c>
       <c r="D39">
-        <f>'BEFORE CONV'!D39*'BEFORE CONV'!G39</f>
+        <f>'BEFORE CONV'!D39*'BEFORE CONV'!J39</f>
         <v>330</v>
       </c>
       <c r="E39">
-        <f>'BEFORE CONV'!E39*'BEFORE CONV'!G39</f>
+        <f>'BEFORE CONV'!E39*'BEFORE CONV'!J39</f>
         <v>5250</v>
       </c>
       <c r="F39">
-        <f>'BEFORE CONV'!F39*'BEFORE CONV'!G39</f>
+        <f>'BEFORE CONV'!F39*'BEFORE CONV'!J39</f>
         <v>2160</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
       <c r="B40">
-        <f>'BEFORE CONV'!B40*'BEFORE CONV'!G40</f>
-        <v>6.8500000000000005E-2</v>
+        <f>'BEFORE CONV'!B40*'BEFORE CONV'!J40</f>
+        <v>68.5</v>
       </c>
       <c r="C40">
-        <f>'BEFORE CONV'!C40*'BEFORE CONV'!G40</f>
-        <v>0.123</v>
+        <f>'BEFORE CONV'!C40*'BEFORE CONV'!J40</f>
+        <v>123</v>
       </c>
       <c r="D40">
-        <f>'BEFORE CONV'!D40*'BEFORE CONV'!G40</f>
-        <v>9.0999999999999998E-2</v>
+        <f>'BEFORE CONV'!D40*'BEFORE CONV'!J40</f>
+        <v>91</v>
       </c>
       <c r="E40">
-        <f>'BEFORE CONV'!E40*'BEFORE CONV'!G40</f>
-        <v>0.71799999999999997</v>
+        <f>'BEFORE CONV'!E40*'BEFORE CONV'!J40</f>
+        <v>718</v>
       </c>
       <c r="F40">
-        <f>'BEFORE CONV'!F40*'BEFORE CONV'!G40</f>
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F40*'BEFORE CONV'!J40</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
       <c r="B41">
-        <f>'BEFORE CONV'!B41*'BEFORE CONV'!G41</f>
-        <v>0.22125</v>
+        <f>'BEFORE CONV'!B41*'BEFORE CONV'!J41</f>
+        <v>221.25</v>
       </c>
       <c r="C41">
-        <f>'BEFORE CONV'!C41*'BEFORE CONV'!G41</f>
-        <v>0.42625000000000002</v>
+        <f>'BEFORE CONV'!C41*'BEFORE CONV'!J41</f>
+        <v>426.25</v>
       </c>
       <c r="D41">
-        <f>'BEFORE CONV'!D41*'BEFORE CONV'!G41</f>
-        <v>0.39874999999999999</v>
+        <f>'BEFORE CONV'!D41*'BEFORE CONV'!J41</f>
+        <v>398.75</v>
       </c>
       <c r="E41">
-        <f>'BEFORE CONV'!E41*'BEFORE CONV'!G41</f>
-        <v>5.25</v>
+        <f>'BEFORE CONV'!E41*'BEFORE CONV'!J41</f>
+        <v>5250</v>
       </c>
       <c r="F41">
-        <f>'BEFORE CONV'!F41*'BEFORE CONV'!G41</f>
-        <v>1.99125</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F41*'BEFORE CONV'!J41</f>
+        <v>1991.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
       <c r="B42">
-        <f>'BEFORE CONV'!B42*'BEFORE CONV'!G42</f>
-        <v>0.17375000000000002</v>
+        <f>'BEFORE CONV'!B42*'BEFORE CONV'!J42</f>
+        <v>173.75</v>
       </c>
       <c r="C42">
-        <f>'BEFORE CONV'!C42*'BEFORE CONV'!G42</f>
-        <v>0.3125</v>
+        <f>'BEFORE CONV'!C42*'BEFORE CONV'!J42</f>
+        <v>312.5</v>
       </c>
       <c r="D42">
-        <f>'BEFORE CONV'!D42*'BEFORE CONV'!G42</f>
-        <v>0.30249999999999999</v>
+        <f>'BEFORE CONV'!D42*'BEFORE CONV'!J42</f>
+        <v>302.5</v>
       </c>
       <c r="E42">
-        <f>'BEFORE CONV'!E42*'BEFORE CONV'!G42</f>
-        <v>4.4074999999999998</v>
+        <f>'BEFORE CONV'!E42*'BEFORE CONV'!J42</f>
+        <v>4407.5</v>
       </c>
       <c r="F42">
-        <f>'BEFORE CONV'!F42*'BEFORE CONV'!G42</f>
-        <v>1.6512500000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F42*'BEFORE CONV'!J42</f>
+        <v>1651.25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
       <c r="B43">
-        <f>'BEFORE CONV'!B43*'BEFORE CONV'!G43</f>
-        <v>0.15795000000000001</v>
+        <f>'BEFORE CONV'!B43*'BEFORE CONV'!J43</f>
+        <v>157.95000000000002</v>
       </c>
       <c r="C43">
-        <f>'BEFORE CONV'!C43*'BEFORE CONV'!G43</f>
-        <v>0.30510000000000004</v>
+        <f>'BEFORE CONV'!C43*'BEFORE CONV'!J43</f>
+        <v>305.10000000000002</v>
       </c>
       <c r="D43">
-        <f>'BEFORE CONV'!D43*'BEFORE CONV'!G43</f>
-        <v>0.27945000000000003</v>
+        <f>'BEFORE CONV'!D43*'BEFORE CONV'!J43</f>
+        <v>279.45000000000005</v>
       </c>
       <c r="E43">
-        <f>'BEFORE CONV'!E43*'BEFORE CONV'!G43</f>
-        <v>4.0621499999999999</v>
+        <f>'BEFORE CONV'!E43*'BEFORE CONV'!J43</f>
+        <v>4062.15</v>
       </c>
       <c r="F43">
-        <f>'BEFORE CONV'!F43*'BEFORE CONV'!G43</f>
-        <v>1.3203</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F43*'BEFORE CONV'!J43</f>
+        <v>1320.3000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
       <c r="B44">
-        <f>'BEFORE CONV'!B44*'BEFORE CONV'!G44</f>
-        <v>0.31275000000000003</v>
+        <f>'BEFORE CONV'!B44*'BEFORE CONV'!J44</f>
+        <v>312.75</v>
       </c>
       <c r="C44">
-        <f>'BEFORE CONV'!C44*'BEFORE CONV'!G44</f>
-        <v>0.53550000000000009</v>
+        <f>'BEFORE CONV'!C44*'BEFORE CONV'!J44</f>
+        <v>535.5</v>
       </c>
       <c r="D44">
-        <f>'BEFORE CONV'!D44*'BEFORE CONV'!G44</f>
-        <v>0.46125000000000005</v>
+        <f>'BEFORE CONV'!D44*'BEFORE CONV'!J44</f>
+        <v>461.25</v>
       </c>
       <c r="E44">
-        <f>'BEFORE CONV'!E44*'BEFORE CONV'!G44</f>
-        <v>7.0087500000000009</v>
+        <f>'BEFORE CONV'!E44*'BEFORE CONV'!J44</f>
+        <v>7008.75</v>
       </c>
       <c r="F44">
-        <f>'BEFORE CONV'!F44*'BEFORE CONV'!G44</f>
-        <v>2.0227500000000003</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F44*'BEFORE CONV'!J44</f>
+        <v>2022.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
       <c r="B45">
-        <f>'BEFORE CONV'!B45*'BEFORE CONV'!G45</f>
-        <v>0.18375</v>
+        <f>'BEFORE CONV'!B45*'BEFORE CONV'!J45</f>
+        <v>183.75</v>
       </c>
       <c r="C45">
-        <f>'BEFORE CONV'!C45*'BEFORE CONV'!G45</f>
-        <v>0.11900000000000001</v>
+        <f>'BEFORE CONV'!C45*'BEFORE CONV'!J45</f>
+        <v>119</v>
       </c>
       <c r="D45">
-        <f>'BEFORE CONV'!D45*'BEFORE CONV'!G45</f>
-        <v>0.112</v>
+        <f>'BEFORE CONV'!D45*'BEFORE CONV'!J45</f>
+        <v>112</v>
       </c>
       <c r="E45">
-        <f>'BEFORE CONV'!E45*'BEFORE CONV'!G45</f>
-        <v>1.6432500000000001</v>
+        <f>'BEFORE CONV'!E45*'BEFORE CONV'!J45</f>
+        <v>1643.25</v>
       </c>
       <c r="F45">
-        <f>'BEFORE CONV'!F45*'BEFORE CONV'!G45</f>
-        <v>0.46550000000000002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F45*'BEFORE CONV'!J45</f>
+        <v>465.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
       <c r="B46">
-        <f>'BEFORE CONV'!B46*'BEFORE CONV'!G46</f>
-        <v>0.46250000000000002</v>
+        <f>'BEFORE CONV'!B46*'BEFORE CONV'!J46</f>
+        <v>462.5</v>
       </c>
       <c r="C46">
-        <f>'BEFORE CONV'!C46*'BEFORE CONV'!G46</f>
-        <v>0.28999999999999998</v>
+        <f>'BEFORE CONV'!C46*'BEFORE CONV'!J46</f>
+        <v>290</v>
       </c>
       <c r="D46">
-        <f>'BEFORE CONV'!D46*'BEFORE CONV'!G46</f>
-        <v>0.27750000000000002</v>
+        <f>'BEFORE CONV'!D46*'BEFORE CONV'!J46</f>
+        <v>277.5</v>
       </c>
       <c r="E46">
-        <f>'BEFORE CONV'!E46*'BEFORE CONV'!G46</f>
-        <v>3.9750000000000001</v>
+        <f>'BEFORE CONV'!E46*'BEFORE CONV'!J46</f>
+        <v>3975</v>
       </c>
       <c r="F46">
-        <f>'BEFORE CONV'!F46*'BEFORE CONV'!G46</f>
-        <v>1.2987500000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F46*'BEFORE CONV'!J46</f>
+        <v>1298.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
       <c r="B47">
-        <f>'BEFORE CONV'!B47*'BEFORE CONV'!G47</f>
-        <v>0.1905</v>
+        <f>'BEFORE CONV'!B47*'BEFORE CONV'!J47</f>
+        <v>190.5</v>
       </c>
       <c r="C47">
-        <f>'BEFORE CONV'!C47*'BEFORE CONV'!G47</f>
-        <v>0.15675</v>
+        <f>'BEFORE CONV'!C47*'BEFORE CONV'!J47</f>
+        <v>156.75</v>
       </c>
       <c r="D47">
-        <f>'BEFORE CONV'!D47*'BEFORE CONV'!G47</f>
-        <v>0.15675</v>
+        <f>'BEFORE CONV'!D47*'BEFORE CONV'!J47</f>
+        <v>156.75</v>
       </c>
       <c r="E47">
-        <f>'BEFORE CONV'!E47*'BEFORE CONV'!G47</f>
-        <v>2.1592500000000001</v>
+        <f>'BEFORE CONV'!E47*'BEFORE CONV'!J47</f>
+        <v>2159.25</v>
       </c>
       <c r="F47">
-        <f>'BEFORE CONV'!F47*'BEFORE CONV'!G47</f>
-        <v>0.73050000000000004</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F47*'BEFORE CONV'!J47</f>
+        <v>730.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
       <c r="B48">
-        <f>'BEFORE CONV'!B48*'BEFORE CONV'!G48</f>
+        <f>'BEFORE CONV'!B48*'BEFORE CONV'!J48</f>
         <v>150</v>
       </c>
       <c r="C48">
-        <f>'BEFORE CONV'!C48*'BEFORE CONV'!G48</f>
+        <f>'BEFORE CONV'!C48*'BEFORE CONV'!J48</f>
         <v>264</v>
       </c>
       <c r="D48">
-        <f>'BEFORE CONV'!D48*'BEFORE CONV'!G48</f>
+        <f>'BEFORE CONV'!D48*'BEFORE CONV'!J48</f>
         <v>293</v>
       </c>
       <c r="E48">
-        <f>'BEFORE CONV'!E48*'BEFORE CONV'!G48</f>
+        <f>'BEFORE CONV'!E48*'BEFORE CONV'!J48</f>
         <v>2816</v>
       </c>
       <c r="F48">
-        <f>'BEFORE CONV'!F48*'BEFORE CONV'!G48</f>
+        <f>'BEFORE CONV'!F48*'BEFORE CONV'!J48</f>
         <v>1409</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
       <c r="B49">
-        <f>'BEFORE CONV'!B49*'BEFORE CONV'!G49</f>
+        <f>'BEFORE CONV'!B49*'BEFORE CONV'!J49</f>
         <v>303</v>
       </c>
       <c r="C49">
-        <f>'BEFORE CONV'!C49*'BEFORE CONV'!G49</f>
+        <f>'BEFORE CONV'!C49*'BEFORE CONV'!J49</f>
         <v>311</v>
       </c>
       <c r="D49">
-        <f>'BEFORE CONV'!D49*'BEFORE CONV'!G49</f>
+        <f>'BEFORE CONV'!D49*'BEFORE CONV'!J49</f>
         <v>236</v>
       </c>
       <c r="E49">
-        <f>'BEFORE CONV'!E49*'BEFORE CONV'!G49</f>
+        <f>'BEFORE CONV'!E49*'BEFORE CONV'!J49</f>
         <v>3778</v>
       </c>
       <c r="F49">
-        <f>'BEFORE CONV'!F49*'BEFORE CONV'!G49</f>
+        <f>'BEFORE CONV'!F49*'BEFORE CONV'!J49</f>
         <v>1257</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
       <c r="B50">
-        <f>'BEFORE CONV'!B50*'BEFORE CONV'!G50</f>
-        <v>0.27</v>
+        <f>'BEFORE CONV'!B50*'BEFORE CONV'!J50</f>
+        <v>270</v>
       </c>
       <c r="C50">
-        <f>'BEFORE CONV'!C50*'BEFORE CONV'!G50</f>
-        <v>0.38250000000000006</v>
+        <f>'BEFORE CONV'!C50*'BEFORE CONV'!J50</f>
+        <v>382.5</v>
       </c>
       <c r="D50">
-        <f>'BEFORE CONV'!D50*'BEFORE CONV'!G50</f>
-        <v>0.54</v>
+        <f>'BEFORE CONV'!D50*'BEFORE CONV'!J50</f>
+        <v>540</v>
       </c>
       <c r="E50">
-        <f>'BEFORE CONV'!E50*'BEFORE CONV'!G50</f>
-        <v>7.503750000000001</v>
+        <f>'BEFORE CONV'!E50*'BEFORE CONV'!J50</f>
+        <v>7503.75</v>
       </c>
       <c r="F50">
-        <f>'BEFORE CONV'!F50*'BEFORE CONV'!G50</f>
-        <v>3.3097500000000002</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F50*'BEFORE CONV'!J50</f>
+        <v>3309.75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
       <c r="B51">
-        <f>'BEFORE CONV'!B51*'BEFORE CONV'!G51</f>
-        <v>0.435</v>
+        <f>'BEFORE CONV'!B51*'BEFORE CONV'!J51</f>
+        <v>435</v>
       </c>
       <c r="C51">
-        <f>'BEFORE CONV'!C51*'BEFORE CONV'!G51</f>
-        <v>0.53249999999999997</v>
+        <f>'BEFORE CONV'!C51*'BEFORE CONV'!J51</f>
+        <v>532.5</v>
       </c>
       <c r="D51">
-        <f>'BEFORE CONV'!D51*'BEFORE CONV'!G51</f>
-        <v>0.6</v>
+        <f>'BEFORE CONV'!D51*'BEFORE CONV'!J51</f>
+        <v>600</v>
       </c>
       <c r="E51">
-        <f>'BEFORE CONV'!E51*'BEFORE CONV'!G51</f>
-        <v>6.4325000000000001</v>
+        <f>'BEFORE CONV'!E51*'BEFORE CONV'!J51</f>
+        <v>6432.5</v>
       </c>
       <c r="F51">
-        <f>'BEFORE CONV'!F51*'BEFORE CONV'!G51</f>
-        <v>2.2375000000000003</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F51*'BEFORE CONV'!J51</f>
+        <v>2237.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
       <c r="B52">
-        <f>'BEFORE CONV'!B52*'BEFORE CONV'!G52</f>
-        <v>0.41649999999999998</v>
+        <f>'BEFORE CONV'!B52*'BEFORE CONV'!J52</f>
+        <v>416.5</v>
       </c>
       <c r="C52">
-        <f>'BEFORE CONV'!C52*'BEFORE CONV'!G52</f>
-        <v>1.3956999999999999</v>
+        <f>'BEFORE CONV'!C52*'BEFORE CONV'!J52</f>
+        <v>1395.7</v>
       </c>
       <c r="D52">
-        <f>'BEFORE CONV'!D52*'BEFORE CONV'!G52</f>
-        <v>1.0454999999999999</v>
+        <f>'BEFORE CONV'!D52*'BEFORE CONV'!J52</f>
+        <v>1045.5</v>
       </c>
       <c r="E52">
-        <f>'BEFORE CONV'!E52*'BEFORE CONV'!G52</f>
-        <v>15.954499999999999</v>
+        <f>'BEFORE CONV'!E52*'BEFORE CONV'!J52</f>
+        <v>15954.5</v>
       </c>
       <c r="F52">
-        <f>'BEFORE CONV'!F52*'BEFORE CONV'!G52</f>
-        <v>3.4866999999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F52*'BEFORE CONV'!J52</f>
+        <v>3486.7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
       <c r="B53">
-        <f>'BEFORE CONV'!B53*'BEFORE CONV'!G53</f>
-        <v>0.28800000000000003</v>
+        <f>'BEFORE CONV'!B53*'BEFORE CONV'!J53</f>
+        <v>288</v>
       </c>
       <c r="C53">
-        <f>'BEFORE CONV'!C53*'BEFORE CONV'!G53</f>
-        <v>0.2185</v>
+        <f>'BEFORE CONV'!C53*'BEFORE CONV'!J53</f>
+        <v>218.5</v>
       </c>
       <c r="D53">
-        <f>'BEFORE CONV'!D53*'BEFORE CONV'!G53</f>
-        <v>0.16300000000000001</v>
+        <f>'BEFORE CONV'!D53*'BEFORE CONV'!J53</f>
+        <v>163</v>
       </c>
       <c r="E53">
-        <f>'BEFORE CONV'!E53*'BEFORE CONV'!G53</f>
-        <v>2.8635000000000002</v>
+        <f>'BEFORE CONV'!E53*'BEFORE CONV'!J53</f>
+        <v>2863.5</v>
       </c>
       <c r="F53">
-        <f>'BEFORE CONV'!F53*'BEFORE CONV'!G53</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F53*'BEFORE CONV'!J53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
       <c r="B54">
-        <f>'BEFORE CONV'!B54*'BEFORE CONV'!G54</f>
-        <v>0.56210000000000004</v>
+        <f>'BEFORE CONV'!B54*'BEFORE CONV'!J54</f>
+        <v>562.1</v>
       </c>
       <c r="C54">
-        <f>'BEFORE CONV'!C54*'BEFORE CONV'!G54</f>
-        <v>0.16940000000000002</v>
+        <f>'BEFORE CONV'!C54*'BEFORE CONV'!J54</f>
+        <v>169.4</v>
       </c>
       <c r="D54">
-        <f>'BEFORE CONV'!D54*'BEFORE CONV'!G54</f>
-        <v>0.14630000000000001</v>
+        <f>'BEFORE CONV'!D54*'BEFORE CONV'!J54</f>
+        <v>146.30000000000001</v>
       </c>
       <c r="E54">
-        <f>'BEFORE CONV'!E54*'BEFORE CONV'!G54</f>
-        <v>2.3617000000000004</v>
+        <f>'BEFORE CONV'!E54*'BEFORE CONV'!J54</f>
+        <v>2361.7000000000003</v>
       </c>
       <c r="F54">
-        <f>'BEFORE CONV'!F54*'BEFORE CONV'!G54</f>
-        <v>0.56759999999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F54*'BEFORE CONV'!J54</f>
+        <v>567.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
       <c r="B55">
-        <f>'BEFORE CONV'!B55*'BEFORE CONV'!G55</f>
+        <f>'BEFORE CONV'!B55*'BEFORE CONV'!J55</f>
         <v>230</v>
       </c>
       <c r="C55">
-        <f>'BEFORE CONV'!C55*'BEFORE CONV'!G55</f>
+        <f>'BEFORE CONV'!C55*'BEFORE CONV'!J55</f>
         <v>56</v>
       </c>
       <c r="D55">
-        <f>'BEFORE CONV'!D55*'BEFORE CONV'!G55</f>
+        <f>'BEFORE CONV'!D55*'BEFORE CONV'!J55</f>
         <v>32</v>
       </c>
       <c r="E55">
-        <f>'BEFORE CONV'!E55*'BEFORE CONV'!G55</f>
+        <f>'BEFORE CONV'!E55*'BEFORE CONV'!J55</f>
         <v>747</v>
       </c>
       <c r="F55">
-        <f>'BEFORE CONV'!F55*'BEFORE CONV'!G55</f>
+        <f>'BEFORE CONV'!F55*'BEFORE CONV'!J55</f>
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
       <c r="B56">
-        <f>'BEFORE CONV'!B56*'BEFORE CONV'!G56</f>
-        <v>0.24360000000000001</v>
+        <f>'BEFORE CONV'!B56*'BEFORE CONV'!J56</f>
+        <v>243.6</v>
       </c>
       <c r="C56">
-        <f>'BEFORE CONV'!C56*'BEFORE CONV'!G56</f>
-        <v>7.5600000000000001E-2</v>
+        <f>'BEFORE CONV'!C56*'BEFORE CONV'!J56</f>
+        <v>75.599999999999994</v>
       </c>
       <c r="D56">
-        <f>'BEFORE CONV'!D56*'BEFORE CONV'!G56</f>
-        <v>7.6999999999999999E-2</v>
+        <f>'BEFORE CONV'!D56*'BEFORE CONV'!J56</f>
+        <v>77</v>
       </c>
       <c r="E56">
-        <f>'BEFORE CONV'!E56*'BEFORE CONV'!G56</f>
-        <v>0.95340000000000003</v>
+        <f>'BEFORE CONV'!E56*'BEFORE CONV'!J56</f>
+        <v>953.4</v>
       </c>
       <c r="F56">
-        <f>'BEFORE CONV'!F56*'BEFORE CONV'!G56</f>
-        <v>0.15540000000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F56*'BEFORE CONV'!J56</f>
+        <v>155.39999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
       <c r="B57">
-        <f>'BEFORE CONV'!B57*'BEFORE CONV'!G57</f>
+        <f>'BEFORE CONV'!B57*'BEFORE CONV'!J57</f>
         <v>391</v>
       </c>
       <c r="C57">
-        <f>'BEFORE CONV'!C57*'BEFORE CONV'!G57</f>
+        <f>'BEFORE CONV'!C57*'BEFORE CONV'!J57</f>
         <v>7</v>
       </c>
       <c r="D57">
-        <f>'BEFORE CONV'!D57*'BEFORE CONV'!G57</f>
+        <f>'BEFORE CONV'!D57*'BEFORE CONV'!J57</f>
         <v>7</v>
       </c>
       <c r="E57">
-        <f>'BEFORE CONV'!E57*'BEFORE CONV'!G57</f>
+        <f>'BEFORE CONV'!E57*'BEFORE CONV'!J57</f>
         <v>99</v>
       </c>
       <c r="F57">
-        <f>'BEFORE CONV'!F57*'BEFORE CONV'!G57</f>
+        <f>'BEFORE CONV'!F57*'BEFORE CONV'!J57</f>
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
       <c r="B58">
-        <f>'BEFORE CONV'!B58*'BEFORE CONV'!G58</f>
-        <v>7.6499999999999999E-2</v>
+        <f>'BEFORE CONV'!B58*'BEFORE CONV'!J58</f>
+        <v>76.5</v>
       </c>
       <c r="C58">
-        <f>'BEFORE CONV'!C58*'BEFORE CONV'!G58</f>
-        <v>2E-3</v>
+        <f>'BEFORE CONV'!C58*'BEFORE CONV'!J58</f>
+        <v>2</v>
       </c>
       <c r="D58">
-        <f>'BEFORE CONV'!D58*'BEFORE CONV'!G58</f>
-        <v>1.25E-3</v>
+        <f>'BEFORE CONV'!D58*'BEFORE CONV'!J58</f>
+        <v>1.25</v>
       </c>
       <c r="E58">
-        <f>'BEFORE CONV'!E58*'BEFORE CONV'!G58</f>
-        <v>1.8749999999999999E-2</v>
+        <f>'BEFORE CONV'!E58*'BEFORE CONV'!J58</f>
+        <v>18.75</v>
       </c>
       <c r="F58">
-        <f>'BEFORE CONV'!F58*'BEFORE CONV'!G58</f>
-        <v>4.2500000000000003E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F58*'BEFORE CONV'!J58</f>
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
       <c r="B59">
-        <f>'BEFORE CONV'!B59*'BEFORE CONV'!G59</f>
+        <f>'BEFORE CONV'!B59*'BEFORE CONV'!J59</f>
         <v>489</v>
       </c>
       <c r="C59">
-        <f>'BEFORE CONV'!C59*'BEFORE CONV'!G59</f>
+        <f>'BEFORE CONV'!C59*'BEFORE CONV'!J59</f>
         <v>142</v>
       </c>
       <c r="D59">
-        <f>'BEFORE CONV'!D59*'BEFORE CONV'!G59</f>
+        <f>'BEFORE CONV'!D59*'BEFORE CONV'!J59</f>
         <v>90</v>
       </c>
       <c r="E59">
-        <f>'BEFORE CONV'!E59*'BEFORE CONV'!G59</f>
+        <f>'BEFORE CONV'!E59*'BEFORE CONV'!J59</f>
         <v>1626</v>
       </c>
       <c r="F59">
-        <f>'BEFORE CONV'!F59*'BEFORE CONV'!G59</f>
+        <f>'BEFORE CONV'!F59*'BEFORE CONV'!J59</f>
         <v>282</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
       <c r="B60">
-        <f>'BEFORE CONV'!B60*'BEFORE CONV'!G60</f>
-        <v>6.0499999999999998E-2</v>
+        <f>'BEFORE CONV'!B60*'BEFORE CONV'!J60</f>
+        <v>60.5</v>
       </c>
       <c r="C60">
-        <f>'BEFORE CONV'!C60*'BEFORE CONV'!G60</f>
-        <v>4.2250000000000003E-2</v>
+        <f>'BEFORE CONV'!C60*'BEFORE CONV'!J60</f>
+        <v>42.25</v>
       </c>
       <c r="D60">
-        <f>'BEFORE CONV'!D60*'BEFORE CONV'!G60</f>
-        <v>1.8749999999999999E-2</v>
+        <f>'BEFORE CONV'!D60*'BEFORE CONV'!J60</f>
+        <v>18.75</v>
       </c>
       <c r="E60">
-        <f>'BEFORE CONV'!E60*'BEFORE CONV'!G60</f>
-        <v>0.73875000000000002</v>
+        <f>'BEFORE CONV'!E60*'BEFORE CONV'!J60</f>
+        <v>738.75</v>
       </c>
       <c r="F60">
-        <f>'BEFORE CONV'!F60*'BEFORE CONV'!G60</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F60*'BEFORE CONV'!J60</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
       <c r="B61">
-        <f>'BEFORE CONV'!B61*'BEFORE CONV'!G61</f>
-        <v>7.5599999999999987E-2</v>
+        <f>'BEFORE CONV'!B61*'BEFORE CONV'!J61</f>
+        <v>75.599999999999994</v>
       </c>
       <c r="C61">
-        <f>'BEFORE CONV'!C61*'BEFORE CONV'!G61</f>
-        <v>3.6899999999999995E-2</v>
+        <f>'BEFORE CONV'!C61*'BEFORE CONV'!J61</f>
+        <v>36.9</v>
       </c>
       <c r="D61">
-        <f>'BEFORE CONV'!D61*'BEFORE CONV'!G61</f>
-        <v>2.3999999999999997E-2</v>
+        <f>'BEFORE CONV'!D61*'BEFORE CONV'!J61</f>
+        <v>24</v>
       </c>
       <c r="E61">
-        <f>'BEFORE CONV'!E61*'BEFORE CONV'!G61</f>
-        <v>0.57899999999999996</v>
+        <f>'BEFORE CONV'!E61*'BEFORE CONV'!J61</f>
+        <v>579</v>
       </c>
       <c r="F61">
-        <f>'BEFORE CONV'!F61*'BEFORE CONV'!G61</f>
-        <v>0.11429999999999998</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F61*'BEFORE CONV'!J61</f>
+        <v>114.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
       <c r="B62">
-        <f>'BEFORE CONV'!B62*'BEFORE CONV'!G62</f>
+        <f>'BEFORE CONV'!B62*'BEFORE CONV'!J62</f>
         <v>139</v>
       </c>
       <c r="C62">
-        <f>'BEFORE CONV'!C62*'BEFORE CONV'!G62</f>
+        <f>'BEFORE CONV'!C62*'BEFORE CONV'!J62</f>
         <v>111</v>
       </c>
       <c r="D62">
-        <f>'BEFORE CONV'!D62*'BEFORE CONV'!G62</f>
+        <f>'BEFORE CONV'!D62*'BEFORE CONV'!J62</f>
         <v>50</v>
       </c>
       <c r="E62">
-        <f>'BEFORE CONV'!E62*'BEFORE CONV'!G62</f>
+        <f>'BEFORE CONV'!E62*'BEFORE CONV'!J62</f>
         <v>1717</v>
       </c>
       <c r="F62">
-        <f>'BEFORE CONV'!F62*'BEFORE CONV'!G62</f>
+        <f>'BEFORE CONV'!F62*'BEFORE CONV'!J62</f>
         <v>186</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
       <c r="B63">
-        <f>'BEFORE CONV'!B63*'BEFORE CONV'!G63</f>
-        <v>0.10379999999999999</v>
+        <f>'BEFORE CONV'!B63*'BEFORE CONV'!J63</f>
+        <v>103.8</v>
       </c>
       <c r="C63">
-        <f>'BEFORE CONV'!C63*'BEFORE CONV'!G63</f>
-        <v>6.8999999999999992E-2</v>
+        <f>'BEFORE CONV'!C63*'BEFORE CONV'!J63</f>
+        <v>69</v>
       </c>
       <c r="D63">
-        <f>'BEFORE CONV'!D63*'BEFORE CONV'!G63</f>
-        <v>3.7799999999999993E-2</v>
+        <f>'BEFORE CONV'!D63*'BEFORE CONV'!J63</f>
+        <v>37.799999999999997</v>
       </c>
       <c r="E63">
-        <f>'BEFORE CONV'!E63*'BEFORE CONV'!G63</f>
-        <v>0.76379999999999992</v>
+        <f>'BEFORE CONV'!E63*'BEFORE CONV'!J63</f>
+        <v>763.8</v>
       </c>
       <c r="F63">
-        <f>'BEFORE CONV'!F63*'BEFORE CONV'!G63</f>
-        <v>0.17249999999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F63*'BEFORE CONV'!J63</f>
+        <v>172.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
       <c r="B64">
-        <f>'BEFORE CONV'!B64*'BEFORE CONV'!G64</f>
-        <v>8.7500000000000008E-2</v>
+        <f>'BEFORE CONV'!B64*'BEFORE CONV'!J64</f>
+        <v>87.5</v>
       </c>
       <c r="C64">
-        <f>'BEFORE CONV'!C64*'BEFORE CONV'!G64</f>
-        <v>2.6249999999999999E-2</v>
+        <f>'BEFORE CONV'!C64*'BEFORE CONV'!J64</f>
+        <v>26.25</v>
       </c>
       <c r="D64">
-        <f>'BEFORE CONV'!D64*'BEFORE CONV'!G64</f>
-        <v>3.6249999999999998E-2</v>
+        <f>'BEFORE CONV'!D64*'BEFORE CONV'!J64</f>
+        <v>36.25</v>
       </c>
       <c r="E64">
-        <f>'BEFORE CONV'!E64*'BEFORE CONV'!G64</f>
-        <v>0.43875000000000003</v>
+        <f>'BEFORE CONV'!E64*'BEFORE CONV'!J64</f>
+        <v>438.75</v>
       </c>
       <c r="F64">
-        <f>'BEFORE CONV'!F64*'BEFORE CONV'!G64</f>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F64*'BEFORE CONV'!J64</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
       <c r="B65">
-        <f>'BEFORE CONV'!B65*'BEFORE CONV'!G65</f>
+        <f>'BEFORE CONV'!B65*'BEFORE CONV'!J65</f>
         <v>108</v>
       </c>
       <c r="C65">
-        <f>'BEFORE CONV'!C65*'BEFORE CONV'!G65</f>
+        <f>'BEFORE CONV'!C65*'BEFORE CONV'!J65</f>
         <v>28</v>
       </c>
       <c r="D65">
-        <f>'BEFORE CONV'!D65*'BEFORE CONV'!G65</f>
+        <f>'BEFORE CONV'!D65*'BEFORE CONV'!J65</f>
         <v>23</v>
       </c>
       <c r="E65">
-        <f>'BEFORE CONV'!E65*'BEFORE CONV'!G65</f>
+        <f>'BEFORE CONV'!E65*'BEFORE CONV'!J65</f>
         <v>401</v>
       </c>
       <c r="F65">
-        <f>'BEFORE CONV'!F65*'BEFORE CONV'!G65</f>
+        <f>'BEFORE CONV'!F65*'BEFORE CONV'!J65</f>
         <v>104</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
       <c r="B66">
-        <f>'BEFORE CONV'!B66*'BEFORE CONV'!G66</f>
+        <f>'BEFORE CONV'!B66*'BEFORE CONV'!J66</f>
         <v>68</v>
       </c>
       <c r="C66">
-        <f>'BEFORE CONV'!C66*'BEFORE CONV'!G66</f>
+        <f>'BEFORE CONV'!C66*'BEFORE CONV'!J66</f>
         <v>13</v>
       </c>
       <c r="D66">
-        <f>'BEFORE CONV'!D66*'BEFORE CONV'!G66</f>
+        <f>'BEFORE CONV'!D66*'BEFORE CONV'!J66</f>
         <v>6</v>
       </c>
       <c r="E66">
-        <f>'BEFORE CONV'!E66*'BEFORE CONV'!G66</f>
+        <f>'BEFORE CONV'!E66*'BEFORE CONV'!J66</f>
         <v>160</v>
       </c>
       <c r="F66">
-        <f>'BEFORE CONV'!F66*'BEFORE CONV'!G66</f>
+        <f>'BEFORE CONV'!F66*'BEFORE CONV'!J66</f>
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
       <c r="B67">
-        <f>'BEFORE CONV'!B67*'BEFORE CONV'!G67</f>
-        <v>0.21359999999999998</v>
+        <f>'BEFORE CONV'!B67*'BEFORE CONV'!J67</f>
+        <v>213.6</v>
       </c>
       <c r="C67">
-        <f>'BEFORE CONV'!C67*'BEFORE CONV'!G67</f>
-        <v>0.2964</v>
+        <f>'BEFORE CONV'!C67*'BEFORE CONV'!J67</f>
+        <v>296.39999999999998</v>
       </c>
       <c r="D67">
-        <f>'BEFORE CONV'!D67*'BEFORE CONV'!G67</f>
-        <v>0.21959999999999999</v>
+        <f>'BEFORE CONV'!D67*'BEFORE CONV'!J67</f>
+        <v>219.6</v>
       </c>
       <c r="E67">
-        <f>'BEFORE CONV'!E67*'BEFORE CONV'!G67</f>
-        <v>1.7363999999999999</v>
+        <f>'BEFORE CONV'!E67*'BEFORE CONV'!J67</f>
+        <v>1736.3999999999999</v>
       </c>
       <c r="F67">
-        <f>'BEFORE CONV'!F67*'BEFORE CONV'!G67</f>
-        <v>0.50639999999999996</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F67*'BEFORE CONV'!J67</f>
+        <v>506.4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
       <c r="B68">
-        <f>'BEFORE CONV'!B68*'BEFORE CONV'!G68</f>
-        <v>0.60799999999999998</v>
+        <f>'BEFORE CONV'!B68*'BEFORE CONV'!J68</f>
+        <v>608</v>
       </c>
       <c r="C68">
-        <f>'BEFORE CONV'!C68*'BEFORE CONV'!G68</f>
-        <v>0.246</v>
+        <f>'BEFORE CONV'!C68*'BEFORE CONV'!J68</f>
+        <v>246</v>
       </c>
       <c r="D68">
-        <f>'BEFORE CONV'!D68*'BEFORE CONV'!G68</f>
-        <v>0.124</v>
+        <f>'BEFORE CONV'!D68*'BEFORE CONV'!J68</f>
+        <v>124</v>
       </c>
       <c r="E68">
-        <f>'BEFORE CONV'!E68*'BEFORE CONV'!G68</f>
-        <v>3.7360000000000002</v>
+        <f>'BEFORE CONV'!E68*'BEFORE CONV'!J68</f>
+        <v>3736</v>
       </c>
       <c r="F68">
-        <f>'BEFORE CONV'!F68*'BEFORE CONV'!G68</f>
-        <v>0.42799999999999999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F68*'BEFORE CONV'!J68</f>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
       <c r="B69">
-        <f>'BEFORE CONV'!B69*'BEFORE CONV'!G69</f>
-        <v>0.35039999999999999</v>
+        <f>'BEFORE CONV'!B69*'BEFORE CONV'!J69</f>
+        <v>350.4</v>
       </c>
       <c r="C69">
-        <f>'BEFORE CONV'!C69*'BEFORE CONV'!G69</f>
-        <v>5.3999999999999992E-2</v>
+        <f>'BEFORE CONV'!C69*'BEFORE CONV'!J69</f>
+        <v>54</v>
       </c>
       <c r="D69">
-        <f>'BEFORE CONV'!D69*'BEFORE CONV'!G69</f>
-        <v>7.8E-2</v>
+        <f>'BEFORE CONV'!D69*'BEFORE CONV'!J69</f>
+        <v>78</v>
       </c>
       <c r="E69">
-        <f>'BEFORE CONV'!E69*'BEFORE CONV'!G69</f>
-        <v>0.9323999999999999</v>
+        <f>'BEFORE CONV'!E69*'BEFORE CONV'!J69</f>
+        <v>932.4</v>
       </c>
       <c r="F69">
-        <f>'BEFORE CONV'!F69*'BEFORE CONV'!G69</f>
-        <v>0.19199999999999998</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F69*'BEFORE CONV'!J69</f>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
       <c r="B70">
-        <f>'BEFORE CONV'!B70*'BEFORE CONV'!G70</f>
+        <f>'BEFORE CONV'!B70*'BEFORE CONV'!J70</f>
         <v>73</v>
       </c>
       <c r="C70">
-        <f>'BEFORE CONV'!C70*'BEFORE CONV'!G70</f>
+        <f>'BEFORE CONV'!C70*'BEFORE CONV'!J70</f>
         <v>21</v>
       </c>
       <c r="D70">
-        <f>'BEFORE CONV'!D70*'BEFORE CONV'!G70</f>
+        <f>'BEFORE CONV'!D70*'BEFORE CONV'!J70</f>
         <v>30</v>
       </c>
       <c r="E70">
-        <f>'BEFORE CONV'!E70*'BEFORE CONV'!G70</f>
+        <f>'BEFORE CONV'!E70*'BEFORE CONV'!J70</f>
         <v>359</v>
       </c>
       <c r="F70">
-        <f>'BEFORE CONV'!F70*'BEFORE CONV'!G70</f>
+        <f>'BEFORE CONV'!F70*'BEFORE CONV'!J70</f>
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
       <c r="B71">
-        <f>'BEFORE CONV'!B71*'BEFORE CONV'!G71</f>
-        <v>0.11114999999999998</v>
+        <f>'BEFORE CONV'!B71*'BEFORE CONV'!J71</f>
+        <v>111.14999999999999</v>
       </c>
       <c r="C71">
-        <f>'BEFORE CONV'!C71*'BEFORE CONV'!G71</f>
-        <v>5.9999999999999995E-4</v>
+        <f>'BEFORE CONV'!C71*'BEFORE CONV'!J71</f>
+        <v>0.6</v>
       </c>
       <c r="D71">
-        <f>'BEFORE CONV'!D71*'BEFORE CONV'!G71</f>
-        <v>1.1999999999999999E-3</v>
+        <f>'BEFORE CONV'!D71*'BEFORE CONV'!J71</f>
+        <v>1.2</v>
       </c>
       <c r="E71">
-        <f>'BEFORE CONV'!E71*'BEFORE CONV'!G71</f>
-        <v>1.8149999999999999E-2</v>
+        <f>'BEFORE CONV'!E71*'BEFORE CONV'!J71</f>
+        <v>18.149999999999999</v>
       </c>
       <c r="F71">
-        <f>'BEFORE CONV'!F71*'BEFORE CONV'!G71</f>
-        <v>2.2499999999999998E-3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F71*'BEFORE CONV'!J71</f>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
       <c r="B72">
-        <f>'BEFORE CONV'!B72*'BEFORE CONV'!G72</f>
-        <v>0.10608000000000001</v>
+        <f>'BEFORE CONV'!B72*'BEFORE CONV'!J72</f>
+        <v>1.0608</v>
       </c>
       <c r="C72">
-        <f>'BEFORE CONV'!C72*'BEFORE CONV'!G72</f>
-        <v>1.2E-4</v>
+        <f>'BEFORE CONV'!C72*'BEFORE CONV'!J72</f>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="D72">
-        <f>'BEFORE CONV'!D72*'BEFORE CONV'!G72</f>
-        <v>1.2E-4</v>
+        <f>'BEFORE CONV'!D72*'BEFORE CONV'!J72</f>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="E72">
-        <f>'BEFORE CONV'!E72*'BEFORE CONV'!G72</f>
-        <v>1.92E-3</v>
+        <f>'BEFORE CONV'!E72*'BEFORE CONV'!J72</f>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="F72">
-        <f>'BEFORE CONV'!F72*'BEFORE CONV'!G72</f>
-        <v>6.0000000000000006E-4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F72*'BEFORE CONV'!J72</f>
+        <v>5.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
       <c r="B73">
-        <f>'BEFORE CONV'!B73*'BEFORE CONV'!G73</f>
-        <v>0.10634999999999999</v>
+        <f>'BEFORE CONV'!B73*'BEFORE CONV'!J73</f>
+        <v>106.35</v>
       </c>
       <c r="C73">
-        <f>'BEFORE CONV'!C73*'BEFORE CONV'!G73</f>
-        <v>2.9999999999999997E-4</v>
+        <f>'BEFORE CONV'!C73*'BEFORE CONV'!J73</f>
+        <v>0.3</v>
       </c>
       <c r="D73">
-        <f>'BEFORE CONV'!D73*'BEFORE CONV'!G73</f>
-        <v>4.4999999999999999E-4</v>
+        <f>'BEFORE CONV'!D73*'BEFORE CONV'!J73</f>
+        <v>0.44999999999999996</v>
       </c>
       <c r="E73">
-        <f>'BEFORE CONV'!E73*'BEFORE CONV'!G73</f>
-        <v>5.9999999999999993E-3</v>
+        <f>'BEFORE CONV'!E73*'BEFORE CONV'!J73</f>
+        <v>6</v>
       </c>
       <c r="F73">
-        <f>'BEFORE CONV'!F73*'BEFORE CONV'!G73</f>
-        <v>5.9999999999999995E-4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F73*'BEFORE CONV'!J73</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
       <c r="B74">
-        <f>'BEFORE CONV'!B74*'BEFORE CONV'!G74</f>
-        <v>0.1326</v>
+        <f>'BEFORE CONV'!B74*'BEFORE CONV'!J74</f>
+        <v>132.6</v>
       </c>
       <c r="C74">
-        <f>'BEFORE CONV'!C74*'BEFORE CONV'!G74</f>
+        <f>'BEFORE CONV'!C74*'BEFORE CONV'!J74</f>
         <v>0</v>
       </c>
       <c r="D74">
-        <f>'BEFORE CONV'!D74*'BEFORE CONV'!G74</f>
+        <f>'BEFORE CONV'!D74*'BEFORE CONV'!J74</f>
         <v>0</v>
       </c>
       <c r="E74">
-        <f>'BEFORE CONV'!E74*'BEFORE CONV'!G74</f>
+        <f>'BEFORE CONV'!E74*'BEFORE CONV'!J74</f>
         <v>0</v>
       </c>
       <c r="F74">
-        <f>'BEFORE CONV'!F74*'BEFORE CONV'!G74</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F74*'BEFORE CONV'!J74</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
       <c r="B75">
-        <f>'BEFORE CONV'!B75*'BEFORE CONV'!G75</f>
-        <v>0.1326</v>
+        <f>'BEFORE CONV'!B75*'BEFORE CONV'!J75</f>
+        <v>132.6</v>
       </c>
       <c r="C75">
-        <f>'BEFORE CONV'!C75*'BEFORE CONV'!G75</f>
+        <f>'BEFORE CONV'!C75*'BEFORE CONV'!J75</f>
         <v>0</v>
       </c>
       <c r="D75">
-        <f>'BEFORE CONV'!D75*'BEFORE CONV'!G75</f>
+        <f>'BEFORE CONV'!D75*'BEFORE CONV'!J75</f>
         <v>0</v>
       </c>
       <c r="E75">
-        <f>'BEFORE CONV'!E75*'BEFORE CONV'!G75</f>
+        <f>'BEFORE CONV'!E75*'BEFORE CONV'!J75</f>
         <v>0</v>
       </c>
       <c r="F75">
-        <f>'BEFORE CONV'!F75*'BEFORE CONV'!G75</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F75*'BEFORE CONV'!J75</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
       <c r="B76">
-        <f>'BEFORE CONV'!B76*'BEFORE CONV'!G76</f>
-        <v>0.11144999999999999</v>
+        <f>'BEFORE CONV'!B76*'BEFORE CONV'!J76</f>
+        <v>111.45</v>
       </c>
       <c r="C76">
-        <f>'BEFORE CONV'!C76*'BEFORE CONV'!G76</f>
-        <v>4.4999999999999997E-3</v>
+        <f>'BEFORE CONV'!C76*'BEFORE CONV'!J76</f>
+        <v>4.5</v>
       </c>
       <c r="D76">
-        <f>'BEFORE CONV'!D76*'BEFORE CONV'!G76</f>
-        <v>3.2999999999999995E-3</v>
+        <f>'BEFORE CONV'!D76*'BEFORE CONV'!J76</f>
+        <v>3.3</v>
       </c>
       <c r="E76">
-        <f>'BEFORE CONV'!E76*'BEFORE CONV'!G76</f>
-        <v>2.8949999999999997E-2</v>
+        <f>'BEFORE CONV'!E76*'BEFORE CONV'!J76</f>
+        <v>28.95</v>
       </c>
       <c r="F76">
-        <f>'BEFORE CONV'!F76*'BEFORE CONV'!G76</f>
-        <v>7.3499999999999998E-3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F76*'BEFORE CONV'!J76</f>
+        <v>7.35</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
       <c r="B77">
-        <f>'BEFORE CONV'!B77*'BEFORE CONV'!G77</f>
-        <v>0.23500000000000001</v>
+        <f>'BEFORE CONV'!B77*'BEFORE CONV'!J77</f>
+        <v>235</v>
       </c>
       <c r="C77">
-        <f>'BEFORE CONV'!C77*'BEFORE CONV'!G77</f>
+        <f>'BEFORE CONV'!C77*'BEFORE CONV'!J77</f>
         <v>0</v>
       </c>
       <c r="D77">
-        <f>'BEFORE CONV'!D77*'BEFORE CONV'!G77</f>
+        <f>'BEFORE CONV'!D77*'BEFORE CONV'!J77</f>
         <v>0</v>
       </c>
       <c r="E77">
-        <f>'BEFORE CONV'!E77*'BEFORE CONV'!G77</f>
+        <f>'BEFORE CONV'!E77*'BEFORE CONV'!J77</f>
         <v>0</v>
       </c>
       <c r="F77">
-        <f>'BEFORE CONV'!F77*'BEFORE CONV'!G77</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F77*'BEFORE CONV'!J77</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
       <c r="B78">
-        <f>'BEFORE CONV'!B78*'BEFORE CONV'!G78</f>
-        <v>0.14499999999999999</v>
+        <f>'BEFORE CONV'!B78*'BEFORE CONV'!J78</f>
+        <v>145</v>
       </c>
       <c r="C78">
-        <f>'BEFORE CONV'!C78*'BEFORE CONV'!G78</f>
+        <f>'BEFORE CONV'!C78*'BEFORE CONV'!J78</f>
         <v>0</v>
       </c>
       <c r="D78">
-        <f>'BEFORE CONV'!D78*'BEFORE CONV'!G78</f>
+        <f>'BEFORE CONV'!D78*'BEFORE CONV'!J78</f>
         <v>0</v>
       </c>
       <c r="E78">
-        <f>'BEFORE CONV'!E78*'BEFORE CONV'!G78</f>
+        <f>'BEFORE CONV'!E78*'BEFORE CONV'!J78</f>
         <v>0</v>
       </c>
       <c r="F78">
-        <f>'BEFORE CONV'!F78*'BEFORE CONV'!G78</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F78*'BEFORE CONV'!J78</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
       <c r="B79">
-        <f>'BEFORE CONV'!B79*'BEFORE CONV'!G79</f>
-        <v>0.23500000000000001</v>
+        <f>'BEFORE CONV'!B79*'BEFORE CONV'!J79</f>
+        <v>235</v>
       </c>
       <c r="C79">
-        <f>'BEFORE CONV'!C79*'BEFORE CONV'!G79</f>
+        <f>'BEFORE CONV'!C79*'BEFORE CONV'!J79</f>
         <v>0</v>
       </c>
       <c r="D79">
-        <f>'BEFORE CONV'!D79*'BEFORE CONV'!G79</f>
-        <v>5.0000000000000001E-3</v>
+        <f>'BEFORE CONV'!D79*'BEFORE CONV'!J79</f>
+        <v>5</v>
       </c>
       <c r="E79">
-        <f>'BEFORE CONV'!E79*'BEFORE CONV'!G79</f>
-        <v>3.5000000000000003E-2</v>
+        <f>'BEFORE CONV'!E79*'BEFORE CONV'!J79</f>
+        <v>35</v>
       </c>
       <c r="F79">
-        <f>'BEFORE CONV'!F79*'BEFORE CONV'!G79</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F79*'BEFORE CONV'!J79</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
       <c r="B80">
-        <f>'BEFORE CONV'!B80*'BEFORE CONV'!G80</f>
-        <v>0.185</v>
+        <f>'BEFORE CONV'!B80*'BEFORE CONV'!J80</f>
+        <v>185</v>
       </c>
       <c r="C80">
-        <f>'BEFORE CONV'!C80*'BEFORE CONV'!G80</f>
-        <v>0.05</v>
+        <f>'BEFORE CONV'!C80*'BEFORE CONV'!J80</f>
+        <v>50</v>
       </c>
       <c r="D80">
-        <f>'BEFORE CONV'!D80*'BEFORE CONV'!G80</f>
-        <v>2.5000000000000001E-2</v>
+        <f>'BEFORE CONV'!D80*'BEFORE CONV'!J80</f>
+        <v>25</v>
       </c>
       <c r="E80">
-        <f>'BEFORE CONV'!E80*'BEFORE CONV'!G80</f>
-        <v>0.45500000000000002</v>
+        <f>'BEFORE CONV'!E80*'BEFORE CONV'!J80</f>
+        <v>455</v>
       </c>
       <c r="F80">
-        <f>'BEFORE CONV'!F80*'BEFORE CONV'!G80</f>
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F80*'BEFORE CONV'!J80</f>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
       <c r="B81">
-        <f>'BEFORE CONV'!B81*'BEFORE CONV'!G81</f>
-        <v>0.215</v>
+        <f>'BEFORE CONV'!B81*'BEFORE CONV'!J81</f>
+        <v>215</v>
       </c>
       <c r="C81">
-        <f>'BEFORE CONV'!C81*'BEFORE CONV'!G81</f>
-        <v>0.02</v>
+        <f>'BEFORE CONV'!C81*'BEFORE CONV'!J81</f>
+        <v>20</v>
       </c>
       <c r="D81">
-        <f>'BEFORE CONV'!D81*'BEFORE CONV'!G81</f>
-        <v>0.01</v>
+        <f>'BEFORE CONV'!D81*'BEFORE CONV'!J81</f>
+        <v>10</v>
       </c>
       <c r="E81">
-        <f>'BEFORE CONV'!E81*'BEFORE CONV'!G81</f>
-        <v>0.155</v>
+        <f>'BEFORE CONV'!E81*'BEFORE CONV'!J81</f>
+        <v>155</v>
       </c>
       <c r="F81">
-        <f>'BEFORE CONV'!F81*'BEFORE CONV'!G81</f>
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F81*'BEFORE CONV'!J81</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
       <c r="B82">
-        <f>'BEFORE CONV'!B82*'BEFORE CONV'!G82</f>
+        <f>'BEFORE CONV'!B82*'BEFORE CONV'!J82</f>
         <v>0</v>
       </c>
       <c r="C82">
-        <f>'BEFORE CONV'!C82*'BEFORE CONV'!G82</f>
-        <v>1.4E-2</v>
+        <f>'BEFORE CONV'!C82*'BEFORE CONV'!J82</f>
+        <v>14</v>
       </c>
       <c r="D82">
-        <f>'BEFORE CONV'!D82*'BEFORE CONV'!G82</f>
-        <v>1.4E-2</v>
+        <f>'BEFORE CONV'!D82*'BEFORE CONV'!J82</f>
+        <v>14</v>
       </c>
       <c r="E82">
-        <f>'BEFORE CONV'!E82*'BEFORE CONV'!G82</f>
-        <v>7.2000000000000008E-2</v>
+        <f>'BEFORE CONV'!E82*'BEFORE CONV'!J82</f>
+        <v>72</v>
       </c>
       <c r="F82">
-        <f>'BEFORE CONV'!F82*'BEFORE CONV'!G82</f>
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F82*'BEFORE CONV'!J82</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
       <c r="B83">
-        <f>'BEFORE CONV'!B83*'BEFORE CONV'!G83</f>
+        <f>'BEFORE CONV'!B83*'BEFORE CONV'!J83</f>
         <v>0</v>
       </c>
       <c r="C83">
-        <f>'BEFORE CONV'!C83*'BEFORE CONV'!G83</f>
+        <f>'BEFORE CONV'!C83*'BEFORE CONV'!J83</f>
         <v>0</v>
       </c>
       <c r="D83">
-        <f>'BEFORE CONV'!D83*'BEFORE CONV'!G83</f>
+        <f>'BEFORE CONV'!D83*'BEFORE CONV'!J83</f>
         <v>0</v>
       </c>
       <c r="E83">
-        <f>'BEFORE CONV'!E83*'BEFORE CONV'!G83</f>
+        <f>'BEFORE CONV'!E83*'BEFORE CONV'!J83</f>
         <v>0</v>
       </c>
       <c r="F83">
-        <f>'BEFORE CONV'!F83*'BEFORE CONV'!G83</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F83*'BEFORE CONV'!J83</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
       <c r="B84">
-        <f>'BEFORE CONV'!B84*'BEFORE CONV'!G84</f>
-        <v>0.29199999999999998</v>
+        <f>'BEFORE CONV'!B84*'BEFORE CONV'!J84</f>
+        <v>292</v>
       </c>
       <c r="C84">
-        <f>'BEFORE CONV'!C84*'BEFORE CONV'!G84</f>
-        <v>1.6E-2</v>
+        <f>'BEFORE CONV'!C84*'BEFORE CONV'!J84</f>
+        <v>16</v>
       </c>
       <c r="D84">
-        <f>'BEFORE CONV'!D84*'BEFORE CONV'!G84</f>
+        <f>'BEFORE CONV'!D84*'BEFORE CONV'!J84</f>
         <v>0</v>
       </c>
       <c r="E84">
-        <f>'BEFORE CONV'!E84*'BEFORE CONV'!G84</f>
-        <v>0.13200000000000001</v>
+        <f>'BEFORE CONV'!E84*'BEFORE CONV'!J84</f>
+        <v>132</v>
       </c>
       <c r="F84">
-        <f>'BEFORE CONV'!F84*'BEFORE CONV'!G84</f>
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F84*'BEFORE CONV'!J84</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
       <c r="B85">
-        <f>'BEFORE CONV'!B85*'BEFORE CONV'!G85</f>
-        <v>0.29199999999999998</v>
+        <f>'BEFORE CONV'!B85*'BEFORE CONV'!J85</f>
+        <v>292</v>
       </c>
       <c r="C85">
-        <f>'BEFORE CONV'!C85*'BEFORE CONV'!G85</f>
-        <v>1.6E-2</v>
+        <f>'BEFORE CONV'!C85*'BEFORE CONV'!J85</f>
+        <v>16</v>
       </c>
       <c r="D85">
-        <f>'BEFORE CONV'!D85*'BEFORE CONV'!G85</f>
+        <f>'BEFORE CONV'!D85*'BEFORE CONV'!J85</f>
         <v>0</v>
       </c>
       <c r="E85">
-        <f>'BEFORE CONV'!E85*'BEFORE CONV'!G85</f>
-        <v>0.13200000000000001</v>
+        <f>'BEFORE CONV'!E85*'BEFORE CONV'!J85</f>
+        <v>132</v>
       </c>
       <c r="F85">
-        <f>'BEFORE CONV'!F85*'BEFORE CONV'!G85</f>
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F85*'BEFORE CONV'!J85</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
       <c r="B86">
-        <f>'BEFORE CONV'!B86*'BEFORE CONV'!G86</f>
-        <v>0.126</v>
+        <f>'BEFORE CONV'!B86*'BEFORE CONV'!J86</f>
+        <v>126</v>
       </c>
       <c r="C86">
-        <f>'BEFORE CONV'!C86*'BEFORE CONV'!G86</f>
-        <v>2.1000000000000001E-2</v>
+        <f>'BEFORE CONV'!C86*'BEFORE CONV'!J86</f>
+        <v>21</v>
       </c>
       <c r="D86">
-        <f>'BEFORE CONV'!D86*'BEFORE CONV'!G86</f>
-        <v>3.3000000000000002E-2</v>
+        <f>'BEFORE CONV'!D86*'BEFORE CONV'!J86</f>
+        <v>33</v>
       </c>
       <c r="E86">
-        <f>'BEFORE CONV'!E86*'BEFORE CONV'!G86</f>
-        <v>0.309</v>
+        <f>'BEFORE CONV'!E86*'BEFORE CONV'!J86</f>
+        <v>309</v>
       </c>
       <c r="F86">
-        <f>'BEFORE CONV'!F86*'BEFORE CONV'!G86</f>
-        <v>8.4000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+        <f>'BEFORE CONV'!F86*'BEFORE CONV'!J86</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
       <c r="B87">
-        <f>'BEFORE CONV'!B87*'BEFORE CONV'!G87</f>
-        <v>4.8400000000000006E-2</v>
+        <f>'BEFORE CONV'!B87*'BEFORE CONV'!J87</f>
+        <v>48.400000000000006</v>
       </c>
       <c r="C87">
-        <f>'BEFORE CONV'!C87*'BEFORE CONV'!G87</f>
+        <f>'BEFORE CONV'!C87*'BEFORE CONV'!J87</f>
         <v>0</v>
       </c>
       <c r="D87">
-        <f>'BEFORE CONV'!D87*'BEFORE CONV'!G87</f>
+        <f>'BEFORE CONV'!D87*'BEFORE CONV'!J87</f>
         <v>0</v>
       </c>
       <c r="E87">
-        <f>'BEFORE CONV'!E87*'BEFORE CONV'!G87</f>
+        <f>'BEFORE CONV'!E87*'BEFORE CONV'!J87</f>
         <v>0</v>
       </c>
       <c r="F87">
-        <f>'BEFORE CONV'!F87*'BEFORE CONV'!G87</f>
+        <f>'BEFORE CONV'!F87*'BEFORE CONV'!J87</f>
         <v>0</v>
       </c>
     </row>
@@ -2895,47 +2976,80 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{166717F2-E182-F349-B994-9EFBA99CFF32}">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:S87"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScale="94" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" customWidth="1"/>
-    <col min="5" max="5" width="28.5" customWidth="1"/>
-    <col min="6" max="6" width="23.1640625" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="1" max="1" width="36.875" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="9" width="8.5" customWidth="1"/>
+    <col min="10" max="10" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:19" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="M1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2954,12 +3068,44 @@
       <c r="F2">
         <v>64</v>
       </c>
-      <c r="G2">
-        <f>2.755*0.001</f>
-        <v>2.7550000000000001E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <f>275.5/100</f>
+        <v>2.7549999999999999</v>
+      </c>
+      <c r="L2">
+        <f>B2*J2</f>
+        <v>179.07499999999999</v>
+      </c>
+      <c r="M2">
+        <f>C2*J2</f>
+        <v>68.875</v>
+      </c>
+      <c r="N2">
+        <f>D2*J2</f>
+        <v>101.935</v>
+      </c>
+      <c r="O2">
+        <f>E2*J2</f>
+        <v>1942.2749999999999</v>
+      </c>
+      <c r="P2">
+        <f>F2*J2</f>
+        <v>176.32</v>
+      </c>
+      <c r="Q2">
+        <f>G2*J2</f>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <f>H2*J2</f>
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <f>I2*J2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2978,12 +3124,44 @@
       <c r="F3">
         <v>66</v>
       </c>
-      <c r="G3">
-        <f>2.555*0.001</f>
-        <v>2.5550000000000004E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <f>255.5/100</f>
+        <v>2.5550000000000002</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L66" si="0">B3*J3</f>
+        <v>89.425000000000011</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M66" si="1">C3*J3</f>
+        <v>66.430000000000007</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N66" si="2">D3*J3</f>
+        <v>97.038899999999998</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O66" si="3">E3*J3</f>
+        <v>1857.4850000000001</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P66" si="4">F3*J3</f>
+        <v>168.63000000000002</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q66" si="5">G3*J3</f>
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R66" si="6">H3*J3</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S66" si="7">I3*J3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3002,12 +3180,44 @@
       <c r="F4">
         <v>65</v>
       </c>
-      <c r="G4">
-        <f>1.25*0.001</f>
-        <v>1.25E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <f>125/100</f>
+        <v>1.25</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>147.5</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="2"/>
+        <v>56.25</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="3"/>
+        <v>690</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="4"/>
+        <v>81.25</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3026,12 +3236,43 @@
       <c r="F5">
         <v>203</v>
       </c>
-      <c r="G5">
-        <f>0.001</f>
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>159</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="3"/>
+        <v>2657</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="4"/>
+        <v>203</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3050,12 +3291,43 @@
       <c r="F6">
         <v>470</v>
       </c>
-      <c r="G6">
-        <f>0.001</f>
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>393</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="3"/>
+        <v>6620</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="4"/>
+        <v>470</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3074,12 +3346,44 @@
       <c r="F7">
         <v>48</v>
       </c>
-      <c r="G7">
-        <f>0.2*0.001</f>
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <f>20/100</f>
+        <v>0.2</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>60.6</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>6.2</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="4"/>
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3098,11 +3402,43 @@
       <c r="F8">
         <v>25</v>
       </c>
-      <c r="G8">
+      <c r="J8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="3"/>
+        <v>185</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3121,12 +3457,44 @@
       <c r="F9">
         <v>11</v>
       </c>
-      <c r="G9">
-        <f>2.4*0.001</f>
-        <v>2.3999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <f>240/100</f>
+        <v>2.4</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>146.4</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="3"/>
+        <v>76.8</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="4"/>
+        <v>26.4</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3145,12 +3513,44 @@
       <c r="F10">
         <v>19</v>
       </c>
-      <c r="G10">
-        <f>1.5*0.001</f>
-        <v>1.5E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <f>150/100</f>
+        <v>1.5</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>61.5</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="3"/>
+        <v>265.5</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="4"/>
+        <v>28.5</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3169,12 +3569,44 @@
       <c r="F11">
         <v>31</v>
       </c>
-      <c r="G11">
-        <f>1.4*0.001</f>
-        <v>1.4E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <f>140/100</f>
+        <v>1.4</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>60.199999999999996</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>5.6</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>12.6</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="3"/>
+        <v>123.19999999999999</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="4"/>
+        <v>43.4</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3193,12 +3625,44 @@
       <c r="F12">
         <v>84</v>
       </c>
-      <c r="G12">
-        <f>0.6*0.001</f>
-        <v>5.9999999999999995E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <f>60/100</f>
+        <v>0.6</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>6.6</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="4"/>
+        <v>50.4</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3217,12 +3681,44 @@
       <c r="F13">
         <v>15</v>
       </c>
-      <c r="G13">
-        <f>2*0.001</f>
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J13">
+        <f>200/100</f>
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3241,12 +3737,44 @@
       <c r="F14">
         <v>48</v>
       </c>
-      <c r="G14">
-        <f>2*0.001</f>
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <f>2/100</f>
+        <v>0.02</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>0.12</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="3"/>
+        <v>2.72</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="4"/>
+        <v>0.96</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3265,11 +3793,43 @@
       <c r="F15">
         <v>38</v>
       </c>
-      <c r="G15">
+      <c r="J15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="3"/>
+        <v>141</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -3288,11 +3848,43 @@
       <c r="F16">
         <v>61</v>
       </c>
-      <c r="G16">
+      <c r="J16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="3"/>
+        <v>245</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3311,11 +3903,43 @@
       <c r="F17">
         <v>13</v>
       </c>
-      <c r="G17">
+      <c r="J17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -3334,11 +3958,43 @@
       <c r="F18">
         <v>24</v>
       </c>
-      <c r="G18">
+      <c r="J18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3357,12 +4013,44 @@
       <c r="F19">
         <v>30</v>
       </c>
-      <c r="G19">
-        <f>1.65*0.001</f>
-        <v>1.65E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <f>165/100</f>
+        <v>1.65</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>97.35</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="2"/>
+        <v>19.799999999999997</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="3"/>
+        <v>141.9</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="4"/>
+        <v>49.5</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3381,12 +4069,44 @@
       <c r="F20">
         <v>22</v>
       </c>
-      <c r="G20">
-        <f>0.5*0.001</f>
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J20">
+        <f>50/100</f>
+        <v>0.5</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3405,12 +4125,44 @@
       <c r="F21">
         <v>54</v>
       </c>
-      <c r="G21">
-        <f>1.2*0.001</f>
-        <v>1.1999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J21">
+        <f>120/100</f>
+        <v>1.2</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="2"/>
+        <v>27.599999999999998</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="3"/>
+        <v>163.19999999999999</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="4"/>
+        <v>64.8</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3429,11 +4181,43 @@
       <c r="F22">
         <v>23</v>
       </c>
-      <c r="G22">
+      <c r="J22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="3"/>
+        <v>424</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -3452,12 +4236,44 @@
       <c r="F23">
         <v>56</v>
       </c>
-      <c r="G23">
-        <f>2*0.001</f>
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J23">
+        <f>200/100</f>
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="3"/>
+        <v>1178</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="4"/>
+        <v>112</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3476,12 +4292,44 @@
       <c r="F24">
         <v>29</v>
       </c>
-      <c r="G24">
-        <f>1.25*0.001</f>
-        <v>1.25E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J24">
+        <f>125/100</f>
+        <v>1.25</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="3"/>
+        <v>295</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="4"/>
+        <v>36.25</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3500,12 +4348,44 @@
       <c r="F25">
         <v>218</v>
       </c>
-      <c r="G25">
-        <f>1.25*0.001</f>
-        <v>1.25E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J25">
+        <f>125/100</f>
+        <v>1.25</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>121.25</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>76.25</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="2"/>
+        <v>91.25</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="3"/>
+        <v>1531.25</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="4"/>
+        <v>272.5</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -3524,12 +4404,44 @@
       <c r="F26">
         <v>34</v>
       </c>
-      <c r="G26">
-        <f>1.25*0.001</f>
-        <v>1.25E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J26">
+        <f>125/100</f>
+        <v>1.25</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>53.75</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="2"/>
+        <v>16.25</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="3"/>
+        <v>331.25</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="4"/>
+        <v>42.5</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3548,12 +4460,44 @@
       <c r="F27">
         <v>197</v>
       </c>
-      <c r="G27">
-        <f>1.25*0.001</f>
-        <v>1.25E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J27">
+        <f>125/100</f>
+        <v>1.25</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="2"/>
+        <v>56.25</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="3"/>
+        <v>1008.75</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="4"/>
+        <v>246.25</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3572,12 +4516,44 @@
       <c r="F28">
         <v>108</v>
       </c>
-      <c r="G28">
-        <f>1.25*0.001</f>
-        <v>1.25E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J28">
+        <f>125/100</f>
+        <v>1.25</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>27.5</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="2"/>
+        <v>46.25</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="3"/>
+        <v>501.25</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="4"/>
+        <v>135</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -3596,12 +4572,44 @@
       <c r="F29">
         <v>32</v>
       </c>
-      <c r="G29">
-        <f>0.6*0.001</f>
-        <v>5.9999999999999995E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J29">
+        <f>60/100</f>
+        <v>0.6</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>34.799999999999997</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="1"/>
+        <v>7.8</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="2"/>
+        <v>6.6</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="3"/>
+        <v>128.4</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="4"/>
+        <v>19.2</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -3620,12 +4628,44 @@
       <c r="F30">
         <v>48</v>
       </c>
-      <c r="G30">
-        <f>1.25*0.001</f>
-        <v>1.25E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J30">
+        <f>125/100</f>
+        <v>1.25</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="1"/>
+        <v>32.5</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="2"/>
+        <v>18.75</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="3"/>
+        <v>776.25</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3644,11 +4684,43 @@
       <c r="F31">
         <v>156</v>
       </c>
-      <c r="G31">
+      <c r="J31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="3"/>
+        <v>911</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="4"/>
+        <v>156</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -3667,11 +4739,43 @@
       <c r="F32">
         <v>230</v>
       </c>
-      <c r="G32">
+      <c r="J32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="3"/>
+        <v>883</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="4"/>
+        <v>230</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3690,11 +4794,43 @@
       <c r="F33">
         <v>272</v>
       </c>
-      <c r="G33">
+      <c r="J33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L33">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="3"/>
+        <v>1162</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="4"/>
+        <v>272</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -3713,11 +4849,43 @@
       <c r="F34">
         <v>150</v>
       </c>
-      <c r="G34">
+      <c r="J34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="3"/>
+        <v>369</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -3736,11 +4904,43 @@
       <c r="F35">
         <v>203</v>
       </c>
-      <c r="G35">
+      <c r="J35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L35">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="4"/>
+        <v>203</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -3759,12 +4959,44 @@
       <c r="F36">
         <v>59</v>
       </c>
-      <c r="G36">
-        <f>1.6*0.001</f>
-        <v>1.6000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J36">
+        <f>160/100</f>
+        <v>1.6</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="0"/>
+        <v>27.200000000000003</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="3"/>
+        <v>563.20000000000005</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="4"/>
+        <v>94.4</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -3783,12 +5015,44 @@
       <c r="F37">
         <v>269</v>
       </c>
-      <c r="G37">
-        <f>0.1*0.001</f>
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J37">
+        <f>10/100</f>
+        <v>0.1</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="0"/>
+        <v>14.200000000000001</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="1"/>
+        <v>8.7000000000000011</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="2"/>
+        <v>10.4</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="3"/>
+        <v>108.9</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="4"/>
+        <v>26.900000000000002</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -3807,11 +5071,44 @@
       <c r="F38">
         <v>265</v>
       </c>
-      <c r="G38">
+      <c r="J38">
+        <f>100/100</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L38">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="3"/>
+        <v>683</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="4"/>
+        <v>265</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -3830,11 +5127,43 @@
       <c r="F39">
         <v>2160</v>
       </c>
-      <c r="G39">
+      <c r="J39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L39">
+        <f t="shared" si="0"/>
+        <v>322</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="1"/>
+        <v>460</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="2"/>
+        <v>330</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="3"/>
+        <v>5250</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="4"/>
+        <v>2160</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -3853,12 +5182,44 @@
       <c r="F40">
         <v>420</v>
       </c>
-      <c r="G40">
-        <f>0.5*0.001</f>
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J40">
+        <f>50/100</f>
+        <v>0.5</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="0"/>
+        <v>68.5</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="3"/>
+        <v>718</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="4"/>
+        <v>210</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -3877,12 +5238,44 @@
       <c r="F41">
         <v>1593</v>
       </c>
-      <c r="G41">
-        <f>1.25*0.001</f>
-        <v>1.25E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J41">
+        <f>125/100</f>
+        <v>1.25</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="0"/>
+        <v>221.25</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="1"/>
+        <v>426.25</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="2"/>
+        <v>398.75</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="3"/>
+        <v>5250</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="4"/>
+        <v>1991.25</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -3901,12 +5294,44 @@
       <c r="F42">
         <v>1321</v>
       </c>
-      <c r="G42">
-        <f>1.25*0.001</f>
-        <v>1.25E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J42">
+        <f>125/100</f>
+        <v>1.25</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="0"/>
+        <v>173.75</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="1"/>
+        <v>312.5</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="2"/>
+        <v>302.5</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="3"/>
+        <v>4407.5</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="4"/>
+        <v>1651.25</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -3925,12 +5350,44 @@
       <c r="F43">
         <v>978</v>
       </c>
-      <c r="G43">
-        <f>1.35*0.001</f>
-        <v>1.3500000000000001E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J43">
+        <f>135/100</f>
+        <v>1.35</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="0"/>
+        <v>157.95000000000002</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="1"/>
+        <v>305.10000000000002</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="2"/>
+        <v>279.45000000000005</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="3"/>
+        <v>4062.15</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="4"/>
+        <v>1320.3000000000002</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -3949,12 +5406,44 @@
       <c r="F44">
         <v>899</v>
       </c>
-      <c r="G44">
-        <f>2.25*0.001</f>
-        <v>2.2500000000000003E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J44">
+        <f>225/100</f>
+        <v>2.25</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>312.75</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="1"/>
+        <v>535.5</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="2"/>
+        <v>461.25</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="3"/>
+        <v>7008.75</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="4"/>
+        <v>2022.75</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -3973,12 +5462,44 @@
       <c r="F45">
         <v>266</v>
       </c>
-      <c r="G45">
-        <f>1.75*0.001</f>
-        <v>1.75E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J45">
+        <f>175/100</f>
+        <v>1.75</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="0"/>
+        <v>183.75</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="3"/>
+        <v>1643.25</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="4"/>
+        <v>465.5</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -3997,12 +5518,44 @@
       <c r="F46">
         <v>1039</v>
       </c>
-      <c r="G46">
-        <f>1.25*0.001</f>
-        <v>1.25E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J46">
+        <f>125/100</f>
+        <v>1.25</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="0"/>
+        <v>462.5</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="2"/>
+        <v>277.5</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="3"/>
+        <v>3975</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="4"/>
+        <v>1298.75</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -4021,12 +5574,44 @@
       <c r="F47">
         <v>974</v>
       </c>
-      <c r="G47">
-        <f>0.75*0.001</f>
-        <v>7.5000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J47">
+        <f>75/100</f>
+        <v>0.75</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="0"/>
+        <v>190.5</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="1"/>
+        <v>156.75</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="2"/>
+        <v>156.75</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="3"/>
+        <v>2159.25</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="4"/>
+        <v>730.5</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -4045,11 +5630,43 @@
       <c r="F48">
         <v>1409</v>
       </c>
-      <c r="G48">
+      <c r="J48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L48">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="1"/>
+        <v>264</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="2"/>
+        <v>293</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="3"/>
+        <v>2816</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="4"/>
+        <v>1409</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -4068,11 +5685,43 @@
       <c r="F49">
         <v>1257</v>
       </c>
-      <c r="G49">
+      <c r="J49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L49">
+        <f t="shared" si="0"/>
+        <v>303</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="1"/>
+        <v>311</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="2"/>
+        <v>236</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="3"/>
+        <v>3778</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="4"/>
+        <v>1257</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -4091,12 +5740,44 @@
       <c r="F50">
         <v>1471</v>
       </c>
-      <c r="G50">
-        <f>2.25*0.001</f>
-        <v>2.2500000000000003E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J50">
+        <f>225/100</f>
+        <v>2.25</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="1"/>
+        <v>382.5</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="3"/>
+        <v>7503.75</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="4"/>
+        <v>3309.75</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -4115,12 +5796,44 @@
       <c r="F51">
         <v>895</v>
       </c>
-      <c r="G51">
-        <f>2.5*0.001</f>
-        <v>2.5000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J51">
+        <f>250/100</f>
+        <v>2.5</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="0"/>
+        <v>435</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="1"/>
+        <v>532.5</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="3"/>
+        <v>6432.5</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="4"/>
+        <v>2237.5</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -4139,12 +5852,44 @@
       <c r="F52">
         <v>2051</v>
       </c>
-      <c r="G52">
-        <f>1.7*0.001</f>
-        <v>1.6999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J52">
+        <f>170/100</f>
+        <v>1.7</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="0"/>
+        <v>416.5</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="1"/>
+        <v>1395.7</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="2"/>
+        <v>1045.5</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="3"/>
+        <v>15954.5</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="4"/>
+        <v>3486.7</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -4160,12 +5905,44 @@
       <c r="E53">
         <v>5727</v>
       </c>
-      <c r="G53">
-        <f>0.5*0.001</f>
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J53">
+        <f>50/100</f>
+        <v>0.5</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="0"/>
+        <v>288</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="1"/>
+        <v>218.5</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="2"/>
+        <v>163</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="3"/>
+        <v>2863.5</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -4184,12 +5961,44 @@
       <c r="F54">
         <v>516</v>
       </c>
-      <c r="G54">
-        <f>1.1*0.001</f>
-        <v>1.1000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J54">
+        <f>110/100</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="0"/>
+        <v>562.1</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="1"/>
+        <v>169.4</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="2"/>
+        <v>146.30000000000001</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="3"/>
+        <v>2361.7000000000003</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="4"/>
+        <v>567.6</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -4208,11 +6017,43 @@
       <c r="F55">
         <v>110</v>
       </c>
-      <c r="G55">
+      <c r="J55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L55">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="3"/>
+        <v>747</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -4231,12 +6072,44 @@
       <c r="F56">
         <v>111</v>
       </c>
-      <c r="G56">
-        <f>1.4*0.001</f>
-        <v>1.4E-3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J56">
+        <f>140/100</f>
+        <v>1.4</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="0"/>
+        <v>243.6</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="1"/>
+        <v>75.599999999999994</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="3"/>
+        <v>953.4</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="4"/>
+        <v>155.39999999999998</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -4255,11 +6128,43 @@
       <c r="F57">
         <v>18</v>
       </c>
-      <c r="G57">
+      <c r="J57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L57">
+        <f t="shared" si="0"/>
+        <v>391</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -4278,12 +6183,44 @@
       <c r="F58">
         <v>17</v>
       </c>
-      <c r="G58">
-        <f>0.25*0.001</f>
-        <v>2.5000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J58">
+        <f>25/100</f>
+        <v>0.25</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="0"/>
+        <v>76.5</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="3"/>
+        <v>18.75</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="4"/>
+        <v>4.25</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -4302,11 +6239,43 @@
       <c r="F59">
         <v>282</v>
       </c>
-      <c r="G59">
+      <c r="J59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L59">
+        <f t="shared" si="0"/>
+        <v>489</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="1"/>
+        <v>142</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="3"/>
+        <v>1626</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="4"/>
+        <v>282</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -4325,12 +6294,44 @@
       <c r="F60">
         <v>272</v>
       </c>
-      <c r="G60">
-        <f>0.25*0.001</f>
-        <v>2.5000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J60">
+        <f>25/100</f>
+        <v>0.25</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="0"/>
+        <v>60.5</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="1"/>
+        <v>42.25</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="2"/>
+        <v>18.75</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="3"/>
+        <v>738.75</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -4349,12 +6350,44 @@
       <c r="F61">
         <v>381</v>
       </c>
-      <c r="G61">
-        <f>0.3*0.001</f>
-        <v>2.9999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J61">
+        <f>30/100</f>
+        <v>0.3</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="0"/>
+        <v>75.599999999999994</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="1"/>
+        <v>36.9</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="3"/>
+        <v>579</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="4"/>
+        <v>114.3</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -4373,11 +6406,43 @@
       <c r="F62">
         <v>186</v>
       </c>
-      <c r="G62">
+      <c r="J62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L62">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="3"/>
+        <v>1717</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="4"/>
+        <v>186</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -4396,12 +6461,44 @@
       <c r="F63">
         <v>575</v>
       </c>
-      <c r="G63">
-        <f>0.3*0.001</f>
-        <v>2.9999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J63">
+        <f>30/100</f>
+        <v>0.3</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="0"/>
+        <v>103.8</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="2"/>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="3"/>
+        <v>763.8</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="4"/>
+        <v>172.5</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -4420,12 +6517,44 @@
       <c r="F64">
         <v>72</v>
       </c>
-      <c r="G64">
-        <f>1.25*0.001</f>
-        <v>1.25E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J64">
+        <f>125/100</f>
+        <v>1.25</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="0"/>
+        <v>87.5</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="1"/>
+        <v>26.25</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="2"/>
+        <v>36.25</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="3"/>
+        <v>438.75</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -4444,11 +6573,43 @@
       <c r="F65">
         <v>104</v>
       </c>
-      <c r="G65">
+      <c r="J65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L65">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="3"/>
+        <v>401</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="4"/>
+        <v>104</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -4467,11 +6628,43 @@
       <c r="F66">
         <v>31</v>
       </c>
-      <c r="G66">
+      <c r="J66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L66">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -4490,12 +6683,44 @@
       <c r="F67">
         <v>422</v>
       </c>
-      <c r="G67">
-        <f>1.2*0.001</f>
-        <v>1.1999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J67">
+        <f>120/100</f>
+        <v>1.2</v>
+      </c>
+      <c r="L67">
+        <f t="shared" ref="L67:L87" si="8">B67*J67</f>
+        <v>213.6</v>
+      </c>
+      <c r="M67">
+        <f t="shared" ref="M67:M87" si="9">C67*J67</f>
+        <v>296.39999999999998</v>
+      </c>
+      <c r="N67">
+        <f t="shared" ref="N67:N87" si="10">D67*J67</f>
+        <v>219.6</v>
+      </c>
+      <c r="O67">
+        <f t="shared" ref="O67:O87" si="11">E67*J67</f>
+        <v>1736.3999999999999</v>
+      </c>
+      <c r="P67">
+        <f t="shared" ref="P67:P87" si="12">F67*J67</f>
+        <v>506.4</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" ref="Q67:Q87" si="13">G67*J67</f>
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <f t="shared" ref="R67:R87" si="14">H67*J67</f>
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <f t="shared" ref="S67:S87" si="15">I67*J67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -4514,12 +6739,44 @@
       <c r="F68">
         <v>214</v>
       </c>
-      <c r="G68">
-        <f>2*0.001</f>
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J68">
+        <f>200/100</f>
+        <v>2</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="8"/>
+        <v>608</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="9"/>
+        <v>246</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="10"/>
+        <v>124</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="11"/>
+        <v>3736</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="12"/>
+        <v>428</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -4538,12 +6795,44 @@
       <c r="F69">
         <v>160</v>
       </c>
-      <c r="G69">
-        <f>1.2*0.001</f>
-        <v>1.1999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J69">
+        <f>120/100</f>
+        <v>1.2</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="8"/>
+        <v>350.4</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="9"/>
+        <v>54</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="10"/>
+        <v>78</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="11"/>
+        <v>932.4</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="12"/>
+        <v>192</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -4562,11 +6851,43 @@
       <c r="F70">
         <v>74</v>
       </c>
-      <c r="G70">
+      <c r="J70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L70">
+        <f t="shared" si="8"/>
+        <v>73</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="11"/>
+        <v>359</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="12"/>
+        <v>74</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -4585,12 +6906,44 @@
       <c r="F71">
         <v>15</v>
       </c>
-      <c r="G71">
-        <f>0.15*0.001</f>
-        <v>1.4999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J71">
+        <f>15/100</f>
+        <v>0.15</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="8"/>
+        <v>111.14999999999999</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="9"/>
+        <v>0.6</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="11"/>
+        <v>18.149999999999999</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="12"/>
+        <v>2.25</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -4609,12 +6962,44 @@
       <c r="F72">
         <v>5</v>
       </c>
-      <c r="G72">
-        <f>0.12*0.001</f>
-        <v>1.2E-4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J72">
+        <f>0.12/100</f>
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="8"/>
+        <v>1.0608</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="9"/>
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="10"/>
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="11"/>
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="12"/>
+        <v>5.9999999999999993E-3</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -4633,12 +7018,44 @@
       <c r="F73">
         <v>4</v>
       </c>
-      <c r="G73">
-        <f>0.15*0.001</f>
-        <v>1.4999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J73">
+        <f>15/100</f>
+        <v>0.15</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="8"/>
+        <v>106.35</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="9"/>
+        <v>0.3</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="10"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="12"/>
+        <v>0.6</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -4657,12 +7074,44 @@
       <c r="F74">
         <v>0</v>
       </c>
-      <c r="G74">
-        <f>0.15*0.001</f>
-        <v>1.4999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J74">
+        <f>15/100</f>
+        <v>0.15</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="8"/>
+        <v>132.6</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -4681,12 +7130,44 @@
       <c r="F75">
         <v>0</v>
       </c>
-      <c r="G75">
-        <f>0.15*0.001</f>
-        <v>1.4999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J75">
+        <f>15/100</f>
+        <v>0.15</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="8"/>
+        <v>132.6</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -4705,14 +7186,46 @@
       <c r="F76">
         <v>49</v>
       </c>
-      <c r="G76">
-        <f>0.15*0.001</f>
-        <v>1.4999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J76">
+        <f>15/100</f>
+        <v>0.15</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="8"/>
+        <v>111.45</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="9"/>
+        <v>4.5</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="10"/>
+        <v>3.3</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="11"/>
+        <v>28.95</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="12"/>
+        <v>7.35</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="B77">
         <v>47</v>
@@ -4729,14 +7242,46 @@
       <c r="F77">
         <v>0</v>
       </c>
-      <c r="G77">
-        <f>5*0.001</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J77">
+        <f>500/100</f>
+        <v>5</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="8"/>
+        <v>235</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="B78">
         <v>29</v>
@@ -4753,12 +7298,44 @@
       <c r="F78">
         <v>0</v>
       </c>
-      <c r="G78">
-        <f>5*0.001</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J78">
+        <f>500/100</f>
+        <v>5</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="8"/>
+        <v>145</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -4777,12 +7354,44 @@
       <c r="F79">
         <v>2</v>
       </c>
-      <c r="G79">
-        <f>5*0.001</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J79">
+        <f>500/100</f>
+        <v>5</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="8"/>
+        <v>235</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="11"/>
+        <v>35</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -4801,12 +7410,44 @@
       <c r="F80">
         <v>76</v>
       </c>
-      <c r="G80">
-        <f>5*0.001</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J80">
+        <f>500/100</f>
+        <v>5</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="8"/>
+        <v>185</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="11"/>
+        <v>455</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="12"/>
+        <v>380</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -4825,12 +7466,44 @@
       <c r="F81">
         <v>9</v>
       </c>
-      <c r="G81">
-        <f>5*0.001</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J81">
+        <f>500/100</f>
+        <v>5</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="8"/>
+        <v>215</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="11"/>
+        <v>155</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="12"/>
+        <v>45</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -4849,12 +7522,44 @@
       <c r="F82">
         <v>7</v>
       </c>
-      <c r="G82">
-        <f>2*0.001</f>
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J82">
+        <f>200/100</f>
+        <v>2</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="11"/>
+        <v>72</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="12"/>
+        <v>14</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -4873,12 +7578,44 @@
       <c r="F83">
         <v>0</v>
       </c>
-      <c r="G83">
-        <f>2.5*0.001</f>
-        <v>2.5000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J83">
+        <f>250/100</f>
+        <v>2.5</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -4897,12 +7634,44 @@
       <c r="F84">
         <v>4</v>
       </c>
-      <c r="G84">
-        <f>4*0.001</f>
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J84">
+        <f>400/100</f>
+        <v>4</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="8"/>
+        <v>292</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="11"/>
+        <v>132</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -4921,12 +7690,44 @@
       <c r="F85">
         <v>4</v>
       </c>
-      <c r="G85">
-        <f>4*0.001</f>
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J85">
+        <f>400/100</f>
+        <v>4</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="8"/>
+        <v>292</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="11"/>
+        <v>132</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -4945,14 +7746,46 @@
       <c r="F86">
         <v>28</v>
       </c>
-      <c r="G86">
-        <f>3*0.001</f>
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J86">
+        <f>300/100</f>
+        <v>3</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="8"/>
+        <v>126</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="10"/>
+        <v>33</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="11"/>
+        <v>309</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="12"/>
+        <v>84</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B87">
         <v>242</v>
@@ -4969,12 +7802,45 @@
       <c r="F87">
         <v>0</v>
       </c>
-      <c r="G87">
-        <f>0.2*0.001</f>
-        <v>2.0000000000000001E-4</v>
+      <c r="J87">
+        <f>20/100</f>
+        <v>0.2</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="8"/>
+        <v>48.400000000000006</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LGC_Motiv_analysis/nutrition/taux.xlsx
+++ b/LGC_Motiv_analysis/nutrition/taux.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clairis\Desktop\GitHub\LGC_motiv\LGC_Motiv_analysis\nutrition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902C312C-0839-400B-9721-EC73D592566C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4603227E-44F8-45E2-9467-1DF516D13D8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{1707A41E-2127-944B-9530-FAB8E43081B2}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="347">
   <si>
     <t>Question</t>
   </si>
@@ -1164,6 +1164,9 @@
       </rPr>
       <t>]</t>
     </r>
+  </si>
+  <si>
+    <t>Energie [kcal]</t>
   </si>
 </sst>
 </file>
@@ -1586,8 +1589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF765684-8B7E-2D4B-ABA8-2D28FB30B5F3}">
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1608,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>95</v>
+        <v>346</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>89</v>

--- a/LGC_Motiv_analysis/nutrition/taux.xlsx
+++ b/LGC_Motiv_analysis/nutrition/taux.xlsx
@@ -1,32 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clairis\Desktop\GitHub\LGC_motiv\LGC_Motiv_analysis\nutrition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4603227E-44F8-45E2-9467-1DF516D13D8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14CF4E1-D052-4506-844B-A7180AD70156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{1707A41E-2127-944B-9530-FAB8E43081B2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1707A41E-2127-944B-9530-FAB8E43081B2}"/>
   </bookViews>
   <sheets>
     <sheet name="AFTER CONV" sheetId="2" r:id="rId1"/>
     <sheet name="BEFORE CONV" sheetId="1" r:id="rId2"/>
+    <sheet name="infos" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="352">
   <si>
     <t>Question</t>
   </si>
@@ -1167,6 +1179,21 @@
   </si>
   <si>
     <t>Energie [kcal]</t>
+  </si>
+  <si>
+    <t>Taux de magnésium [mg/100mg]</t>
+  </si>
+  <si>
+    <t>Taux de Glucose [mg/100mg]</t>
+  </si>
+  <si>
+    <t>Taux de magnésium [mg]</t>
+  </si>
+  <si>
+    <t>Taux de glucose [mg]</t>
+  </si>
+  <si>
+    <t>For this one, we used the average weight of a portion found on internet, but meanwhile we discovered that this information is already provided by the BLS =&gt; this is obsolete</t>
   </si>
 </sst>
 </file>
@@ -1589,8 +1616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF765684-8B7E-2D4B-ABA8-2D28FB30B5F3}">
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4137,26 +4164,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{166717F2-E182-F349-B994-9EFBA99CFF32}">
-  <dimension ref="A1:V87"/>
+  <dimension ref="A1:Z87"/>
   <sheetViews>
-    <sheetView zoomScale="94" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="3" width="33.75" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
     <col min="5" max="5" width="15.125" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
     <col min="7" max="7" width="15.75" customWidth="1"/>
     <col min="8" max="8" width="11.5" customWidth="1"/>
-    <col min="9" max="12" width="8.5" customWidth="1"/>
-    <col min="13" max="13" width="14.875" customWidth="1"/>
+    <col min="9" max="14" width="8.5" customWidth="1"/>
+    <col min="15" max="15" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>201</v>
       </c>
@@ -4194,34 +4221,46 @@
         <v>96</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y1" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>132</v>
       </c>
@@ -4258,44 +4297,52 @@
       <c r="L2">
         <v>25</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <f>C2/100</f>
         <v>2.5</v>
       </c>
-      <c r="O2">
-        <f>E2*M2</f>
+      <c r="Q2">
+        <f>E2*O2</f>
         <v>162.5</v>
       </c>
-      <c r="P2">
-        <f>F2*M2</f>
+      <c r="R2">
+        <f>F2*O2</f>
         <v>62.5</v>
       </c>
-      <c r="Q2">
-        <f>G2*M2</f>
+      <c r="S2">
+        <f>G2*O2</f>
         <v>90</v>
       </c>
-      <c r="R2">
-        <f>H2*M2</f>
+      <c r="T2">
+        <f>H2*O2</f>
         <v>1762.5</v>
       </c>
-      <c r="S2">
-        <f>I2*M2</f>
+      <c r="U2">
+        <f>I2*O2</f>
         <v>160</v>
       </c>
-      <c r="T2">
-        <f>J2*M2</f>
+      <c r="V2">
+        <f>J2*O2</f>
         <v>225</v>
       </c>
-      <c r="U2">
-        <f>K2*M2</f>
+      <c r="W2">
+        <f>K2*O2</f>
         <v>1725</v>
       </c>
-      <c r="V2">
-        <f>L2*M2</f>
+      <c r="X2">
+        <f>L2*O2</f>
         <v>62.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y2">
+        <f>M2/O2</f>
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <f>N2/O2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>133</v>
       </c>
@@ -4332,44 +4379,52 @@
       <c r="L3">
         <v>3</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <f>C3/100</f>
         <v>2.5</v>
       </c>
-      <c r="O3">
-        <f t="shared" ref="O3:O66" si="0">E3*M3</f>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q66" si="0">E3*O3</f>
         <v>105</v>
       </c>
-      <c r="P3">
-        <f t="shared" ref="P3:P66" si="1">F3*M3</f>
+      <c r="R3">
+        <f t="shared" ref="R3:R66" si="1">F3*O3</f>
         <v>80</v>
       </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3:Q66" si="2">G3*M3</f>
+      <c r="S3">
+        <f t="shared" ref="S3:S66" si="2">G3*O3</f>
         <v>127.5</v>
       </c>
-      <c r="R3">
-        <f t="shared" ref="R3:R66" si="3">H3*M3</f>
+      <c r="T3">
+        <f t="shared" ref="T3:T66" si="3">H3*O3</f>
         <v>2020</v>
       </c>
-      <c r="S3">
-        <f t="shared" ref="S3:S66" si="4">I3*M3</f>
+      <c r="U3">
+        <f t="shared" ref="U3:U66" si="4">I3*O3</f>
         <v>207.5</v>
       </c>
-      <c r="T3">
-        <f t="shared" ref="T3:T66" si="5">J3*M3</f>
+      <c r="V3">
+        <f t="shared" ref="V3:V66" si="5">J3*O3</f>
         <v>250</v>
       </c>
-      <c r="U3">
-        <f t="shared" ref="U3:U66" si="6">K3*M3</f>
+      <c r="W3">
+        <f t="shared" ref="W3:W66" si="6">K3*O3</f>
         <v>2375</v>
       </c>
-      <c r="V3">
-        <f t="shared" ref="V3:V66" si="7">L3*M3</f>
+      <c r="X3">
+        <f t="shared" ref="X3:X66" si="7">L3*O3</f>
         <v>7.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y66" si="8">M3/O3</f>
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z66" si="9">N3/O3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>134</v>
       </c>
@@ -4406,44 +4461,52 @@
       <c r="L4">
         <v>60</v>
       </c>
-      <c r="M4">
-        <f t="shared" ref="M4:M67" si="8">C4/100</f>
+      <c r="O4">
+        <f t="shared" ref="O4:O67" si="10">C4/100</f>
         <v>1.25</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <f t="shared" si="0"/>
         <v>86.25</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <f t="shared" si="1"/>
         <v>33.75</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <f t="shared" si="2"/>
         <v>51.25</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <f t="shared" si="3"/>
         <v>860</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <f t="shared" si="4"/>
         <v>106.25</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <f t="shared" si="5"/>
         <v>112.5</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <f t="shared" si="6"/>
         <v>966.25</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <f t="shared" si="7"/>
         <v>75</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>135</v>
       </c>
@@ -4480,44 +4543,52 @@
       <c r="L5">
         <v>3</v>
       </c>
-      <c r="M5">
-        <f t="shared" si="8"/>
+      <c r="O5">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <f t="shared" si="2"/>
         <v>159</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <f t="shared" si="3"/>
         <v>2657</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <f t="shared" si="4"/>
         <v>203</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <f t="shared" si="5"/>
         <v>150</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <f t="shared" si="6"/>
         <v>2800</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -4554,44 +4625,52 @@
       <c r="L6">
         <v>435</v>
       </c>
-      <c r="M6">
-        <f t="shared" si="8"/>
+      <c r="O6">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <f t="shared" si="0"/>
         <v>396</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <f t="shared" si="1"/>
         <v>136</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <f t="shared" si="2"/>
         <v>380</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <f t="shared" si="3"/>
         <v>5638</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <f t="shared" si="4"/>
         <v>443</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <f t="shared" si="5"/>
         <v>140</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <f t="shared" si="6"/>
         <v>6473</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <f t="shared" si="7"/>
         <v>435</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>137</v>
       </c>
@@ -4628,44 +4707,52 @@
       <c r="L7">
         <v>194</v>
       </c>
-      <c r="M7">
-        <f t="shared" si="8"/>
+      <c r="O7">
+        <f t="shared" si="10"/>
         <v>0.2</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <f t="shared" si="0"/>
         <v>60.6</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <f t="shared" si="2"/>
         <v>6.2</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <f t="shared" si="3"/>
         <v>95</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <f t="shared" si="4"/>
         <v>9.6000000000000014</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <f t="shared" si="6"/>
         <v>119.4</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <f t="shared" si="7"/>
         <v>38.800000000000004</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>138</v>
       </c>
@@ -4702,44 +4789,52 @@
       <c r="L8">
         <v>35</v>
       </c>
-      <c r="M8">
-        <f t="shared" si="8"/>
+      <c r="O8">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <f t="shared" si="3"/>
         <v>185</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <f t="shared" si="5"/>
         <v>230</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <f t="shared" si="6"/>
         <v>313</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>139</v>
       </c>
@@ -4776,44 +4871,52 @@
       <c r="L9">
         <v>6</v>
       </c>
-      <c r="M9">
-        <f t="shared" si="8"/>
+      <c r="O9">
+        <f t="shared" si="10"/>
         <v>1.95</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <f t="shared" si="0"/>
         <v>118.95</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <f t="shared" si="1"/>
         <v>1.95</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <f t="shared" si="2"/>
         <v>5.85</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <f t="shared" si="3"/>
         <v>62.4</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <f t="shared" si="4"/>
         <v>21.45</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <f t="shared" si="5"/>
         <v>585</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <f t="shared" si="6"/>
         <v>682.5</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <f t="shared" si="7"/>
         <v>11.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>140</v>
       </c>
@@ -4850,44 +4953,52 @@
       <c r="L10">
         <v>1</v>
       </c>
-      <c r="M10">
-        <f t="shared" si="8"/>
+      <c r="O10">
+        <f t="shared" si="10"/>
         <v>1.5</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <f t="shared" si="0"/>
         <v>61.5</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <f t="shared" si="3"/>
         <v>265.5</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <f t="shared" si="4"/>
         <v>28.5</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <f t="shared" si="5"/>
         <v>1275</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <f t="shared" si="6"/>
         <v>1425</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>141</v>
       </c>
@@ -4924,44 +5035,52 @@
       <c r="L11">
         <v>25</v>
       </c>
-      <c r="M11">
-        <f t="shared" si="8"/>
+      <c r="O11">
+        <f t="shared" si="10"/>
         <v>1.3</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <f t="shared" si="0"/>
         <v>55.9</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <f t="shared" si="1"/>
         <v>5.2</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <f t="shared" si="2"/>
         <v>11.700000000000001</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <f t="shared" si="3"/>
         <v>114.4</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <f t="shared" si="4"/>
         <v>40.300000000000004</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <f t="shared" si="5"/>
         <v>390</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <f t="shared" si="6"/>
         <v>585</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <f t="shared" si="7"/>
         <v>32.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>142</v>
       </c>
@@ -4998,44 +5117,52 @@
       <c r="L12">
         <v>91</v>
       </c>
-      <c r="M12">
-        <f t="shared" si="8"/>
+      <c r="O12">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="R12">
+      <c r="T12">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <f t="shared" si="4"/>
         <v>84</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <f t="shared" si="5"/>
         <v>170</v>
       </c>
-      <c r="U12">
+      <c r="W12">
         <f t="shared" si="6"/>
         <v>253</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <f t="shared" si="7"/>
         <v>91</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>143</v>
       </c>
@@ -5072,44 +5199,52 @@
       <c r="L13">
         <v>42</v>
       </c>
-      <c r="M13">
-        <f t="shared" si="8"/>
+      <c r="O13">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="P13">
+      <c r="R13">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="R13">
+      <c r="T13">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <f t="shared" si="5"/>
         <v>150</v>
       </c>
-      <c r="U13">
+      <c r="W13">
         <f t="shared" si="6"/>
         <v>317</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <f t="shared" si="7"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>144</v>
       </c>
@@ -5147,44 +5282,52 @@
       <c r="L14">
         <v>20</v>
       </c>
-      <c r="M14">
-        <f t="shared" si="8"/>
+      <c r="O14">
+        <f t="shared" si="10"/>
         <v>1.38</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <f t="shared" si="0"/>
         <v>75.899999999999991</v>
       </c>
-      <c r="P14">
+      <c r="R14">
         <f t="shared" si="1"/>
         <v>8.2799999999999994</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <f t="shared" si="2"/>
         <v>19.32</v>
       </c>
-      <c r="R14">
+      <c r="T14">
         <f t="shared" si="3"/>
         <v>183.54</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <f t="shared" si="4"/>
         <v>64.86</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <f t="shared" si="5"/>
         <v>758.99999999999989</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <f t="shared" si="6"/>
         <v>1080.54</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <f t="shared" si="7"/>
         <v>27.599999999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>145</v>
       </c>
@@ -5221,44 +5364,52 @@
       <c r="L15">
         <v>101</v>
       </c>
-      <c r="M15">
-        <f t="shared" si="8"/>
+      <c r="O15">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="P15">
+      <c r="R15">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="Q15">
+      <c r="S15">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="R15">
+      <c r="T15">
         <f t="shared" si="3"/>
         <v>141</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <f t="shared" si="4"/>
         <v>38</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <f t="shared" si="5"/>
         <v>510</v>
       </c>
-      <c r="U15">
+      <c r="W15">
         <f t="shared" si="6"/>
         <v>793</v>
       </c>
-      <c r="V15">
+      <c r="X15">
         <f t="shared" si="7"/>
         <v>101</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>146</v>
       </c>
@@ -5295,44 +5446,52 @@
       <c r="L16">
         <v>256</v>
       </c>
-      <c r="M16">
-        <f t="shared" si="8"/>
+      <c r="O16">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="P16">
+      <c r="R16">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="Q16">
+      <c r="S16">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="R16">
+      <c r="T16">
         <f t="shared" si="3"/>
         <v>245</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <f t="shared" si="4"/>
         <v>61</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <f t="shared" si="5"/>
         <v>400</v>
       </c>
-      <c r="U16">
+      <c r="W16">
         <f t="shared" si="6"/>
         <v>650</v>
       </c>
-      <c r="V16">
+      <c r="X16">
         <f t="shared" si="7"/>
         <v>256</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>147</v>
       </c>
@@ -5369,44 +5528,52 @@
       <c r="L17">
         <v>28</v>
       </c>
-      <c r="M17">
-        <f t="shared" si="8"/>
+      <c r="O17">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="P17">
+      <c r="R17">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R17">
+      <c r="T17">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <f t="shared" si="5"/>
         <v>440</v>
       </c>
-      <c r="U17">
+      <c r="W17">
         <f t="shared" si="6"/>
         <v>440</v>
       </c>
-      <c r="V17">
+      <c r="X17">
         <f t="shared" si="7"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>148</v>
       </c>
@@ -5443,44 +5610,52 @@
       <c r="L18">
         <v>33</v>
       </c>
-      <c r="M18">
-        <f t="shared" si="8"/>
+      <c r="O18">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="O18">
+      <c r="Q18">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="P18">
+      <c r="R18">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="Q18">
+      <c r="S18">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="R18">
+      <c r="T18">
         <f t="shared" si="3"/>
         <v>63</v>
       </c>
-      <c r="S18">
+      <c r="U18">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="T18">
+      <c r="V18">
         <f t="shared" si="5"/>
         <v>220</v>
       </c>
-      <c r="U18">
+      <c r="W18">
         <f t="shared" si="6"/>
         <v>337</v>
       </c>
-      <c r="V18">
+      <c r="X18">
         <f t="shared" si="7"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>149</v>
       </c>
@@ -5517,44 +5692,52 @@
       <c r="L19">
         <v>67</v>
       </c>
-      <c r="M19">
-        <f t="shared" si="8"/>
+      <c r="O19">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="P19">
+      <c r="R19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q19">
+      <c r="S19">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="R19">
+      <c r="T19">
         <f t="shared" si="3"/>
         <v>86</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <f t="shared" si="5"/>
         <v>700</v>
       </c>
-      <c r="U19">
+      <c r="W19">
         <f t="shared" si="6"/>
         <v>900</v>
       </c>
-      <c r="V19">
+      <c r="X19">
         <f t="shared" si="7"/>
         <v>67</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>150</v>
       </c>
@@ -5591,44 +5774,52 @@
       <c r="L20">
         <v>46</v>
       </c>
-      <c r="M20">
-        <f t="shared" si="8"/>
+      <c r="O20">
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="O20">
+      <c r="Q20">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="P20">
+      <c r="R20">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="Q20">
+      <c r="S20">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
-      <c r="R20">
+      <c r="T20">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="S20">
+      <c r="U20">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="T20">
+      <c r="V20">
         <f t="shared" si="5"/>
         <v>135</v>
       </c>
-      <c r="U20">
+      <c r="W20">
         <f t="shared" si="6"/>
         <v>210</v>
       </c>
-      <c r="V20">
+      <c r="X20">
         <f t="shared" si="7"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>151</v>
       </c>
@@ -5665,44 +5856,52 @@
       <c r="L21">
         <v>26</v>
       </c>
-      <c r="M21">
-        <f t="shared" si="8"/>
+      <c r="O21">
+        <f t="shared" si="10"/>
         <v>1.2</v>
       </c>
-      <c r="O21">
+      <c r="Q21">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="P21">
+      <c r="R21">
         <f t="shared" si="1"/>
         <v>3.5999999999999996</v>
       </c>
-      <c r="Q21">
+      <c r="S21">
         <f t="shared" si="2"/>
         <v>27.599999999999998</v>
       </c>
-      <c r="R21">
+      <c r="T21">
         <f t="shared" si="3"/>
         <v>163.19999999999999</v>
       </c>
-      <c r="S21">
+      <c r="U21">
         <f t="shared" si="4"/>
         <v>64.8</v>
       </c>
-      <c r="T21">
+      <c r="V21">
         <f t="shared" si="5"/>
         <v>780</v>
       </c>
-      <c r="U21">
+      <c r="W21">
         <f t="shared" si="6"/>
         <v>1239.5999999999999</v>
       </c>
-      <c r="V21">
+      <c r="X21">
         <f t="shared" si="7"/>
         <v>31.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>152</v>
       </c>
@@ -5739,44 +5938,52 @@
       <c r="L22">
         <v>9</v>
       </c>
-      <c r="M22">
-        <f t="shared" si="8"/>
+      <c r="O22">
+        <f t="shared" si="10"/>
         <v>1.7</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <f t="shared" si="0"/>
         <v>28.9</v>
       </c>
-      <c r="P22">
+      <c r="R22">
         <f t="shared" si="1"/>
         <v>1.7</v>
       </c>
-      <c r="Q22">
+      <c r="S22">
         <f t="shared" si="2"/>
         <v>13.6</v>
       </c>
-      <c r="R22">
+      <c r="T22">
         <f t="shared" si="3"/>
         <v>720.8</v>
       </c>
-      <c r="S22">
+      <c r="U22">
         <f t="shared" si="4"/>
         <v>39.1</v>
       </c>
-      <c r="T22">
+      <c r="V22">
         <f t="shared" si="5"/>
         <v>901</v>
       </c>
-      <c r="U22">
+      <c r="W22">
         <f t="shared" si="6"/>
         <v>1127.0999999999999</v>
       </c>
-      <c r="V22">
+      <c r="X22">
         <f t="shared" si="7"/>
         <v>15.299999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>153</v>
       </c>
@@ -5813,44 +6020,52 @@
       <c r="L23">
         <v>27</v>
       </c>
-      <c r="M23">
-        <f t="shared" si="8"/>
+      <c r="O23">
+        <f t="shared" si="10"/>
         <v>1.5</v>
       </c>
-      <c r="O23">
+      <c r="Q23">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="P23">
+      <c r="R23">
         <f t="shared" si="1"/>
         <v>34.5</v>
       </c>
-      <c r="Q23">
+      <c r="S23">
         <f t="shared" si="2"/>
         <v>25.5</v>
       </c>
-      <c r="R23">
+      <c r="T23">
         <f t="shared" si="3"/>
         <v>883.5</v>
       </c>
-      <c r="S23">
+      <c r="U23">
         <f t="shared" si="4"/>
         <v>84</v>
       </c>
-      <c r="T23">
+      <c r="V23">
         <f t="shared" si="5"/>
         <v>1087.5</v>
       </c>
-      <c r="U23">
+      <c r="W23">
         <f t="shared" si="6"/>
         <v>1512</v>
       </c>
-      <c r="V23">
+      <c r="X23">
         <f t="shared" si="7"/>
         <v>40.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y23">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>154</v>
       </c>
@@ -5887,44 +6102,52 @@
       <c r="L24">
         <v>42</v>
       </c>
-      <c r="M24">
-        <f t="shared" si="8"/>
+      <c r="O24">
+        <f t="shared" si="10"/>
         <v>1.25</v>
       </c>
-      <c r="O24">
+      <c r="Q24">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="P24">
+      <c r="R24">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="Q24">
+      <c r="S24">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="R24">
+      <c r="T24">
         <f t="shared" si="3"/>
         <v>295</v>
       </c>
-      <c r="S24">
+      <c r="U24">
         <f t="shared" si="4"/>
         <v>36.25</v>
       </c>
-      <c r="T24">
+      <c r="V24">
         <f t="shared" si="5"/>
         <v>250</v>
       </c>
-      <c r="U24">
+      <c r="W24">
         <f t="shared" si="6"/>
         <v>333.75</v>
       </c>
-      <c r="V24">
+      <c r="X24">
         <f t="shared" si="7"/>
         <v>52.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>158</v>
       </c>
@@ -5961,44 +6184,52 @@
       <c r="L25">
         <v>74</v>
       </c>
-      <c r="M25">
-        <f t="shared" si="8"/>
+      <c r="O25">
+        <f t="shared" si="10"/>
         <v>1.25</v>
       </c>
-      <c r="O25">
+      <c r="Q25">
         <f t="shared" si="0"/>
         <v>82.5</v>
       </c>
-      <c r="P25">
+      <c r="R25">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="Q25">
+      <c r="S25">
         <f t="shared" si="2"/>
         <v>16.25</v>
       </c>
-      <c r="R25">
+      <c r="T25">
         <f t="shared" si="3"/>
         <v>232.5</v>
       </c>
-      <c r="S25">
+      <c r="U25">
         <f t="shared" si="4"/>
         <v>77.5</v>
       </c>
-      <c r="T25">
+      <c r="V25">
         <f t="shared" si="5"/>
         <v>388.75</v>
       </c>
-      <c r="U25">
+      <c r="W25">
         <f t="shared" si="6"/>
         <v>660</v>
       </c>
-      <c r="V25">
+      <c r="X25">
         <f t="shared" si="7"/>
         <v>92.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>279</v>
       </c>
@@ -6035,44 +6266,52 @@
       <c r="L26">
         <v>32</v>
       </c>
-      <c r="M26">
-        <f t="shared" si="8"/>
+      <c r="O26">
+        <f t="shared" si="10"/>
         <v>1.25</v>
       </c>
-      <c r="O26">
+      <c r="Q26">
         <f t="shared" si="0"/>
         <v>51.25</v>
       </c>
-      <c r="P26">
+      <c r="R26">
         <f t="shared" si="1"/>
         <v>23.75</v>
       </c>
-      <c r="Q26">
+      <c r="S26">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="R26">
+      <c r="T26">
         <f t="shared" si="3"/>
         <v>265</v>
       </c>
-      <c r="S26">
+      <c r="U26">
         <f t="shared" si="4"/>
         <v>36.25</v>
       </c>
-      <c r="T26">
+      <c r="V26">
         <f t="shared" si="5"/>
         <v>191.25</v>
       </c>
-      <c r="U26">
+      <c r="W26">
         <f t="shared" si="6"/>
         <v>357.5</v>
       </c>
-      <c r="V26">
+      <c r="X26">
         <f t="shared" si="7"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y26">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>155</v>
       </c>
@@ -6109,44 +6348,52 @@
       <c r="L27">
         <v>88</v>
       </c>
-      <c r="M27">
-        <f t="shared" si="8"/>
+      <c r="O27">
+        <f t="shared" si="10"/>
         <v>1.25</v>
       </c>
-      <c r="O27">
+      <c r="Q27">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="P27">
+      <c r="R27">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="Q27">
+      <c r="S27">
         <f t="shared" si="2"/>
         <v>56.25</v>
       </c>
-      <c r="R27">
+      <c r="T27">
         <f t="shared" si="3"/>
         <v>1008.75</v>
       </c>
-      <c r="S27">
+      <c r="U27">
         <f t="shared" si="4"/>
         <v>246.25</v>
       </c>
-      <c r="T27">
+      <c r="V27">
         <f t="shared" si="5"/>
         <v>1053.75</v>
       </c>
-      <c r="U27">
+      <c r="W27">
         <f t="shared" si="6"/>
         <v>1991.25</v>
       </c>
-      <c r="V27">
+      <c r="X27">
         <f t="shared" si="7"/>
         <v>110</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>156</v>
       </c>
@@ -6183,44 +6430,52 @@
       <c r="L28">
         <v>127</v>
       </c>
-      <c r="M28">
-        <f t="shared" si="8"/>
+      <c r="O28">
+        <f t="shared" si="10"/>
         <v>1.25</v>
       </c>
-      <c r="O28">
+      <c r="Q28">
         <f t="shared" si="0"/>
         <v>27.5</v>
       </c>
-      <c r="P28">
+      <c r="R28">
         <f t="shared" si="1"/>
         <v>42.5</v>
       </c>
-      <c r="Q28">
+      <c r="S28">
         <f t="shared" si="2"/>
         <v>46.25</v>
       </c>
-      <c r="R28">
+      <c r="T28">
         <f t="shared" si="3"/>
         <v>501.25</v>
       </c>
-      <c r="S28">
+      <c r="U28">
         <f t="shared" si="4"/>
         <v>135</v>
       </c>
-      <c r="T28">
+      <c r="V28">
         <f t="shared" si="5"/>
         <v>632.5</v>
       </c>
-      <c r="U28">
+      <c r="W28">
         <f t="shared" si="6"/>
         <v>1403.75</v>
       </c>
-      <c r="V28">
+      <c r="X28">
         <f t="shared" si="7"/>
         <v>158.75</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>157</v>
       </c>
@@ -6257,44 +6512,52 @@
       <c r="L29">
         <v>12</v>
       </c>
-      <c r="M29">
-        <f t="shared" si="8"/>
+      <c r="O29">
+        <f t="shared" si="10"/>
         <v>0.6</v>
       </c>
-      <c r="O29">
+      <c r="Q29">
         <f t="shared" si="0"/>
         <v>19.8</v>
       </c>
-      <c r="P29">
+      <c r="R29">
         <f t="shared" si="1"/>
         <v>7.8</v>
       </c>
-      <c r="Q29">
+      <c r="S29">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="R29">
+      <c r="T29">
         <f t="shared" si="3"/>
         <v>124.8</v>
       </c>
-      <c r="S29">
+      <c r="U29">
         <f t="shared" si="4"/>
         <v>18.599999999999998</v>
       </c>
-      <c r="T29">
+      <c r="V29">
         <f t="shared" si="5"/>
         <v>348</v>
       </c>
-      <c r="U29">
+      <c r="W29">
         <f t="shared" si="6"/>
         <v>448.2</v>
       </c>
-      <c r="V29">
+      <c r="X29">
         <f t="shared" si="7"/>
         <v>7.1999999999999993</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>159</v>
       </c>
@@ -6331,44 +6594,52 @@
       <c r="L30">
         <v>102</v>
       </c>
-      <c r="M30">
-        <f t="shared" si="8"/>
+      <c r="O30">
+        <f t="shared" si="10"/>
         <v>1.25</v>
       </c>
-      <c r="O30">
+      <c r="Q30">
         <f t="shared" si="0"/>
         <v>31.25</v>
       </c>
-      <c r="P30">
+      <c r="R30">
         <f t="shared" si="1"/>
         <v>27.5</v>
       </c>
-      <c r="Q30">
+      <c r="S30">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="R30">
+      <c r="T30">
         <f t="shared" si="3"/>
         <v>227.5</v>
       </c>
-      <c r="S30">
+      <c r="U30">
         <f t="shared" si="4"/>
         <v>62.5</v>
       </c>
-      <c r="T30">
+      <c r="V30">
         <f t="shared" si="5"/>
         <v>720</v>
       </c>
-      <c r="U30">
+      <c r="W30">
         <f t="shared" si="6"/>
         <v>1220</v>
       </c>
-      <c r="V30">
+      <c r="X30">
         <f t="shared" si="7"/>
         <v>127.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>160</v>
       </c>
@@ -6405,44 +6676,52 @@
       <c r="L31">
         <v>45</v>
       </c>
-      <c r="M31">
-        <f t="shared" si="8"/>
+      <c r="O31">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="O31">
+      <c r="Q31">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="P31">
+      <c r="R31">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="Q31">
+      <c r="S31">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
-      <c r="R31">
+      <c r="T31">
         <f t="shared" si="3"/>
         <v>911</v>
       </c>
-      <c r="S31">
+      <c r="U31">
         <f t="shared" si="4"/>
         <v>156</v>
       </c>
-      <c r="T31">
+      <c r="V31">
         <f t="shared" si="5"/>
         <v>2088</v>
       </c>
-      <c r="U31">
+      <c r="W31">
         <f t="shared" si="6"/>
         <v>3621</v>
       </c>
-      <c r="V31">
+      <c r="X31">
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>161</v>
       </c>
@@ -6479,44 +6758,52 @@
       <c r="L32">
         <v>131</v>
       </c>
-      <c r="M32">
-        <f t="shared" si="8"/>
+      <c r="O32">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="O32">
+      <c r="Q32">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="P32">
+      <c r="R32">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="Q32">
+      <c r="S32">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="R32">
+      <c r="T32">
         <f t="shared" si="3"/>
         <v>883</v>
       </c>
-      <c r="S32">
+      <c r="U32">
         <f t="shared" si="4"/>
         <v>230</v>
       </c>
-      <c r="T32">
+      <c r="V32">
         <f t="shared" si="5"/>
         <v>240</v>
       </c>
-      <c r="U32">
+      <c r="W32">
         <f t="shared" si="6"/>
         <v>1140</v>
       </c>
-      <c r="V32">
+      <c r="X32">
         <f t="shared" si="7"/>
         <v>131</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>162</v>
       </c>
@@ -6553,44 +6840,52 @@
       <c r="L33">
         <v>34</v>
       </c>
-      <c r="M33">
-        <f t="shared" si="8"/>
+      <c r="O33">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="O33">
+      <c r="Q33">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="P33">
+      <c r="R33">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="Q33">
+      <c r="S33">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
-      <c r="R33">
+      <c r="T33">
         <f t="shared" si="3"/>
         <v>1162</v>
       </c>
-      <c r="S33">
+      <c r="U33">
         <f t="shared" si="4"/>
         <v>272</v>
       </c>
-      <c r="T33">
+      <c r="V33">
         <f t="shared" si="5"/>
         <v>553</v>
       </c>
-      <c r="U33">
+      <c r="W33">
         <f t="shared" si="6"/>
         <v>1536</v>
       </c>
-      <c r="V33">
+      <c r="X33">
         <f t="shared" si="7"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>163</v>
       </c>
@@ -6627,44 +6922,52 @@
       <c r="L34">
         <v>134</v>
       </c>
-      <c r="M34">
-        <f t="shared" si="8"/>
+      <c r="O34">
+        <f t="shared" si="10"/>
         <v>1.5</v>
       </c>
-      <c r="O34">
+      <c r="Q34">
         <f t="shared" si="0"/>
         <v>28.5</v>
       </c>
-      <c r="P34">
+      <c r="R34">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="Q34">
+      <c r="S34">
         <f t="shared" si="2"/>
         <v>61.5</v>
       </c>
-      <c r="R34">
+      <c r="T34">
         <f t="shared" si="3"/>
         <v>553.5</v>
       </c>
-      <c r="S34">
+      <c r="U34">
         <f t="shared" si="4"/>
         <v>225</v>
       </c>
-      <c r="T34">
+      <c r="V34">
         <f t="shared" si="5"/>
         <v>930</v>
       </c>
-      <c r="U34">
+      <c r="W34">
         <f t="shared" si="6"/>
         <v>1954.5</v>
       </c>
-      <c r="V34">
+      <c r="X34">
         <f t="shared" si="7"/>
         <v>201</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y34">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>164</v>
       </c>
@@ -6701,44 +7004,52 @@
       <c r="L35">
         <v>175</v>
       </c>
-      <c r="M35">
-        <f t="shared" si="8"/>
+      <c r="O35">
+        <f t="shared" si="10"/>
         <v>1.5</v>
       </c>
-      <c r="O35">
+      <c r="Q35">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="P35">
+      <c r="R35">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="Q35">
+      <c r="S35">
         <f t="shared" si="2"/>
         <v>82.5</v>
       </c>
-      <c r="R35">
+      <c r="T35">
         <f t="shared" si="3"/>
         <v>750</v>
       </c>
-      <c r="S35">
+      <c r="U35">
         <f t="shared" si="4"/>
         <v>304.5</v>
       </c>
-      <c r="T35">
+      <c r="V35">
         <f t="shared" si="5"/>
         <v>919.5</v>
       </c>
-      <c r="U35">
+      <c r="W35">
         <f t="shared" si="6"/>
         <v>2295</v>
       </c>
-      <c r="V35">
+      <c r="X35">
         <f t="shared" si="7"/>
         <v>262.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>165</v>
       </c>
@@ -6775,44 +7086,52 @@
       <c r="L36">
         <v>16</v>
       </c>
-      <c r="M36">
-        <f t="shared" si="8"/>
+      <c r="O36">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="O36">
+      <c r="Q36">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="P36">
+      <c r="R36">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="Q36">
+      <c r="S36">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="R36">
+      <c r="T36">
         <f t="shared" si="3"/>
         <v>352</v>
       </c>
-      <c r="S36">
+      <c r="U36">
         <f t="shared" si="4"/>
         <v>59</v>
       </c>
-      <c r="T36">
+      <c r="V36">
         <f t="shared" si="5"/>
         <v>720</v>
       </c>
-      <c r="U36">
+      <c r="W36">
         <f t="shared" si="6"/>
         <v>970</v>
       </c>
-      <c r="V36">
+      <c r="X36">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y36">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>166</v>
       </c>
@@ -6849,44 +7168,52 @@
       <c r="L37">
         <v>6</v>
       </c>
-      <c r="M37">
-        <f t="shared" si="8"/>
+      <c r="O37">
+        <f t="shared" si="10"/>
         <v>0.05</v>
       </c>
-      <c r="O37">
+      <c r="Q37">
         <f t="shared" si="0"/>
         <v>7.1000000000000005</v>
       </c>
-      <c r="P37">
+      <c r="R37">
         <f t="shared" si="1"/>
         <v>4.3500000000000005</v>
       </c>
-      <c r="Q37">
+      <c r="S37">
         <f t="shared" si="2"/>
         <v>5.2</v>
       </c>
-      <c r="R37">
+      <c r="T37">
         <f t="shared" si="3"/>
         <v>54.45</v>
       </c>
-      <c r="S37">
+      <c r="U37">
         <f t="shared" si="4"/>
         <v>13.450000000000001</v>
       </c>
-      <c r="T37">
+      <c r="V37">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="U37">
+      <c r="W37">
         <f t="shared" si="6"/>
         <v>116.65</v>
       </c>
-      <c r="V37">
+      <c r="X37">
         <f t="shared" si="7"/>
         <v>0.30000000000000004</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>167</v>
       </c>
@@ -6923,44 +7250,52 @@
       <c r="L38">
         <v>81</v>
       </c>
-      <c r="M38">
-        <f t="shared" si="8"/>
+      <c r="O38">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="O38">
+      <c r="Q38">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="P38">
+      <c r="R38">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="Q38">
+      <c r="S38">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="R38">
+      <c r="T38">
         <f t="shared" si="3"/>
         <v>683</v>
       </c>
-      <c r="S38">
+      <c r="U38">
         <f t="shared" si="4"/>
         <v>265</v>
       </c>
-      <c r="T38">
+      <c r="V38">
         <f t="shared" si="5"/>
         <v>4603</v>
       </c>
-      <c r="U38">
+      <c r="W38">
         <f t="shared" si="6"/>
         <v>5220</v>
       </c>
-      <c r="V38">
+      <c r="X38">
         <f t="shared" si="7"/>
         <v>81</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y38">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>168</v>
       </c>
@@ -6997,44 +7332,52 @@
       <c r="L39">
         <v>335</v>
       </c>
-      <c r="M39">
-        <f t="shared" si="8"/>
+      <c r="O39">
+        <f t="shared" si="10"/>
         <v>0.25</v>
       </c>
-      <c r="O39">
+      <c r="Q39">
         <f t="shared" si="0"/>
         <v>80.5</v>
       </c>
-      <c r="P39">
+      <c r="R39">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="Q39">
+      <c r="S39">
         <f t="shared" si="2"/>
         <v>82.5</v>
       </c>
-      <c r="R39">
+      <c r="T39">
         <f t="shared" si="3"/>
         <v>1312.5</v>
       </c>
-      <c r="S39">
+      <c r="U39">
         <f t="shared" si="4"/>
         <v>540</v>
       </c>
-      <c r="T39">
+      <c r="V39">
         <f t="shared" si="5"/>
         <v>1130</v>
       </c>
-      <c r="U39">
+      <c r="W39">
         <f t="shared" si="6"/>
         <v>2505</v>
       </c>
-      <c r="V39">
+      <c r="X39">
         <f t="shared" si="7"/>
         <v>83.75</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>169</v>
       </c>
@@ -7071,44 +7414,52 @@
       <c r="L40">
         <v>155</v>
       </c>
-      <c r="M40">
-        <f t="shared" si="8"/>
+      <c r="O40">
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="O40">
+      <c r="Q40">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="P40">
+      <c r="R40">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
-      <c r="Q40">
+      <c r="S40">
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
-      <c r="R40">
+      <c r="T40">
         <f t="shared" si="3"/>
         <v>717</v>
       </c>
-      <c r="S40">
+      <c r="U40">
         <f t="shared" si="4"/>
         <v>209.5</v>
       </c>
-      <c r="T40">
+      <c r="V40">
         <f t="shared" si="5"/>
         <v>33</v>
       </c>
-      <c r="U40">
+      <c r="W40">
         <f t="shared" si="6"/>
         <v>1549.5</v>
       </c>
-      <c r="V40">
+      <c r="X40">
         <f t="shared" si="7"/>
         <v>77.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>170</v>
       </c>
@@ -7145,44 +7496,52 @@
       <c r="L41">
         <v>207</v>
       </c>
-      <c r="M41">
-        <f t="shared" si="8"/>
+      <c r="O41">
+        <f t="shared" si="10"/>
         <v>1.25</v>
       </c>
-      <c r="O41">
+      <c r="Q41">
         <f t="shared" si="0"/>
         <v>221.25</v>
       </c>
-      <c r="P41">
+      <c r="R41">
         <f t="shared" si="1"/>
         <v>426.25</v>
       </c>
-      <c r="Q41">
+      <c r="S41">
         <f t="shared" si="2"/>
         <v>398.75</v>
       </c>
-      <c r="R41">
+      <c r="T41">
         <f t="shared" si="3"/>
         <v>5250</v>
       </c>
-      <c r="S41">
+      <c r="U41">
         <f t="shared" si="4"/>
         <v>1991.25</v>
       </c>
-      <c r="T41">
+      <c r="V41">
         <f t="shared" si="5"/>
         <v>9021.25</v>
       </c>
-      <c r="U41">
+      <c r="W41">
         <f t="shared" si="6"/>
         <v>15667.5</v>
       </c>
-      <c r="V41">
+      <c r="X41">
         <f t="shared" si="7"/>
         <v>258.75</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>171</v>
       </c>
@@ -7219,44 +7578,52 @@
       <c r="L42">
         <v>132</v>
       </c>
-      <c r="M42">
-        <f t="shared" si="8"/>
+      <c r="O42">
+        <f t="shared" si="10"/>
         <v>1.25</v>
       </c>
-      <c r="O42">
+      <c r="Q42">
         <f t="shared" si="0"/>
         <v>241.25</v>
       </c>
-      <c r="P42">
+      <c r="R42">
         <f t="shared" si="1"/>
         <v>385</v>
       </c>
-      <c r="Q42">
+      <c r="S42">
         <f t="shared" si="2"/>
         <v>371.25</v>
       </c>
-      <c r="R42">
+      <c r="T42">
         <f t="shared" si="3"/>
         <v>5431.25</v>
       </c>
-      <c r="S42">
+      <c r="U42">
         <f t="shared" si="4"/>
         <v>2015</v>
       </c>
-      <c r="T42">
+      <c r="V42">
         <f t="shared" si="5"/>
         <v>5457.5</v>
       </c>
-      <c r="U42">
+      <c r="W42">
         <f t="shared" si="6"/>
         <v>11645</v>
       </c>
-      <c r="V42">
+      <c r="X42">
         <f t="shared" si="7"/>
         <v>165</v>
       </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>172</v>
       </c>
@@ -7293,44 +7660,52 @@
       <c r="L43">
         <v>353</v>
       </c>
-      <c r="M43">
-        <f t="shared" si="8"/>
+      <c r="O43">
+        <f t="shared" si="10"/>
         <v>1.35</v>
       </c>
-      <c r="O43">
+      <c r="Q43">
         <f t="shared" si="0"/>
         <v>367.20000000000005</v>
       </c>
-      <c r="P43">
+      <c r="R43">
         <f t="shared" si="1"/>
         <v>369.90000000000003</v>
       </c>
-      <c r="Q43">
+      <c r="S43">
         <f t="shared" si="2"/>
         <v>369.90000000000003</v>
       </c>
-      <c r="R43">
+      <c r="T43">
         <f t="shared" si="3"/>
         <v>4801.9500000000007</v>
       </c>
-      <c r="S43">
+      <c r="U43">
         <f t="shared" si="4"/>
         <v>1753.65</v>
       </c>
-      <c r="T43">
+      <c r="V43">
         <f t="shared" si="5"/>
         <v>4342.9500000000007</v>
       </c>
-      <c r="U43">
+      <c r="W43">
         <f t="shared" si="6"/>
         <v>10508.400000000001</v>
       </c>
-      <c r="V43">
+      <c r="X43">
         <f t="shared" si="7"/>
         <v>476.55</v>
       </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y43">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>173</v>
       </c>
@@ -7367,44 +7742,52 @@
       <c r="L44">
         <v>71</v>
       </c>
-      <c r="M44">
-        <f t="shared" si="8"/>
+      <c r="O44">
+        <f t="shared" si="10"/>
         <v>2.25</v>
       </c>
-      <c r="O44">
+      <c r="Q44">
         <f t="shared" si="0"/>
         <v>312.75</v>
       </c>
-      <c r="P44">
+      <c r="R44">
         <f t="shared" si="1"/>
         <v>535.5</v>
       </c>
-      <c r="Q44">
+      <c r="S44">
         <f t="shared" si="2"/>
         <v>461.25</v>
       </c>
-      <c r="R44">
+      <c r="T44">
         <f t="shared" si="3"/>
         <v>7008.75</v>
       </c>
-      <c r="S44">
+      <c r="U44">
         <f t="shared" si="4"/>
         <v>2022.75</v>
       </c>
-      <c r="T44">
+      <c r="V44">
         <f t="shared" si="5"/>
         <v>1260</v>
       </c>
-      <c r="U44">
+      <c r="W44">
         <f t="shared" si="6"/>
         <v>8948.25</v>
       </c>
-      <c r="V44">
+      <c r="X44">
         <f t="shared" si="7"/>
         <v>159.75</v>
       </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>174</v>
       </c>
@@ -7441,44 +7824,52 @@
       <c r="L45">
         <v>228</v>
       </c>
-      <c r="M45">
-        <f t="shared" si="8"/>
+      <c r="O45">
+        <f t="shared" si="10"/>
         <v>1.75</v>
       </c>
-      <c r="O45">
+      <c r="Q45">
         <f t="shared" si="0"/>
         <v>458.5</v>
       </c>
-      <c r="P45">
+      <c r="R45">
         <f t="shared" si="1"/>
         <v>542.5</v>
       </c>
-      <c r="Q45">
+      <c r="S45">
         <f t="shared" si="2"/>
         <v>542.5</v>
       </c>
-      <c r="R45">
+      <c r="T45">
         <f t="shared" si="3"/>
         <v>7439.25</v>
       </c>
-      <c r="S45">
+      <c r="U45">
         <f t="shared" si="4"/>
         <v>2220.75</v>
       </c>
-      <c r="T45">
+      <c r="V45">
         <f t="shared" si="5"/>
         <v>12106.5</v>
       </c>
-      <c r="U45">
+      <c r="W45">
         <f t="shared" si="6"/>
         <v>21148.75</v>
       </c>
-      <c r="V45">
+      <c r="X45">
         <f t="shared" si="7"/>
         <v>399</v>
       </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>175</v>
       </c>
@@ -7515,44 +7906,52 @@
       <c r="L46">
         <v>440</v>
       </c>
-      <c r="M46">
-        <f t="shared" si="8"/>
+      <c r="O46">
+        <f t="shared" si="10"/>
         <v>1.25</v>
       </c>
-      <c r="O46">
+      <c r="Q46">
         <f t="shared" si="0"/>
         <v>361.25</v>
       </c>
-      <c r="P46">
+      <c r="R46">
         <f t="shared" si="1"/>
         <v>193.75</v>
       </c>
-      <c r="Q46">
+      <c r="S46">
         <f t="shared" si="2"/>
         <v>192.5</v>
       </c>
-      <c r="R46">
+      <c r="T46">
         <f t="shared" si="3"/>
         <v>2486.25</v>
       </c>
-      <c r="S46">
+      <c r="U46">
         <f t="shared" si="4"/>
         <v>890</v>
       </c>
-      <c r="T46">
+      <c r="V46">
         <f t="shared" si="5"/>
         <v>2047.5</v>
       </c>
-      <c r="U46">
+      <c r="W46">
         <f t="shared" si="6"/>
         <v>5256.25</v>
       </c>
-      <c r="V46">
+      <c r="X46">
         <f t="shared" si="7"/>
         <v>550</v>
       </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>176</v>
       </c>
@@ -7589,44 +7988,52 @@
       <c r="L47">
         <v>99</v>
       </c>
-      <c r="M47">
-        <f t="shared" si="8"/>
+      <c r="O47">
+        <f t="shared" si="10"/>
         <v>0.75</v>
       </c>
-      <c r="O47">
+      <c r="Q47">
         <f t="shared" si="0"/>
         <v>114</v>
       </c>
-      <c r="P47">
+      <c r="R47">
         <f t="shared" si="1"/>
         <v>194.25</v>
       </c>
-      <c r="Q47">
+      <c r="S47">
         <f t="shared" si="2"/>
         <v>177.75</v>
       </c>
-      <c r="R47">
+      <c r="T47">
         <f t="shared" si="3"/>
         <v>2589.75</v>
       </c>
-      <c r="S47">
+      <c r="U47">
         <f t="shared" si="4"/>
         <v>840.75</v>
       </c>
-      <c r="T47">
+      <c r="V47">
         <f t="shared" si="5"/>
         <v>2320.5</v>
       </c>
-      <c r="U47">
+      <c r="W47">
         <f t="shared" si="6"/>
         <v>5283</v>
       </c>
-      <c r="V47">
+      <c r="X47">
         <f t="shared" si="7"/>
         <v>74.25</v>
       </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>177</v>
       </c>
@@ -7663,44 +8070,52 @@
       <c r="L48">
         <v>326</v>
       </c>
-      <c r="M48">
-        <f t="shared" si="8"/>
+      <c r="O48">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="O48">
+      <c r="Q48">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="P48">
+      <c r="R48">
         <f t="shared" si="1"/>
         <v>264</v>
       </c>
-      <c r="Q48">
+      <c r="S48">
         <f t="shared" si="2"/>
         <v>293</v>
       </c>
-      <c r="R48">
+      <c r="T48">
         <f t="shared" si="3"/>
         <v>2816</v>
       </c>
-      <c r="S48">
+      <c r="U48">
         <f t="shared" si="4"/>
         <v>1409</v>
       </c>
-      <c r="T48">
+      <c r="V48">
         <f t="shared" si="5"/>
         <v>14786</v>
       </c>
-      <c r="U48">
+      <c r="W48">
         <f t="shared" si="6"/>
         <v>19669</v>
       </c>
-      <c r="V48">
+      <c r="X48">
         <f t="shared" si="7"/>
         <v>326</v>
       </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y48">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>178</v>
       </c>
@@ -7737,44 +8152,52 @@
       <c r="L49">
         <v>171</v>
       </c>
-      <c r="M49">
-        <f t="shared" si="8"/>
+      <c r="O49">
+        <f t="shared" si="10"/>
         <v>1.35</v>
       </c>
-      <c r="O49">
+      <c r="Q49">
         <f t="shared" si="0"/>
         <v>153.9</v>
       </c>
-      <c r="P49">
+      <c r="R49">
         <f t="shared" si="1"/>
         <v>372.6</v>
       </c>
-      <c r="Q49">
+      <c r="S49">
         <f t="shared" si="2"/>
         <v>481.95000000000005</v>
       </c>
-      <c r="R49">
+      <c r="T49">
         <f t="shared" si="3"/>
         <v>4861.3500000000004</v>
       </c>
-      <c r="S49">
+      <c r="U49">
         <f t="shared" si="4"/>
         <v>1614.6000000000001</v>
       </c>
-      <c r="T49">
+      <c r="V49">
         <f t="shared" si="5"/>
         <v>15777.45</v>
       </c>
-      <c r="U49">
+      <c r="W49">
         <f t="shared" si="6"/>
         <v>23809.95</v>
       </c>
-      <c r="V49">
+      <c r="X49">
         <f t="shared" si="7"/>
         <v>230.85000000000002</v>
       </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y49">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>179</v>
       </c>
@@ -7811,44 +8234,52 @@
       <c r="L50">
         <v>893</v>
       </c>
-      <c r="M50">
-        <f t="shared" si="8"/>
+      <c r="O50">
+        <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
-      <c r="O50">
+      <c r="Q50">
         <f t="shared" si="0"/>
         <v>302.5</v>
       </c>
-      <c r="P50">
+      <c r="R50">
         <f t="shared" si="1"/>
         <v>432.5</v>
       </c>
-      <c r="Q50">
+      <c r="S50">
         <f t="shared" si="2"/>
         <v>610</v>
       </c>
-      <c r="R50">
+      <c r="T50">
         <f t="shared" si="3"/>
         <v>8472.5</v>
       </c>
-      <c r="S50">
+      <c r="U50">
         <f t="shared" si="4"/>
         <v>3737.5</v>
       </c>
-      <c r="T50">
+      <c r="V50">
         <f t="shared" si="5"/>
         <v>9347.5</v>
       </c>
-      <c r="U50">
+      <c r="W50">
         <f t="shared" si="6"/>
         <v>19515</v>
       </c>
-      <c r="V50">
+      <c r="X50">
         <f t="shared" si="7"/>
         <v>2232.5</v>
       </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>180</v>
       </c>
@@ -7885,44 +8316,52 @@
       <c r="L51">
         <v>593</v>
       </c>
-      <c r="M51">
-        <f t="shared" si="8"/>
+      <c r="O51">
+        <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
-      <c r="O51">
+      <c r="Q51">
         <f t="shared" si="0"/>
         <v>252.5</v>
       </c>
-      <c r="P51">
+      <c r="R51">
         <f t="shared" si="1"/>
         <v>537.5</v>
       </c>
-      <c r="Q51">
+      <c r="S51">
         <f t="shared" si="2"/>
         <v>537.5</v>
       </c>
-      <c r="R51">
+      <c r="T51">
         <f t="shared" si="3"/>
         <v>7647.5</v>
       </c>
-      <c r="S51">
+      <c r="U51">
         <f t="shared" si="4"/>
         <v>2312.5</v>
       </c>
-      <c r="T51">
+      <c r="V51">
         <f t="shared" si="5"/>
         <v>4002.5</v>
       </c>
-      <c r="U51">
+      <c r="W51">
         <f t="shared" si="6"/>
         <v>12960</v>
       </c>
-      <c r="V51">
+      <c r="X51">
         <f t="shared" si="7"/>
         <v>1482.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y51">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>181</v>
       </c>
@@ -7959,44 +8398,52 @@
       <c r="L52">
         <v>349</v>
       </c>
-      <c r="M52">
-        <f t="shared" si="8"/>
+      <c r="O52">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="O52">
+      <c r="Q52">
         <f t="shared" si="0"/>
         <v>144</v>
       </c>
-      <c r="P52">
+      <c r="R52">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="Q52">
+      <c r="S52">
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
-      <c r="R52">
+      <c r="T52">
         <f t="shared" si="3"/>
         <v>2331</v>
       </c>
-      <c r="S52">
+      <c r="U52">
         <f t="shared" si="4"/>
         <v>515</v>
       </c>
-      <c r="T52">
+      <c r="V52">
         <f t="shared" si="5"/>
         <v>1500</v>
       </c>
-      <c r="U52">
+      <c r="W52">
         <f t="shared" si="6"/>
         <v>3950</v>
       </c>
-      <c r="V52">
+      <c r="X52">
         <f t="shared" si="7"/>
         <v>349</v>
       </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y52">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>182</v>
       </c>
@@ -8033,44 +8480,52 @@
       <c r="L53">
         <v>528</v>
       </c>
-      <c r="M53">
-        <f t="shared" si="8"/>
+      <c r="O53">
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="O53">
+      <c r="Q53">
         <f t="shared" si="0"/>
         <v>288</v>
       </c>
-      <c r="P53">
+      <c r="R53">
         <f t="shared" si="1"/>
         <v>218.5</v>
       </c>
-      <c r="Q53">
+      <c r="S53">
         <f t="shared" si="2"/>
         <v>163</v>
       </c>
-      <c r="R53">
+      <c r="T53">
         <f t="shared" si="3"/>
         <v>2863.5</v>
       </c>
-      <c r="S53">
+      <c r="U53">
         <f t="shared" si="4"/>
         <v>834</v>
       </c>
-      <c r="T53">
+      <c r="V53">
         <f t="shared" si="5"/>
         <v>7700</v>
       </c>
-      <c r="U53">
+      <c r="W53">
         <f t="shared" si="6"/>
         <v>10416.5</v>
       </c>
-      <c r="V53">
+      <c r="X53">
         <f t="shared" si="7"/>
         <v>264</v>
       </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>183</v>
       </c>
@@ -8107,44 +8562,52 @@
       <c r="L54">
         <v>0</v>
       </c>
-      <c r="M54">
-        <f t="shared" si="8"/>
+      <c r="O54">
+        <f t="shared" si="10"/>
         <v>0.45</v>
       </c>
-      <c r="O54">
+      <c r="Q54">
         <f t="shared" si="0"/>
         <v>241.20000000000002</v>
       </c>
-      <c r="P54">
+      <c r="R54">
         <f t="shared" si="1"/>
         <v>94.05</v>
       </c>
-      <c r="Q54">
+      <c r="S54">
         <f t="shared" si="2"/>
         <v>70.650000000000006</v>
       </c>
-      <c r="R54">
+      <c r="T54">
         <f t="shared" si="3"/>
         <v>772.65</v>
       </c>
-      <c r="S54">
+      <c r="U54">
         <f t="shared" si="4"/>
         <v>194.85</v>
       </c>
-      <c r="T54">
+      <c r="V54">
         <f t="shared" si="5"/>
         <v>207</v>
       </c>
-      <c r="U54">
+      <c r="W54">
         <f t="shared" si="6"/>
         <v>1384.65</v>
       </c>
-      <c r="V54">
+      <c r="X54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y54">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>184</v>
       </c>
@@ -8181,44 +8644,52 @@
       <c r="L55">
         <v>270</v>
       </c>
-      <c r="M55">
-        <f t="shared" si="8"/>
+      <c r="O55">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="O55">
+      <c r="Q55">
         <f t="shared" si="0"/>
         <v>230</v>
       </c>
-      <c r="P55">
+      <c r="R55">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="Q55">
+      <c r="S55">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="R55">
+      <c r="T55">
         <f t="shared" si="3"/>
         <v>747</v>
       </c>
-      <c r="S55">
+      <c r="U55">
         <f t="shared" si="4"/>
         <v>110</v>
       </c>
-      <c r="T55">
+      <c r="V55">
         <f t="shared" si="5"/>
         <v>241</v>
       </c>
-      <c r="U55">
+      <c r="W55">
         <f t="shared" si="6"/>
         <v>774</v>
       </c>
-      <c r="V55">
+      <c r="X55">
         <f t="shared" si="7"/>
         <v>270</v>
       </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y55">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>185</v>
       </c>
@@ -8255,44 +8726,52 @@
       <c r="L56">
         <v>65</v>
       </c>
-      <c r="M56">
-        <f t="shared" si="8"/>
+      <c r="O56">
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="O56">
+      <c r="Q56">
         <f t="shared" si="0"/>
         <v>103</v>
       </c>
-      <c r="P56">
+      <c r="R56">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="Q56">
+      <c r="S56">
         <f t="shared" si="2"/>
         <v>24.5</v>
       </c>
-      <c r="R56">
+      <c r="T56">
         <f t="shared" si="3"/>
         <v>401.5</v>
       </c>
-      <c r="S56">
+      <c r="U56">
         <f t="shared" si="4"/>
         <v>40.5</v>
       </c>
-      <c r="T56">
+      <c r="V56">
         <f t="shared" si="5"/>
         <v>49</v>
       </c>
-      <c r="U56">
+      <c r="W56">
         <f t="shared" si="6"/>
         <v>457.5</v>
       </c>
-      <c r="V56">
+      <c r="X56">
         <f t="shared" si="7"/>
         <v>32.5</v>
       </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y56">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>186</v>
       </c>
@@ -8329,44 +8808,52 @@
       <c r="L57">
         <v>4</v>
       </c>
-      <c r="M57">
-        <f t="shared" si="8"/>
+      <c r="O57">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="O57">
+      <c r="Q57">
         <f t="shared" si="0"/>
         <v>391</v>
       </c>
-      <c r="P57">
+      <c r="R57">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="Q57">
+      <c r="S57">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="R57">
+      <c r="T57">
         <f t="shared" si="3"/>
         <v>99</v>
       </c>
-      <c r="S57">
+      <c r="U57">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="T57">
+      <c r="V57">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U57">
+      <c r="W57">
         <f t="shared" si="6"/>
         <v>117</v>
       </c>
-      <c r="V57">
+      <c r="X57">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y57">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>187</v>
       </c>
@@ -8403,44 +8890,52 @@
       <c r="L58">
         <v>0</v>
       </c>
-      <c r="M58">
-        <f t="shared" si="8"/>
+      <c r="O58">
+        <f t="shared" si="10"/>
         <v>0.25</v>
       </c>
-      <c r="O58">
+      <c r="Q58">
         <f t="shared" si="0"/>
         <v>76.5</v>
       </c>
-      <c r="P58">
+      <c r="R58">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="Q58">
+      <c r="S58">
         <f t="shared" si="2"/>
         <v>1.25</v>
       </c>
-      <c r="R58">
+      <c r="T58">
         <f t="shared" si="3"/>
         <v>18.75</v>
       </c>
-      <c r="S58">
+      <c r="U58">
         <f t="shared" si="4"/>
         <v>4.25</v>
       </c>
-      <c r="T58">
+      <c r="V58">
         <f t="shared" si="5"/>
         <v>32.5</v>
       </c>
-      <c r="U58">
+      <c r="W58">
         <f t="shared" si="6"/>
         <v>53.25</v>
       </c>
-      <c r="V58">
+      <c r="X58">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>188</v>
       </c>
@@ -8477,44 +8972,52 @@
       <c r="L59">
         <v>154</v>
       </c>
-      <c r="M59">
-        <f t="shared" si="8"/>
+      <c r="O59">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="O59">
+      <c r="Q59">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="P59">
+      <c r="R59">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="Q59">
+      <c r="S59">
         <f t="shared" si="2"/>
         <v>73</v>
       </c>
-      <c r="R59">
+      <c r="T59">
         <f t="shared" si="3"/>
         <v>1700</v>
       </c>
-      <c r="S59">
+      <c r="U59">
         <f t="shared" si="4"/>
         <v>226</v>
       </c>
-      <c r="T59">
+      <c r="V59">
         <f t="shared" si="5"/>
         <v>330</v>
       </c>
-      <c r="U59">
+      <c r="W59">
         <f t="shared" si="6"/>
         <v>1547</v>
       </c>
-      <c r="V59">
+      <c r="X59">
         <f t="shared" si="7"/>
         <v>154</v>
       </c>
-    </row>
-    <row r="60" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y59">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>200</v>
       </c>
@@ -8551,44 +9054,52 @@
       <c r="L60">
         <v>53</v>
       </c>
-      <c r="M60">
-        <f t="shared" si="8"/>
+      <c r="O60">
+        <f t="shared" si="10"/>
         <v>0.38</v>
       </c>
-      <c r="O60">
+      <c r="Q60">
         <f t="shared" si="0"/>
         <v>91.960000000000008</v>
       </c>
-      <c r="P60">
+      <c r="R60">
         <f t="shared" si="1"/>
         <v>64.22</v>
       </c>
-      <c r="Q60">
+      <c r="S60">
         <f t="shared" si="2"/>
         <v>28.5</v>
       </c>
-      <c r="R60">
+      <c r="T60">
         <f t="shared" si="3"/>
         <v>1122.9000000000001</v>
       </c>
-      <c r="S60">
+      <c r="U60">
         <f t="shared" si="4"/>
         <v>103.36</v>
       </c>
-      <c r="T60">
+      <c r="V60">
         <f t="shared" si="5"/>
         <v>323</v>
       </c>
-      <c r="U60">
+      <c r="W60">
         <f t="shared" si="6"/>
         <v>798</v>
       </c>
-      <c r="V60">
+      <c r="X60">
         <f t="shared" si="7"/>
         <v>20.14</v>
       </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y60">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>199</v>
       </c>
@@ -8625,44 +9136,52 @@
       <c r="L61">
         <v>74</v>
       </c>
-      <c r="M61">
-        <f t="shared" si="8"/>
+      <c r="O61">
+        <f t="shared" si="10"/>
         <v>0.38</v>
       </c>
-      <c r="O61">
+      <c r="Q61">
         <f t="shared" si="0"/>
         <v>75.239999999999995</v>
       </c>
-      <c r="P61">
+      <c r="R61">
         <f t="shared" si="1"/>
         <v>49.4</v>
       </c>
-      <c r="Q61">
+      <c r="S61">
         <f t="shared" si="2"/>
         <v>21.28</v>
       </c>
-      <c r="R61">
+      <c r="T61">
         <f t="shared" si="3"/>
         <v>741.76</v>
       </c>
-      <c r="S61">
+      <c r="U61">
         <f t="shared" si="4"/>
         <v>123.5</v>
       </c>
-      <c r="T61">
+      <c r="V61">
         <f t="shared" si="5"/>
         <v>212.8</v>
       </c>
-      <c r="U61">
+      <c r="W61">
         <f t="shared" si="6"/>
         <v>567.34</v>
       </c>
-      <c r="V61">
+      <c r="X61">
         <f t="shared" si="7"/>
         <v>28.12</v>
       </c>
-    </row>
-    <row r="62" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y61">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>198</v>
       </c>
@@ -8699,44 +9218,52 @@
       <c r="L62">
         <v>14</v>
       </c>
-      <c r="M62">
-        <f t="shared" si="8"/>
+      <c r="O62">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="O62">
+      <c r="Q62">
         <f t="shared" si="0"/>
         <v>139</v>
       </c>
-      <c r="P62">
+      <c r="R62">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="Q62">
+      <c r="S62">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="R62">
+      <c r="T62">
         <f t="shared" si="3"/>
         <v>1717</v>
       </c>
-      <c r="S62">
+      <c r="U62">
         <f t="shared" si="4"/>
         <v>186</v>
       </c>
-      <c r="T62">
+      <c r="V62">
         <f t="shared" si="5"/>
         <v>720</v>
       </c>
-      <c r="U62">
+      <c r="W62">
         <f t="shared" si="6"/>
         <v>1553</v>
       </c>
-      <c r="V62">
+      <c r="X62">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y62">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>197</v>
       </c>
@@ -8773,44 +9300,52 @@
       <c r="L63">
         <v>75</v>
       </c>
-      <c r="M63">
-        <f t="shared" si="8"/>
+      <c r="O63">
+        <f t="shared" si="10"/>
         <v>0.3</v>
       </c>
-      <c r="O63">
+      <c r="Q63">
         <f t="shared" si="0"/>
         <v>103.8</v>
       </c>
-      <c r="P63">
+      <c r="R63">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="Q63">
+      <c r="S63">
         <f t="shared" si="2"/>
         <v>37.799999999999997</v>
       </c>
-      <c r="R63">
+      <c r="T63">
         <f t="shared" si="3"/>
         <v>763.8</v>
       </c>
-      <c r="S63">
+      <c r="U63">
         <f t="shared" si="4"/>
         <v>172.5</v>
       </c>
-      <c r="T63">
+      <c r="V63">
         <f t="shared" si="5"/>
         <v>682.19999999999993</v>
       </c>
-      <c r="U63">
+      <c r="W63">
         <f t="shared" si="6"/>
         <v>1312.2</v>
       </c>
-      <c r="V63">
+      <c r="X63">
         <f t="shared" si="7"/>
         <v>22.5</v>
       </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y63">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>196</v>
       </c>
@@ -8847,44 +9382,52 @@
       <c r="L64">
         <v>2</v>
       </c>
-      <c r="M64">
-        <f t="shared" si="8"/>
+      <c r="O64">
+        <f t="shared" si="10"/>
         <v>1.75</v>
       </c>
-      <c r="O64">
+      <c r="Q64">
         <f t="shared" si="0"/>
         <v>122.5</v>
       </c>
-      <c r="P64">
+      <c r="R64">
         <f t="shared" si="1"/>
         <v>36.75</v>
       </c>
-      <c r="Q64">
+      <c r="S64">
         <f t="shared" si="2"/>
         <v>50.75</v>
       </c>
-      <c r="R64">
+      <c r="T64">
         <f t="shared" si="3"/>
         <v>614.25</v>
       </c>
-      <c r="S64">
+      <c r="U64">
         <f t="shared" si="4"/>
         <v>126</v>
       </c>
-      <c r="T64">
+      <c r="V64">
         <f t="shared" si="5"/>
         <v>1834</v>
       </c>
-      <c r="U64">
+      <c r="W64">
         <f t="shared" si="6"/>
         <v>2679.25</v>
       </c>
-      <c r="V64">
+      <c r="X64">
         <f t="shared" si="7"/>
         <v>3.5</v>
       </c>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y64">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>195</v>
       </c>
@@ -8921,44 +9464,52 @@
       <c r="L65">
         <v>19</v>
       </c>
-      <c r="M65">
-        <f t="shared" si="8"/>
+      <c r="O65">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="O65">
+      <c r="Q65">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="P65">
+      <c r="R65">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="Q65">
+      <c r="S65">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="R65">
+      <c r="T65">
         <f t="shared" si="3"/>
         <v>401</v>
       </c>
-      <c r="S65">
+      <c r="U65">
         <f t="shared" si="4"/>
         <v>104</v>
       </c>
-      <c r="T65">
+      <c r="V65">
         <f t="shared" si="5"/>
         <v>305</v>
       </c>
-      <c r="U65">
+      <c r="W65">
         <f t="shared" si="6"/>
         <v>688</v>
       </c>
-      <c r="V65">
+      <c r="X65">
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>194</v>
       </c>
@@ -8995,44 +9546,52 @@
       <c r="L66">
         <v>3</v>
       </c>
-      <c r="M66">
-        <f t="shared" si="8"/>
+      <c r="O66">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="O66">
+      <c r="Q66">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="P66">
+      <c r="R66">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="Q66">
+      <c r="S66">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="R66">
+      <c r="T66">
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="S66">
+      <c r="U66">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="T66">
+      <c r="V66">
         <f t="shared" si="5"/>
         <v>84</v>
       </c>
-      <c r="U66">
+      <c r="W66">
         <f t="shared" si="6"/>
         <v>184</v>
       </c>
-      <c r="V66">
+      <c r="X66">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>193</v>
       </c>
@@ -9069,44 +9628,52 @@
       <c r="L67">
         <v>181</v>
       </c>
-      <c r="M67">
-        <f t="shared" si="8"/>
+      <c r="O67">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="O67">
-        <f t="shared" ref="O67:O87" si="9">E67*M67</f>
+      <c r="Q67">
+        <f t="shared" ref="Q67:Q87" si="11">E67*O67</f>
         <v>356</v>
       </c>
-      <c r="P67">
-        <f t="shared" ref="P67:P87" si="10">F67*M67</f>
+      <c r="R67">
+        <f t="shared" ref="R67:R87" si="12">F67*O67</f>
         <v>494</v>
       </c>
-      <c r="Q67">
-        <f t="shared" ref="Q67:Q87" si="11">G67*M67</f>
+      <c r="S67">
+        <f t="shared" ref="S67:S87" si="13">G67*O67</f>
         <v>366</v>
       </c>
-      <c r="R67">
-        <f t="shared" ref="R67:R87" si="12">H67*M67</f>
+      <c r="T67">
+        <f t="shared" ref="T67:T87" si="14">H67*O67</f>
         <v>2894</v>
       </c>
-      <c r="S67">
-        <f t="shared" ref="S67:S87" si="13">I67*M67</f>
+      <c r="U67">
+        <f t="shared" ref="U67:U87" si="15">I67*O67</f>
         <v>844</v>
       </c>
-      <c r="T67">
-        <f t="shared" ref="T67:T87" si="14">J67*M67</f>
+      <c r="V67">
+        <f t="shared" ref="V67:V87" si="16">J67*O67</f>
         <v>166</v>
       </c>
-      <c r="U67">
-        <f t="shared" ref="U67:U87" si="15">K67*M67</f>
+      <c r="W67">
+        <f t="shared" ref="W67:W87" si="17">K67*O67</f>
         <v>6266</v>
       </c>
-      <c r="V67">
-        <f t="shared" ref="V67:V87" si="16">L67*M67</f>
+      <c r="X67">
+        <f t="shared" ref="X67:X87" si="18">L67*O67</f>
         <v>362</v>
       </c>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y67">
+        <f t="shared" ref="Y67:Y87" si="19">M67/O67</f>
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <f t="shared" ref="Z67:Z87" si="20">N67/O67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>191</v>
       </c>
@@ -9143,44 +9710,52 @@
       <c r="L68">
         <v>40</v>
       </c>
-      <c r="M68">
-        <f t="shared" ref="M68:M87" si="17">C68/100</f>
+      <c r="O68">
+        <f t="shared" ref="O68:O87" si="21">C68/100</f>
         <v>1.25</v>
-      </c>
-      <c r="O68">
-        <f t="shared" si="9"/>
-        <v>275</v>
-      </c>
-      <c r="P68">
-        <f t="shared" si="10"/>
-        <v>133.75</v>
       </c>
       <c r="Q68">
         <f t="shared" si="11"/>
-        <v>95</v>
+        <v>275</v>
       </c>
       <c r="R68">
         <f t="shared" si="12"/>
-        <v>2452.5</v>
+        <v>133.75</v>
       </c>
       <c r="S68">
         <f t="shared" si="13"/>
-        <v>276.25</v>
+        <v>95</v>
       </c>
       <c r="T68">
         <f t="shared" si="14"/>
-        <v>873.75</v>
+        <v>2452.5</v>
       </c>
       <c r="U68">
         <f t="shared" si="15"/>
-        <v>2457.5</v>
+        <v>276.25</v>
       </c>
       <c r="V68">
         <f t="shared" si="16"/>
+        <v>873.75</v>
+      </c>
+      <c r="W68">
+        <f t="shared" si="17"/>
+        <v>2457.5</v>
+      </c>
+      <c r="X68">
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y68">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>190</v>
       </c>
@@ -9217,44 +9792,52 @@
       <c r="L69">
         <v>1706</v>
       </c>
-      <c r="M69">
-        <f t="shared" si="17"/>
+      <c r="O69">
+        <f t="shared" si="21"/>
         <v>1.17</v>
-      </c>
-      <c r="O69">
-        <f t="shared" si="9"/>
-        <v>341.64</v>
-      </c>
-      <c r="P69">
-        <f t="shared" si="10"/>
-        <v>52.65</v>
       </c>
       <c r="Q69">
         <f t="shared" si="11"/>
-        <v>76.05</v>
+        <v>341.64</v>
       </c>
       <c r="R69">
         <f t="shared" si="12"/>
-        <v>909.08999999999992</v>
+        <v>52.65</v>
       </c>
       <c r="S69">
         <f t="shared" si="13"/>
-        <v>187.2</v>
+        <v>76.05</v>
       </c>
       <c r="T69">
         <f t="shared" si="14"/>
-        <v>2925</v>
+        <v>909.08999999999992</v>
       </c>
       <c r="U69">
         <f t="shared" si="15"/>
-        <v>4192.1099999999997</v>
+        <v>187.2</v>
       </c>
       <c r="V69">
         <f t="shared" si="16"/>
+        <v>2925</v>
+      </c>
+      <c r="W69">
+        <f t="shared" si="17"/>
+        <v>4192.1099999999997</v>
+      </c>
+      <c r="X69">
+        <f t="shared" si="18"/>
         <v>1996.02</v>
       </c>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y69">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>189</v>
       </c>
@@ -9291,44 +9874,52 @@
       <c r="L70">
         <v>2</v>
       </c>
-      <c r="M70">
-        <f t="shared" si="17"/>
+      <c r="O70">
+        <f t="shared" si="21"/>
         <v>1</v>
-      </c>
-      <c r="O70">
-        <f t="shared" si="9"/>
-        <v>73</v>
-      </c>
-      <c r="P70">
-        <f t="shared" si="10"/>
-        <v>21</v>
       </c>
       <c r="Q70">
         <f t="shared" si="11"/>
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="R70">
         <f t="shared" si="12"/>
-        <v>359</v>
+        <v>21</v>
       </c>
       <c r="S70">
         <f t="shared" si="13"/>
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="T70">
         <f t="shared" si="14"/>
-        <v>1220</v>
+        <v>359</v>
       </c>
       <c r="U70">
         <f t="shared" si="15"/>
-        <v>1720</v>
+        <v>74</v>
       </c>
       <c r="V70">
         <f t="shared" si="16"/>
+        <v>1220</v>
+      </c>
+      <c r="W70">
+        <f t="shared" si="17"/>
+        <v>1720</v>
+      </c>
+      <c r="X70">
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y70">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>218</v>
       </c>
@@ -9365,44 +9956,52 @@
       <c r="L71">
         <v>464</v>
       </c>
-      <c r="M71">
-        <f t="shared" si="17"/>
+      <c r="O71">
+        <f t="shared" si="21"/>
         <v>0.15</v>
-      </c>
-      <c r="O71">
-        <f t="shared" si="9"/>
-        <v>111.14999999999999</v>
-      </c>
-      <c r="P71">
-        <f t="shared" si="10"/>
-        <v>0.6</v>
       </c>
       <c r="Q71">
         <f t="shared" si="11"/>
-        <v>1.2</v>
+        <v>111.14999999999999</v>
       </c>
       <c r="R71">
         <f t="shared" si="12"/>
-        <v>18.149999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="S71">
         <f t="shared" si="13"/>
-        <v>2.25</v>
+        <v>1.2</v>
       </c>
       <c r="T71">
         <f t="shared" si="14"/>
-        <v>5.0999999999999996</v>
+        <v>18.149999999999999</v>
       </c>
       <c r="U71">
         <f t="shared" si="15"/>
-        <v>25.05</v>
+        <v>2.25</v>
       </c>
       <c r="V71">
         <f t="shared" si="16"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="W71">
+        <f t="shared" si="17"/>
+        <v>25.05</v>
+      </c>
+      <c r="X71">
+        <f t="shared" si="18"/>
         <v>69.599999999999994</v>
       </c>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y71">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>217</v>
       </c>
@@ -9439,44 +10038,52 @@
       <c r="L72">
         <v>953</v>
       </c>
-      <c r="M72">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
       <c r="O72">
-        <f t="shared" si="9"/>
-        <v>882</v>
-      </c>
-      <c r="P72">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="Q72">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>882</v>
       </c>
       <c r="R72">
         <f t="shared" si="12"/>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="S72">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T72">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="U72">
         <f t="shared" si="15"/>
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="V72">
         <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <f t="shared" si="17"/>
+        <v>17</v>
+      </c>
+      <c r="X72">
+        <f t="shared" si="18"/>
         <v>953</v>
       </c>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y72">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>216</v>
       </c>
@@ -9513,44 +10120,52 @@
       <c r="L73">
         <v>2600</v>
       </c>
-      <c r="M73">
-        <f t="shared" si="17"/>
+      <c r="O73">
+        <f t="shared" si="21"/>
         <v>0.15</v>
-      </c>
-      <c r="O73">
-        <f t="shared" si="9"/>
-        <v>106.35</v>
-      </c>
-      <c r="P73">
-        <f t="shared" si="10"/>
-        <v>0.3</v>
       </c>
       <c r="Q73">
         <f t="shared" si="11"/>
-        <v>0.44999999999999996</v>
+        <v>106.35</v>
       </c>
       <c r="R73">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>0.3</v>
       </c>
       <c r="S73">
         <f t="shared" si="13"/>
-        <v>0.6</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="T73">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U73">
         <f t="shared" si="15"/>
-        <v>10.5</v>
+        <v>0.6</v>
       </c>
       <c r="V73">
         <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="W73">
+        <f t="shared" si="17"/>
+        <v>10.5</v>
+      </c>
+      <c r="X73">
+        <f t="shared" si="18"/>
         <v>390</v>
       </c>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y73">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>215</v>
       </c>
@@ -9587,21 +10202,13 @@
       <c r="L74">
         <v>855</v>
       </c>
-      <c r="M74">
-        <f t="shared" si="17"/>
+      <c r="O74">
+        <f t="shared" si="21"/>
         <v>0.15</v>
-      </c>
-      <c r="O74">
-        <f t="shared" si="9"/>
-        <v>132.6</v>
-      </c>
-      <c r="P74">
-        <f t="shared" si="10"/>
-        <v>0</v>
       </c>
       <c r="Q74">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>132.6</v>
       </c>
       <c r="R74">
         <f t="shared" si="12"/>
@@ -9621,10 +10228,26 @@
       </c>
       <c r="V74">
         <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <f t="shared" si="18"/>
         <v>128.25</v>
       </c>
-    </row>
-    <row r="75" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y74">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>214</v>
       </c>
@@ -9661,21 +10284,13 @@
       <c r="L75">
         <v>8584</v>
       </c>
-      <c r="M75">
-        <f t="shared" si="17"/>
+      <c r="O75">
+        <f t="shared" si="21"/>
         <v>0.15</v>
-      </c>
-      <c r="O75">
-        <f t="shared" si="9"/>
-        <v>132.6</v>
-      </c>
-      <c r="P75">
-        <f t="shared" si="10"/>
-        <v>0</v>
       </c>
       <c r="Q75">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>132.6</v>
       </c>
       <c r="R75">
         <f t="shared" si="12"/>
@@ -9695,10 +10310,26 @@
       </c>
       <c r="V75">
         <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <f t="shared" si="18"/>
         <v>1287.5999999999999</v>
       </c>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y75">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>192</v>
       </c>
@@ -9735,44 +10366,52 @@
       <c r="L76">
         <v>223</v>
       </c>
-      <c r="M76">
-        <f t="shared" si="17"/>
+      <c r="O76">
+        <f t="shared" si="21"/>
         <v>0.15</v>
-      </c>
-      <c r="O76">
-        <f t="shared" si="9"/>
-        <v>114.14999999999999</v>
-      </c>
-      <c r="P76">
-        <f t="shared" si="10"/>
-        <v>4.5</v>
       </c>
       <c r="Q76">
         <f t="shared" si="11"/>
-        <v>4.05</v>
+        <v>114.14999999999999</v>
       </c>
       <c r="R76">
         <f t="shared" si="12"/>
-        <v>31.95</v>
+        <v>4.5</v>
       </c>
       <c r="S76">
         <f t="shared" si="13"/>
-        <v>9</v>
+        <v>4.05</v>
       </c>
       <c r="T76">
         <f t="shared" si="14"/>
-        <v>15.899999999999999</v>
+        <v>31.95</v>
       </c>
       <c r="U76">
         <f t="shared" si="15"/>
-        <v>83.399999999999991</v>
+        <v>9</v>
       </c>
       <c r="V76">
         <f t="shared" si="16"/>
+        <v>15.899999999999999</v>
+      </c>
+      <c r="W76">
+        <f t="shared" si="17"/>
+        <v>83.399999999999991</v>
+      </c>
+      <c r="X76">
+        <f t="shared" si="18"/>
         <v>33.449999999999996</v>
       </c>
-    </row>
-    <row r="77" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y76">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>213</v>
       </c>
@@ -9809,21 +10448,13 @@
       <c r="L77">
         <v>0</v>
       </c>
-      <c r="M77">
-        <f t="shared" si="17"/>
+      <c r="O77">
+        <f t="shared" si="21"/>
         <v>5</v>
-      </c>
-      <c r="O77">
-        <f t="shared" si="9"/>
-        <v>235</v>
-      </c>
-      <c r="P77">
-        <f t="shared" si="10"/>
-        <v>0</v>
       </c>
       <c r="Q77">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="R77">
         <f t="shared" si="12"/>
@@ -9845,8 +10476,24 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W77">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>212</v>
       </c>
@@ -9883,21 +10530,13 @@
       <c r="L78">
         <v>0</v>
       </c>
-      <c r="M78">
-        <f t="shared" si="17"/>
+      <c r="O78">
+        <f t="shared" si="21"/>
         <v>5</v>
-      </c>
-      <c r="O78">
-        <f t="shared" si="9"/>
-        <v>145</v>
-      </c>
-      <c r="P78">
-        <f t="shared" si="10"/>
-        <v>0</v>
       </c>
       <c r="Q78">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="R78">
         <f t="shared" si="12"/>
@@ -9919,8 +10558,24 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W78">
+        <f>K78*O78</f>
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <f>L78*O78</f>
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <f>M78/O78</f>
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <f>N78/O78</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>211</v>
       </c>
@@ -9957,44 +10612,52 @@
       <c r="L79">
         <v>5</v>
       </c>
-      <c r="M79">
-        <f t="shared" si="17"/>
+      <c r="O79">
+        <f t="shared" si="21"/>
         <v>5</v>
-      </c>
-      <c r="O79">
-        <f t="shared" si="9"/>
-        <v>235</v>
-      </c>
-      <c r="P79">
-        <f t="shared" si="10"/>
-        <v>0</v>
       </c>
       <c r="Q79">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>235</v>
       </c>
       <c r="R79">
         <f t="shared" si="12"/>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="S79">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T79">
         <f t="shared" si="14"/>
-        <v>1500</v>
+        <v>35</v>
       </c>
       <c r="U79">
         <f t="shared" si="15"/>
-        <v>1585</v>
+        <v>10</v>
       </c>
       <c r="V79">
         <f t="shared" si="16"/>
+        <v>1500</v>
+      </c>
+      <c r="W79">
+        <f t="shared" si="17"/>
+        <v>1585</v>
+      </c>
+      <c r="X79">
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y79">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>210</v>
       </c>
@@ -10031,44 +10694,52 @@
       <c r="L80">
         <v>74</v>
       </c>
-      <c r="M80">
-        <f t="shared" si="17"/>
+      <c r="O80">
+        <f t="shared" si="21"/>
         <v>5</v>
-      </c>
-      <c r="O80">
-        <f t="shared" si="9"/>
-        <v>185</v>
-      </c>
-      <c r="P80">
-        <f t="shared" si="10"/>
-        <v>50</v>
       </c>
       <c r="Q80">
         <f t="shared" si="11"/>
-        <v>25</v>
+        <v>185</v>
       </c>
       <c r="R80">
         <f t="shared" si="12"/>
-        <v>455</v>
+        <v>50</v>
       </c>
       <c r="S80">
         <f t="shared" si="13"/>
-        <v>380</v>
+        <v>25</v>
       </c>
       <c r="T80">
         <f t="shared" si="14"/>
-        <v>685</v>
+        <v>455</v>
       </c>
       <c r="U80">
         <f t="shared" si="15"/>
-        <v>1100</v>
+        <v>380</v>
       </c>
       <c r="V80">
         <f t="shared" si="16"/>
+        <v>685</v>
+      </c>
+      <c r="W80">
+        <f t="shared" si="17"/>
+        <v>1100</v>
+      </c>
+      <c r="X80">
+        <f t="shared" si="18"/>
         <v>370</v>
       </c>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y80">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>209</v>
       </c>
@@ -10105,44 +10776,52 @@
       <c r="L81">
         <v>18</v>
       </c>
-      <c r="M81">
-        <f t="shared" si="17"/>
+      <c r="O81">
+        <f t="shared" si="21"/>
         <v>5</v>
-      </c>
-      <c r="O81">
-        <f t="shared" si="9"/>
-        <v>215</v>
-      </c>
-      <c r="P81">
-        <f t="shared" si="10"/>
-        <v>20</v>
       </c>
       <c r="Q81">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>215</v>
       </c>
       <c r="R81">
         <f t="shared" si="12"/>
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="S81">
         <f t="shared" si="13"/>
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="T81">
         <f t="shared" si="14"/>
-        <v>1250</v>
+        <v>155</v>
       </c>
       <c r="U81">
         <f t="shared" si="15"/>
-        <v>1435</v>
+        <v>45</v>
       </c>
       <c r="V81">
         <f t="shared" si="16"/>
+        <v>1250</v>
+      </c>
+      <c r="W81">
+        <f t="shared" si="17"/>
+        <v>1435</v>
+      </c>
+      <c r="X81">
+        <f t="shared" si="18"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y81">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>208</v>
       </c>
@@ -10179,25 +10858,17 @@
       <c r="L82">
         <v>0</v>
       </c>
-      <c r="M82">
-        <f t="shared" si="17"/>
+      <c r="O82">
+        <f t="shared" si="21"/>
         <v>2</v>
-      </c>
-      <c r="O82">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P82">
-        <f t="shared" si="10"/>
-        <v>14</v>
       </c>
       <c r="Q82">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="R82">
         <f t="shared" si="12"/>
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="S82">
         <f t="shared" si="13"/>
@@ -10205,18 +10876,34 @@
       </c>
       <c r="T82">
         <f t="shared" si="14"/>
-        <v>200</v>
+        <v>72</v>
       </c>
       <c r="U82">
         <f t="shared" si="15"/>
-        <v>434</v>
+        <v>14</v>
       </c>
       <c r="V82">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="W82">
+        <f t="shared" si="17"/>
+        <v>434</v>
+      </c>
+      <c r="X82">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Y82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z82">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>207</v>
       </c>
@@ -10253,17 +10940,9 @@
       <c r="L83">
         <v>0</v>
       </c>
-      <c r="M83">
-        <f t="shared" si="17"/>
+      <c r="O83">
+        <f t="shared" si="21"/>
         <v>2.5</v>
-      </c>
-      <c r="O83">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P83">
-        <f t="shared" si="10"/>
-        <v>0</v>
       </c>
       <c r="Q83">
         <f t="shared" si="11"/>
@@ -10289,8 +10968,24 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W83">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Y83">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z83">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>206</v>
       </c>
@@ -10327,44 +11022,52 @@
       <c r="L84">
         <v>0</v>
       </c>
-      <c r="M84">
-        <f t="shared" si="17"/>
+      <c r="O84">
+        <f t="shared" si="21"/>
         <v>2.5</v>
-      </c>
-      <c r="O84">
-        <f t="shared" si="9"/>
-        <v>182.5</v>
-      </c>
-      <c r="P84">
-        <f t="shared" si="10"/>
-        <v>10</v>
       </c>
       <c r="Q84">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>182.5</v>
       </c>
       <c r="R84">
         <f t="shared" si="12"/>
-        <v>82.5</v>
+        <v>10</v>
       </c>
       <c r="S84">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T84">
         <f t="shared" si="14"/>
-        <v>250</v>
+        <v>82.5</v>
       </c>
       <c r="U84">
         <f t="shared" si="15"/>
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="V84">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="W84">
+        <f t="shared" si="17"/>
+        <v>250</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Y84">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z84">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>205</v>
       </c>
@@ -10401,44 +11104,52 @@
       <c r="L85">
         <v>0</v>
       </c>
-      <c r="M85">
-        <f t="shared" si="17"/>
+      <c r="O85">
+        <f t="shared" si="21"/>
         <v>2.5</v>
-      </c>
-      <c r="O85">
-        <f t="shared" si="9"/>
-        <v>182.5</v>
-      </c>
-      <c r="P85">
-        <f t="shared" si="10"/>
-        <v>10</v>
       </c>
       <c r="Q85">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>182.5</v>
       </c>
       <c r="R85">
         <f t="shared" si="12"/>
-        <v>82.5</v>
+        <v>10</v>
       </c>
       <c r="S85">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T85">
         <f t="shared" si="14"/>
-        <v>250</v>
+        <v>82.5</v>
       </c>
       <c r="U85">
         <f t="shared" si="15"/>
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="V85">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+      <c r="W85">
+        <f t="shared" si="17"/>
+        <v>250</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Y85">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z85">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>204</v>
       </c>
@@ -10475,44 +11186,52 @@
       <c r="L86">
         <v>0</v>
       </c>
-      <c r="M86">
-        <f t="shared" si="17"/>
+      <c r="O86">
+        <f t="shared" si="21"/>
         <v>3.3</v>
-      </c>
-      <c r="O86">
-        <f t="shared" si="9"/>
-        <v>138.6</v>
-      </c>
-      <c r="P86">
-        <f t="shared" si="10"/>
-        <v>23.099999999999998</v>
       </c>
       <c r="Q86">
         <f t="shared" si="11"/>
-        <v>36.299999999999997</v>
+        <v>138.6</v>
       </c>
       <c r="R86">
         <f t="shared" si="12"/>
-        <v>339.9</v>
+        <v>23.099999999999998</v>
       </c>
       <c r="S86">
         <f t="shared" si="13"/>
-        <v>92.399999999999991</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="T86">
         <f t="shared" si="14"/>
-        <v>2541</v>
+        <v>339.9</v>
       </c>
       <c r="U86">
         <f t="shared" si="15"/>
-        <v>3144.8999999999996</v>
+        <v>92.399999999999991</v>
       </c>
       <c r="V86">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+        <v>2541</v>
+      </c>
+      <c r="W86">
+        <f t="shared" si="17"/>
+        <v>3144.8999999999996</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Y86">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z86">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>203</v>
       </c>
@@ -10549,21 +11268,13 @@
       <c r="L87">
         <v>0</v>
       </c>
-      <c r="M87">
-        <f t="shared" si="17"/>
+      <c r="O87">
+        <f t="shared" si="21"/>
         <v>0.2</v>
-      </c>
-      <c r="O87">
-        <f t="shared" si="9"/>
-        <v>48.400000000000006</v>
-      </c>
-      <c r="P87">
-        <f t="shared" si="10"/>
-        <v>0</v>
       </c>
       <c r="Q87">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>48.400000000000006</v>
       </c>
       <c r="R87">
         <f t="shared" si="12"/>
@@ -10583,6 +11294,22 @@
       </c>
       <c r="V87">
         <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W87">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Y87">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z87">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -10590,4 +11317,24 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8473F38-4A37-4808-82F3-B0803D6F788E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>